--- a/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.65790971595732</v>
+        <v>17.65790971595728</v>
       </c>
       <c r="C2">
-        <v>15.0141348268224</v>
+        <v>15.0141348268225</v>
       </c>
       <c r="D2">
-        <v>7.431952311291651</v>
+        <v>7.431952311291688</v>
       </c>
       <c r="E2">
-        <v>7.118270641021136</v>
+        <v>7.118270641021162</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.28294944202405</v>
+        <v>36.28294944202403</v>
       </c>
       <c r="H2">
-        <v>31.06312243436633</v>
+        <v>31.06312243436632</v>
       </c>
       <c r="I2">
-        <v>4.824795903070804</v>
+        <v>4.824795903070767</v>
       </c>
       <c r="J2">
         <v>16.50433242007293</v>
       </c>
       <c r="K2">
-        <v>9.901736691108159</v>
+        <v>9.901736691108152</v>
       </c>
       <c r="L2">
-        <v>13.75656406988491</v>
+        <v>13.75656406988489</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.37317467495338</v>
+        <v>16.37317467495339</v>
       </c>
       <c r="C3">
-        <v>13.91031723287268</v>
+        <v>13.91031723287258</v>
       </c>
       <c r="D3">
-        <v>7.030141764419971</v>
+        <v>7.030141764419954</v>
       </c>
       <c r="E3">
-        <v>6.967761040423608</v>
+        <v>6.967761040423532</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.65088136351181</v>
+        <v>34.65088136351191</v>
       </c>
       <c r="H3">
-        <v>29.8670966937149</v>
+        <v>29.86709669371496</v>
       </c>
       <c r="I3">
-        <v>4.842189995260455</v>
+        <v>4.842189995260419</v>
       </c>
       <c r="J3">
-        <v>15.31792934853616</v>
+        <v>15.31792934853614</v>
       </c>
       <c r="K3">
-        <v>9.465247489424289</v>
+        <v>9.465247489424266</v>
       </c>
       <c r="L3">
         <v>12.88482159372208</v>
@@ -491,34 +491,34 @@
         <v>15.54612515666592</v>
       </c>
       <c r="C4">
-        <v>13.20120026972708</v>
+        <v>13.20120026972715</v>
       </c>
       <c r="D4">
-        <v>6.779170054922927</v>
+        <v>6.779170054922933</v>
       </c>
       <c r="E4">
-        <v>6.878549474267177</v>
+        <v>6.87854947426715</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.64185985521231</v>
+        <v>33.64185985521226</v>
       </c>
       <c r="H4">
-        <v>29.13330641088916</v>
+        <v>29.13330641088911</v>
       </c>
       <c r="I4">
-        <v>4.853355884162117</v>
+        <v>4.853355884162054</v>
       </c>
       <c r="J4">
-        <v>14.55420402800579</v>
+        <v>14.55420402800582</v>
       </c>
       <c r="K4">
-        <v>9.196773628203655</v>
+        <v>9.196773628203637</v>
       </c>
       <c r="L4">
-        <v>12.46072577062543</v>
+        <v>12.46072577062541</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.1993002252189</v>
+        <v>15.19930022521888</v>
       </c>
       <c r="C5">
-        <v>12.90416887546173</v>
+        <v>12.90416887546159</v>
       </c>
       <c r="D5">
-        <v>6.675910102777998</v>
+        <v>6.675910102777973</v>
       </c>
       <c r="E5">
-        <v>6.842992233798483</v>
+        <v>6.842992233798402</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>33.22920332817647</v>
+        <v>33.2292033281765</v>
       </c>
       <c r="H5">
-        <v>28.83457490242436</v>
+        <v>28.83457490242433</v>
       </c>
       <c r="I5">
-        <v>4.858028490088837</v>
+        <v>4.858028490088867</v>
       </c>
       <c r="J5">
-        <v>14.23392258179486</v>
+        <v>14.23392258179476</v>
       </c>
       <c r="K5">
-        <v>9.087345826818648</v>
+        <v>9.087345826818662</v>
       </c>
       <c r="L5">
-        <v>12.28698974960818</v>
+        <v>12.2869897496082</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.14111347621787</v>
+        <v>15.14111347621783</v>
       </c>
       <c r="C6">
-        <v>12.854355495202</v>
+        <v>12.85435549520214</v>
       </c>
       <c r="D6">
-        <v>6.65870721625107</v>
+        <v>6.658707216251153</v>
       </c>
       <c r="E6">
-        <v>6.83713592084586</v>
+        <v>6.837135920845906</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>33.16060249443634</v>
+        <v>33.16060249443639</v>
       </c>
       <c r="H6">
-        <v>28.78499370879913</v>
+        <v>28.78499370879922</v>
       </c>
       <c r="I6">
-        <v>4.858811774931556</v>
+        <v>4.858811774931522</v>
       </c>
       <c r="J6">
         <v>14.18018779671582</v>
       </c>
       <c r="K6">
-        <v>9.06917725657617</v>
+        <v>9.069177256576156</v>
       </c>
       <c r="L6">
-        <v>12.25809164105003</v>
+        <v>12.25809164105004</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.54148764959401</v>
+        <v>15.54148764959412</v>
       </c>
       <c r="C7">
-        <v>13.19722725266987</v>
+        <v>13.19722725266992</v>
       </c>
       <c r="D7">
-        <v>6.777781321258904</v>
+        <v>6.777781321258929</v>
       </c>
       <c r="E7">
-        <v>6.878066718608952</v>
+        <v>6.878066718609095</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.63630017226548</v>
+        <v>33.63630017226546</v>
       </c>
       <c r="H7">
-        <v>29.12927619400667</v>
+        <v>29.12927619400668</v>
       </c>
       <c r="I7">
-        <v>4.853418404519863</v>
+        <v>4.853418404519897</v>
       </c>
       <c r="J7">
-        <v>14.54992151255129</v>
+        <v>14.54992151255139</v>
       </c>
       <c r="K7">
-        <v>9.19529779638593</v>
+        <v>9.195297796385917</v>
       </c>
       <c r="L7">
-        <v>12.45838614871116</v>
+        <v>12.45838614871115</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.22274785574057</v>
+        <v>17.22274785574046</v>
       </c>
       <c r="C8">
-        <v>14.63993943374643</v>
+        <v>14.63993943374637</v>
       </c>
       <c r="D8">
-        <v>7.294334022374573</v>
+        <v>7.294334022374585</v>
       </c>
       <c r="E8">
-        <v>7.065704996358557</v>
+        <v>7.065704996358462</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.72178587406094</v>
+        <v>35.72178587406098</v>
       </c>
       <c r="H8">
-        <v>30.65068890781938</v>
+        <v>30.65068890781946</v>
       </c>
       <c r="I8">
-        <v>4.830692673126209</v>
+        <v>4.830692673126141</v>
       </c>
       <c r="J8">
-        <v>16.10246288663987</v>
+        <v>16.10246288663975</v>
       </c>
       <c r="K8">
-        <v>9.751382324359577</v>
+        <v>9.751382324359527</v>
       </c>
       <c r="L8">
-        <v>13.42658218556756</v>
+        <v>13.42658218556752</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.22580632172525</v>
+        <v>20.22580632172512</v>
       </c>
       <c r="C9">
-        <v>17.22900569345214</v>
+        <v>17.22900569345211</v>
       </c>
       <c r="D9">
-        <v>8.271215052515542</v>
+        <v>8.271215052515544</v>
       </c>
       <c r="E9">
-        <v>7.459580766919776</v>
+        <v>7.45958076691966</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.74923862025972</v>
+        <v>39.7492386202597</v>
       </c>
       <c r="H9">
         <v>33.63490953639391</v>
       </c>
       <c r="I9">
-        <v>4.789976037046792</v>
+        <v>4.789976037046659</v>
       </c>
       <c r="J9">
-        <v>18.87645163066126</v>
+        <v>18.87645163066118</v>
       </c>
       <c r="K9">
-        <v>10.83525194680423</v>
+        <v>10.83525194680422</v>
       </c>
       <c r="L9">
-        <v>15.70445551270795</v>
+        <v>15.70445551270793</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.26767782167216</v>
+        <v>22.26767782167208</v>
       </c>
       <c r="C10">
-        <v>18.9988217532402</v>
+        <v>18.99882175324026</v>
       </c>
       <c r="D10">
-        <v>8.965883763960502</v>
+        <v>8.965883763960504</v>
       </c>
       <c r="E10">
-        <v>7.765838991931842</v>
+        <v>7.765838991931918</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.66800384950263</v>
+        <v>42.6680038495026</v>
       </c>
       <c r="H10">
-        <v>35.827540464444</v>
+        <v>35.82754046444398</v>
       </c>
       <c r="I10">
-        <v>4.76240901130544</v>
+        <v>4.762409011305508</v>
       </c>
       <c r="J10">
         <v>20.76398785321289</v>
       </c>
       <c r="K10">
-        <v>11.62573546929519</v>
+        <v>11.6257354692952</v>
       </c>
       <c r="L10">
-        <v>17.25426300101908</v>
+        <v>17.25426300101903</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.16467514205012</v>
+        <v>23.16467514205013</v>
       </c>
       <c r="C11">
-        <v>19.77889009778082</v>
+        <v>19.77889009778084</v>
       </c>
       <c r="D11">
         <v>9.277253761261701</v>
       </c>
       <c r="E11">
-        <v>7.909205475246436</v>
+        <v>7.909205475246488</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>43.98887965793931</v>
+        <v>43.98887965793941</v>
       </c>
       <c r="H11">
-        <v>36.82653801876068</v>
+        <v>36.82653801876074</v>
       </c>
       <c r="I11">
-        <v>4.750382770886211</v>
+        <v>4.750382770886247</v>
       </c>
       <c r="J11">
-        <v>21.59369493709361</v>
+        <v>21.59369493709365</v>
       </c>
       <c r="K11">
-        <v>11.98434106099094</v>
+        <v>11.98434106099097</v>
       </c>
       <c r="L11">
-        <v>17.93538290922368</v>
+        <v>17.9353829092237</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.50013258684976</v>
+        <v>23.50013258684979</v>
       </c>
       <c r="C12">
-        <v>20.07104189860714</v>
+        <v>20.07104189860695</v>
       </c>
       <c r="D12">
         <v>9.394561485216881</v>
@@ -807,22 +807,22 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.48838032443773</v>
+        <v>44.48838032443764</v>
       </c>
       <c r="H12">
-        <v>37.2052961226176</v>
+        <v>37.20529612261752</v>
       </c>
       <c r="I12">
-        <v>4.745903604343321</v>
+        <v>4.745903604343259</v>
       </c>
       <c r="J12">
-        <v>21.90407864430944</v>
+        <v>21.90407864430943</v>
       </c>
       <c r="K12">
-        <v>12.12006098856632</v>
+        <v>12.12006098856631</v>
       </c>
       <c r="L12">
-        <v>18.1901533278327</v>
+        <v>18.19015332783271</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.42806693850077</v>
+        <v>23.42806693850066</v>
       </c>
       <c r="C13">
-        <v>20.00825976962103</v>
+        <v>20.00825976962125</v>
       </c>
       <c r="D13">
-        <v>9.369322532807219</v>
+        <v>9.369322532807253</v>
       </c>
       <c r="E13">
-        <v>7.95226517893401</v>
+        <v>7.952265178933966</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.38082810693247</v>
+        <v>44.38082810693229</v>
       </c>
       <c r="H13">
-        <v>37.12369848797771</v>
+        <v>37.12369848797755</v>
       </c>
       <c r="I13">
-        <v>4.746864920704744</v>
+        <v>4.746864920704645</v>
       </c>
       <c r="J13">
-        <v>21.83739516241321</v>
+        <v>21.83739516241319</v>
       </c>
       <c r="K13">
-        <v>12.09083318995638</v>
+        <v>12.09083318995637</v>
       </c>
       <c r="L13">
-        <v>18.13541936413046</v>
+        <v>18.13541936413048</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.19235563958931</v>
+        <v>23.19235563958938</v>
       </c>
       <c r="C14">
-        <v>19.8029883679621</v>
+        <v>19.8029883679622</v>
       </c>
       <c r="D14">
-        <v>9.28691630278051</v>
+        <v>9.286916302780494</v>
       </c>
       <c r="E14">
-        <v>7.913710561862869</v>
+        <v>7.913710561862838</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.02998539564157</v>
+        <v>44.02998539564162</v>
       </c>
       <c r="H14">
-        <v>36.85768774901083</v>
+        <v>36.85768774901081</v>
       </c>
       <c r="I14">
-        <v>4.750012758575953</v>
+        <v>4.750012758575962</v>
       </c>
       <c r="J14">
-        <v>21.61930451134969</v>
+        <v>21.61930451134979</v>
       </c>
       <c r="K14">
         <v>11.99550783021235</v>
       </c>
       <c r="L14">
-        <v>17.95640449997913</v>
+        <v>17.9564044999792</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.04743836547941</v>
+        <v>23.04743836547937</v>
       </c>
       <c r="C15">
-        <v>19.67684283529806</v>
+        <v>19.6768428352979</v>
       </c>
       <c r="D15">
-        <v>9.236364275338794</v>
+        <v>9.236364275338808</v>
       </c>
       <c r="E15">
-        <v>7.890177729757765</v>
+        <v>7.89017772975776</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.81500611509752</v>
+        <v>43.81500611509741</v>
       </c>
       <c r="H15">
-        <v>36.69481707526215</v>
+        <v>36.69481707526207</v>
       </c>
       <c r="I15">
-        <v>4.751950692591509</v>
+        <v>4.751950692591563</v>
       </c>
       <c r="J15">
-        <v>21.48523307881874</v>
+        <v>21.48523307881867</v>
       </c>
       <c r="K15">
-        <v>11.93711099772231</v>
+        <v>11.93711099772228</v>
       </c>
       <c r="L15">
-        <v>17.84635089115213</v>
+        <v>17.84635089115207</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.2084459037553</v>
+        <v>22.2084459037554</v>
       </c>
       <c r="C16">
-        <v>18.94736804413941</v>
+        <v>18.94736804413938</v>
       </c>
       <c r="D16">
-        <v>8.945446578335563</v>
+        <v>8.945446578335645</v>
       </c>
       <c r="E16">
-        <v>7.756554541467549</v>
+        <v>7.756554541467582</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.58156580472895</v>
+        <v>42.5815658047292</v>
       </c>
       <c r="H16">
-        <v>35.7623027801061</v>
+        <v>35.76230278010629</v>
       </c>
       <c r="I16">
-        <v>4.763205373490876</v>
+        <v>4.763205373490877</v>
       </c>
       <c r="J16">
-        <v>20.7092112574713</v>
+        <v>20.70921125747137</v>
       </c>
       <c r="K16">
         <v>11.60228460688125</v>
       </c>
       <c r="L16">
-        <v>17.20929253390517</v>
+        <v>17.20929253390523</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.68583526633456</v>
+        <v>21.68583526633464</v>
       </c>
       <c r="C17">
-        <v>18.49368546183855</v>
+        <v>18.49368546183849</v>
       </c>
       <c r="D17">
-        <v>8.76582708203766</v>
+        <v>8.765827082037665</v>
       </c>
       <c r="E17">
-        <v>7.675644894311959</v>
+        <v>7.675644894311964</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.82330003957401</v>
+        <v>41.82330003957397</v>
       </c>
       <c r="H17">
-        <v>35.19077039089149</v>
+        <v>35.19077039089144</v>
       </c>
       <c r="I17">
-        <v>4.770241996894655</v>
+        <v>4.770241996894687</v>
       </c>
       <c r="J17">
         <v>20.22597063949715</v>
@@ -1012,7 +1012,7 @@
         <v>11.39666098523847</v>
       </c>
       <c r="L17">
-        <v>16.812545827528</v>
+        <v>16.81254582752804</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.3822199413737</v>
+        <v>21.38221994137368</v>
       </c>
       <c r="C18">
-        <v>18.23035915875018</v>
+        <v>18.23035915875013</v>
       </c>
       <c r="D18">
-        <v>8.662072354197322</v>
+        <v>8.662072354197319</v>
       </c>
       <c r="E18">
-        <v>7.629485545140385</v>
+        <v>7.629485545140444</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.38649139716383</v>
+        <v>41.38649139716389</v>
       </c>
       <c r="H18">
-        <v>34.86216687338423</v>
+        <v>34.86216687338434</v>
       </c>
       <c r="I18">
-        <v>4.774337587935005</v>
+        <v>4.774337587935</v>
       </c>
       <c r="J18">
-        <v>19.94527539793991</v>
+        <v>19.94527539793985</v>
       </c>
       <c r="K18">
-        <v>11.27829237871497</v>
+        <v>11.27829237871496</v>
       </c>
       <c r="L18">
-        <v>16.5820795375096</v>
+        <v>16.58207953750953</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.27889140461524</v>
+        <v>21.27889140461525</v>
       </c>
       <c r="C19">
-        <v>18.14078260027629</v>
+        <v>18.14078260027641</v>
       </c>
       <c r="D19">
-        <v>8.62686531156</v>
+        <v>8.626865311559968</v>
       </c>
       <c r="E19">
-        <v>7.613920537957484</v>
+        <v>7.613920537957451</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.23847265754534</v>
+        <v>41.23847265754524</v>
       </c>
       <c r="H19">
-        <v>34.75092362262239</v>
+        <v>34.75092362262231</v>
       </c>
       <c r="I19">
-        <v>4.775732559583143</v>
+        <v>4.775732559583144</v>
       </c>
       <c r="J19">
         <v>19.84975484640321</v>
@@ -1088,7 +1088,7 @@
         <v>11.23819635431378</v>
       </c>
       <c r="L19">
-        <v>16.50365012111599</v>
+        <v>16.50365012111603</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.74177849823531</v>
+        <v>21.74177849823543</v>
       </c>
       <c r="C20">
-        <v>18.54222466277299</v>
+        <v>18.54222466277302</v>
       </c>
       <c r="D20">
         <v>8.784993287197823</v>
       </c>
       <c r="E20">
-        <v>7.684218495188916</v>
+        <v>7.684218495189</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.90408674046979</v>
+        <v>41.90408674046993</v>
       </c>
       <c r="H20">
-        <v>35.25159648668961</v>
+        <v>35.25159648668969</v>
       </c>
       <c r="I20">
-        <v>4.769487930631737</v>
+        <v>4.769487930631767</v>
       </c>
       <c r="J20">
-        <v>20.27769443207403</v>
+        <v>20.27769443207415</v>
       </c>
       <c r="K20">
         <v>11.41855989645256</v>
       </c>
       <c r="L20">
-        <v>16.85501301577217</v>
+        <v>16.85501301577222</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.26170100539956</v>
+        <v>23.26170100539952</v>
       </c>
       <c r="C21">
-        <v>19.86336646670126</v>
+        <v>19.86336646670139</v>
       </c>
       <c r="D21">
-        <v>9.311136651956033</v>
+        <v>9.311136651956065</v>
       </c>
       <c r="E21">
-        <v>7.925017597076256</v>
+        <v>7.925017597076264</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.13305191607629</v>
+        <v>44.13305191607642</v>
       </c>
       <c r="H21">
-        <v>36.93580668915112</v>
+        <v>36.9358066891512</v>
       </c>
       <c r="I21">
-        <v>4.749086119125569</v>
+        <v>4.749086119125505</v>
       </c>
       <c r="J21">
-        <v>21.68346331094107</v>
+        <v>21.68346331094112</v>
       </c>
       <c r="K21">
-        <v>12.02350854585847</v>
+        <v>12.02350854585848</v>
       </c>
       <c r="L21">
-        <v>18.00906868738843</v>
+        <v>18.00906868738845</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.23069427703788</v>
+        <v>24.23069427703797</v>
       </c>
       <c r="C22">
-        <v>20.70811167652935</v>
+        <v>20.70811167652933</v>
       </c>
       <c r="D22">
-        <v>9.654890637086348</v>
+        <v>9.654890637086401</v>
       </c>
       <c r="E22">
-        <v>8.086070401086715</v>
+        <v>8.086070401086698</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.58605342376695</v>
+        <v>45.58605342376696</v>
       </c>
       <c r="H22">
-        <v>38.03940019600574</v>
+        <v>38.03940019600578</v>
       </c>
       <c r="I22">
         <v>4.736189809018445</v>
       </c>
       <c r="J22">
-        <v>22.58021909413398</v>
+        <v>22.58021909413401</v>
       </c>
       <c r="K22">
-        <v>12.41849287209029</v>
+        <v>12.4184928720903</v>
       </c>
       <c r="L22">
-        <v>18.74508263982221</v>
+        <v>18.74508263982229</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.71561848152119</v>
+        <v>23.71561848152107</v>
       </c>
       <c r="C23">
-        <v>20.25883379126497</v>
+        <v>20.25883379126493</v>
       </c>
       <c r="D23">
-        <v>9.470150882813831</v>
+        <v>9.470150882813817</v>
       </c>
       <c r="E23">
-        <v>7.99975912632261</v>
+        <v>7.999759126322635</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.81076524326538</v>
+        <v>44.81076524326541</v>
       </c>
       <c r="H23">
-        <v>37.45002376790673</v>
+        <v>37.45002376790679</v>
       </c>
       <c r="I23">
-        <v>4.743032332276996</v>
+        <v>4.743032332277054</v>
       </c>
       <c r="J23">
-        <v>22.10348569995674</v>
+        <v>22.10348569995661</v>
       </c>
       <c r="K23">
-        <v>12.2076851933733</v>
+        <v>12.20768519337329</v>
       </c>
       <c r="L23">
-        <v>18.35382220337179</v>
+        <v>18.35382220337173</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.71649643112649</v>
+        <v>21.71649643112638</v>
       </c>
       <c r="C24">
-        <v>18.52028789731492</v>
+        <v>18.5202878973148</v>
       </c>
       <c r="D24">
-        <v>8.776329773767801</v>
+        <v>8.776329773767783</v>
       </c>
       <c r="E24">
-        <v>7.680341262323931</v>
+        <v>7.68034126232386</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.86756580879777</v>
+        <v>41.86756580879772</v>
       </c>
       <c r="H24">
-        <v>35.22409709349493</v>
+        <v>35.22409709349489</v>
       </c>
       <c r="I24">
-        <v>4.769828687870556</v>
+        <v>4.769828687870429</v>
       </c>
       <c r="J24">
-        <v>20.25431908260186</v>
+        <v>20.25431908260175</v>
       </c>
       <c r="K24">
-        <v>11.4086598792234</v>
+        <v>11.40865987922338</v>
       </c>
       <c r="L24">
-        <v>16.8358210067767</v>
+        <v>16.83582100677665</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.44344990827132</v>
+        <v>19.44344990827139</v>
       </c>
       <c r="C25">
-        <v>16.55295949517708</v>
+        <v>16.55295949517707</v>
       </c>
       <c r="D25">
-        <v>8.011015367606394</v>
+        <v>8.011015367606374</v>
       </c>
       <c r="E25">
         <v>7.350161803562082</v>
@@ -1301,22 +1301,22 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.66698315684496</v>
+        <v>38.66698315684511</v>
       </c>
       <c r="H25">
-        <v>32.82780655705048</v>
+        <v>32.82780655705064</v>
       </c>
       <c r="I25">
-        <v>4.80057951013217</v>
+        <v>4.800579510132168</v>
       </c>
       <c r="J25">
-        <v>18.15358332169769</v>
+        <v>18.1535833216977</v>
       </c>
       <c r="K25">
-        <v>10.54303965461977</v>
+        <v>10.54303965461976</v>
       </c>
       <c r="L25">
-        <v>15.11086503145535</v>
+        <v>15.11086503145539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.65790971595728</v>
+        <v>17.65790971595732</v>
       </c>
       <c r="C2">
-        <v>15.0141348268225</v>
+        <v>15.0141348268224</v>
       </c>
       <c r="D2">
-        <v>7.431952311291688</v>
+        <v>7.431952311291651</v>
       </c>
       <c r="E2">
-        <v>7.118270641021162</v>
+        <v>7.118270641021136</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.28294944202403</v>
+        <v>36.28294944202405</v>
       </c>
       <c r="H2">
-        <v>31.06312243436632</v>
+        <v>31.06312243436633</v>
       </c>
       <c r="I2">
-        <v>4.824795903070767</v>
+        <v>4.824795903070804</v>
       </c>
       <c r="J2">
         <v>16.50433242007293</v>
       </c>
       <c r="K2">
-        <v>9.901736691108152</v>
+        <v>9.901736691108159</v>
       </c>
       <c r="L2">
-        <v>13.75656406988489</v>
+        <v>13.75656406988491</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.37317467495339</v>
+        <v>16.37317467495338</v>
       </c>
       <c r="C3">
-        <v>13.91031723287258</v>
+        <v>13.91031723287268</v>
       </c>
       <c r="D3">
-        <v>7.030141764419954</v>
+        <v>7.030141764419971</v>
       </c>
       <c r="E3">
-        <v>6.967761040423532</v>
+        <v>6.967761040423608</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.65088136351191</v>
+        <v>34.65088136351181</v>
       </c>
       <c r="H3">
-        <v>29.86709669371496</v>
+        <v>29.8670966937149</v>
       </c>
       <c r="I3">
-        <v>4.842189995260419</v>
+        <v>4.842189995260455</v>
       </c>
       <c r="J3">
-        <v>15.31792934853614</v>
+        <v>15.31792934853616</v>
       </c>
       <c r="K3">
-        <v>9.465247489424266</v>
+        <v>9.465247489424289</v>
       </c>
       <c r="L3">
         <v>12.88482159372208</v>
@@ -491,34 +491,34 @@
         <v>15.54612515666592</v>
       </c>
       <c r="C4">
-        <v>13.20120026972715</v>
+        <v>13.20120026972708</v>
       </c>
       <c r="D4">
-        <v>6.779170054922933</v>
+        <v>6.779170054922927</v>
       </c>
       <c r="E4">
-        <v>6.87854947426715</v>
+        <v>6.878549474267177</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.64185985521226</v>
+        <v>33.64185985521231</v>
       </c>
       <c r="H4">
-        <v>29.13330641088911</v>
+        <v>29.13330641088916</v>
       </c>
       <c r="I4">
-        <v>4.853355884162054</v>
+        <v>4.853355884162117</v>
       </c>
       <c r="J4">
-        <v>14.55420402800582</v>
+        <v>14.55420402800579</v>
       </c>
       <c r="K4">
-        <v>9.196773628203637</v>
+        <v>9.196773628203655</v>
       </c>
       <c r="L4">
-        <v>12.46072577062541</v>
+        <v>12.46072577062543</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.19930022521888</v>
+        <v>15.1993002252189</v>
       </c>
       <c r="C5">
-        <v>12.90416887546159</v>
+        <v>12.90416887546173</v>
       </c>
       <c r="D5">
-        <v>6.675910102777973</v>
+        <v>6.675910102777998</v>
       </c>
       <c r="E5">
-        <v>6.842992233798402</v>
+        <v>6.842992233798483</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>33.2292033281765</v>
+        <v>33.22920332817647</v>
       </c>
       <c r="H5">
-        <v>28.83457490242433</v>
+        <v>28.83457490242436</v>
       </c>
       <c r="I5">
-        <v>4.858028490088867</v>
+        <v>4.858028490088837</v>
       </c>
       <c r="J5">
-        <v>14.23392258179476</v>
+        <v>14.23392258179486</v>
       </c>
       <c r="K5">
-        <v>9.087345826818662</v>
+        <v>9.087345826818648</v>
       </c>
       <c r="L5">
-        <v>12.2869897496082</v>
+        <v>12.28698974960818</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.14111347621783</v>
+        <v>15.14111347621787</v>
       </c>
       <c r="C6">
-        <v>12.85435549520214</v>
+        <v>12.854355495202</v>
       </c>
       <c r="D6">
-        <v>6.658707216251153</v>
+        <v>6.65870721625107</v>
       </c>
       <c r="E6">
-        <v>6.837135920845906</v>
+        <v>6.83713592084586</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>33.16060249443639</v>
+        <v>33.16060249443634</v>
       </c>
       <c r="H6">
-        <v>28.78499370879922</v>
+        <v>28.78499370879913</v>
       </c>
       <c r="I6">
-        <v>4.858811774931522</v>
+        <v>4.858811774931556</v>
       </c>
       <c r="J6">
         <v>14.18018779671582</v>
       </c>
       <c r="K6">
-        <v>9.069177256576156</v>
+        <v>9.06917725657617</v>
       </c>
       <c r="L6">
-        <v>12.25809164105004</v>
+        <v>12.25809164105003</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.54148764959412</v>
+        <v>15.54148764959401</v>
       </c>
       <c r="C7">
-        <v>13.19722725266992</v>
+        <v>13.19722725266987</v>
       </c>
       <c r="D7">
-        <v>6.777781321258929</v>
+        <v>6.777781321258904</v>
       </c>
       <c r="E7">
-        <v>6.878066718609095</v>
+        <v>6.878066718608952</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.63630017226546</v>
+        <v>33.63630017226548</v>
       </c>
       <c r="H7">
-        <v>29.12927619400668</v>
+        <v>29.12927619400667</v>
       </c>
       <c r="I7">
-        <v>4.853418404519897</v>
+        <v>4.853418404519863</v>
       </c>
       <c r="J7">
-        <v>14.54992151255139</v>
+        <v>14.54992151255129</v>
       </c>
       <c r="K7">
-        <v>9.195297796385917</v>
+        <v>9.19529779638593</v>
       </c>
       <c r="L7">
-        <v>12.45838614871115</v>
+        <v>12.45838614871116</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.22274785574046</v>
+        <v>17.22274785574057</v>
       </c>
       <c r="C8">
-        <v>14.63993943374637</v>
+        <v>14.63993943374643</v>
       </c>
       <c r="D8">
-        <v>7.294334022374585</v>
+        <v>7.294334022374573</v>
       </c>
       <c r="E8">
-        <v>7.065704996358462</v>
+        <v>7.065704996358557</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.72178587406098</v>
+        <v>35.72178587406094</v>
       </c>
       <c r="H8">
-        <v>30.65068890781946</v>
+        <v>30.65068890781938</v>
       </c>
       <c r="I8">
-        <v>4.830692673126141</v>
+        <v>4.830692673126209</v>
       </c>
       <c r="J8">
-        <v>16.10246288663975</v>
+        <v>16.10246288663987</v>
       </c>
       <c r="K8">
-        <v>9.751382324359527</v>
+        <v>9.751382324359577</v>
       </c>
       <c r="L8">
-        <v>13.42658218556752</v>
+        <v>13.42658218556756</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.22580632172512</v>
+        <v>20.22580632172525</v>
       </c>
       <c r="C9">
-        <v>17.22900569345211</v>
+        <v>17.22900569345214</v>
       </c>
       <c r="D9">
-        <v>8.271215052515544</v>
+        <v>8.271215052515542</v>
       </c>
       <c r="E9">
-        <v>7.45958076691966</v>
+        <v>7.459580766919776</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.7492386202597</v>
+        <v>39.74923862025972</v>
       </c>
       <c r="H9">
         <v>33.63490953639391</v>
       </c>
       <c r="I9">
-        <v>4.789976037046659</v>
+        <v>4.789976037046792</v>
       </c>
       <c r="J9">
-        <v>18.87645163066118</v>
+        <v>18.87645163066126</v>
       </c>
       <c r="K9">
-        <v>10.83525194680422</v>
+        <v>10.83525194680423</v>
       </c>
       <c r="L9">
-        <v>15.70445551270793</v>
+        <v>15.70445551270795</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.26767782167208</v>
+        <v>22.26767782167216</v>
       </c>
       <c r="C10">
-        <v>18.99882175324026</v>
+        <v>18.9988217532402</v>
       </c>
       <c r="D10">
-        <v>8.965883763960504</v>
+        <v>8.965883763960502</v>
       </c>
       <c r="E10">
-        <v>7.765838991931918</v>
+        <v>7.765838991931842</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.6680038495026</v>
+        <v>42.66800384950263</v>
       </c>
       <c r="H10">
-        <v>35.82754046444398</v>
+        <v>35.827540464444</v>
       </c>
       <c r="I10">
-        <v>4.762409011305508</v>
+        <v>4.76240901130544</v>
       </c>
       <c r="J10">
         <v>20.76398785321289</v>
       </c>
       <c r="K10">
-        <v>11.6257354692952</v>
+        <v>11.62573546929519</v>
       </c>
       <c r="L10">
-        <v>17.25426300101903</v>
+        <v>17.25426300101908</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.16467514205013</v>
+        <v>23.16467514205012</v>
       </c>
       <c r="C11">
-        <v>19.77889009778084</v>
+        <v>19.77889009778082</v>
       </c>
       <c r="D11">
         <v>9.277253761261701</v>
       </c>
       <c r="E11">
-        <v>7.909205475246488</v>
+        <v>7.909205475246436</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>43.98887965793941</v>
+        <v>43.98887965793931</v>
       </c>
       <c r="H11">
-        <v>36.82653801876074</v>
+        <v>36.82653801876068</v>
       </c>
       <c r="I11">
-        <v>4.750382770886247</v>
+        <v>4.750382770886211</v>
       </c>
       <c r="J11">
-        <v>21.59369493709365</v>
+        <v>21.59369493709361</v>
       </c>
       <c r="K11">
-        <v>11.98434106099097</v>
+        <v>11.98434106099094</v>
       </c>
       <c r="L11">
-        <v>17.9353829092237</v>
+        <v>17.93538290922368</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.50013258684979</v>
+        <v>23.50013258684976</v>
       </c>
       <c r="C12">
-        <v>20.07104189860695</v>
+        <v>20.07104189860714</v>
       </c>
       <c r="D12">
         <v>9.394561485216881</v>
@@ -807,22 +807,22 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.48838032443764</v>
+        <v>44.48838032443773</v>
       </c>
       <c r="H12">
-        <v>37.20529612261752</v>
+        <v>37.2052961226176</v>
       </c>
       <c r="I12">
-        <v>4.745903604343259</v>
+        <v>4.745903604343321</v>
       </c>
       <c r="J12">
-        <v>21.90407864430943</v>
+        <v>21.90407864430944</v>
       </c>
       <c r="K12">
-        <v>12.12006098856631</v>
+        <v>12.12006098856632</v>
       </c>
       <c r="L12">
-        <v>18.19015332783271</v>
+        <v>18.1901533278327</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.42806693850066</v>
+        <v>23.42806693850077</v>
       </c>
       <c r="C13">
-        <v>20.00825976962125</v>
+        <v>20.00825976962103</v>
       </c>
       <c r="D13">
-        <v>9.369322532807253</v>
+        <v>9.369322532807219</v>
       </c>
       <c r="E13">
-        <v>7.952265178933966</v>
+        <v>7.95226517893401</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.38082810693229</v>
+        <v>44.38082810693247</v>
       </c>
       <c r="H13">
-        <v>37.12369848797755</v>
+        <v>37.12369848797771</v>
       </c>
       <c r="I13">
-        <v>4.746864920704645</v>
+        <v>4.746864920704744</v>
       </c>
       <c r="J13">
-        <v>21.83739516241319</v>
+        <v>21.83739516241321</v>
       </c>
       <c r="K13">
-        <v>12.09083318995637</v>
+        <v>12.09083318995638</v>
       </c>
       <c r="L13">
-        <v>18.13541936413048</v>
+        <v>18.13541936413046</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.19235563958938</v>
+        <v>23.19235563958931</v>
       </c>
       <c r="C14">
-        <v>19.8029883679622</v>
+        <v>19.8029883679621</v>
       </c>
       <c r="D14">
-        <v>9.286916302780494</v>
+        <v>9.28691630278051</v>
       </c>
       <c r="E14">
-        <v>7.913710561862838</v>
+        <v>7.913710561862869</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.02998539564162</v>
+        <v>44.02998539564157</v>
       </c>
       <c r="H14">
-        <v>36.85768774901081</v>
+        <v>36.85768774901083</v>
       </c>
       <c r="I14">
-        <v>4.750012758575962</v>
+        <v>4.750012758575953</v>
       </c>
       <c r="J14">
-        <v>21.61930451134979</v>
+        <v>21.61930451134969</v>
       </c>
       <c r="K14">
         <v>11.99550783021235</v>
       </c>
       <c r="L14">
-        <v>17.9564044999792</v>
+        <v>17.95640449997913</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.04743836547937</v>
+        <v>23.04743836547941</v>
       </c>
       <c r="C15">
-        <v>19.6768428352979</v>
+        <v>19.67684283529806</v>
       </c>
       <c r="D15">
-        <v>9.236364275338808</v>
+        <v>9.236364275338794</v>
       </c>
       <c r="E15">
-        <v>7.89017772975776</v>
+        <v>7.890177729757765</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.81500611509741</v>
+        <v>43.81500611509752</v>
       </c>
       <c r="H15">
-        <v>36.69481707526207</v>
+        <v>36.69481707526215</v>
       </c>
       <c r="I15">
-        <v>4.751950692591563</v>
+        <v>4.751950692591509</v>
       </c>
       <c r="J15">
-        <v>21.48523307881867</v>
+        <v>21.48523307881874</v>
       </c>
       <c r="K15">
-        <v>11.93711099772228</v>
+        <v>11.93711099772231</v>
       </c>
       <c r="L15">
-        <v>17.84635089115207</v>
+        <v>17.84635089115213</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.2084459037554</v>
+        <v>22.2084459037553</v>
       </c>
       <c r="C16">
-        <v>18.94736804413938</v>
+        <v>18.94736804413941</v>
       </c>
       <c r="D16">
-        <v>8.945446578335645</v>
+        <v>8.945446578335563</v>
       </c>
       <c r="E16">
-        <v>7.756554541467582</v>
+        <v>7.756554541467549</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.5815658047292</v>
+        <v>42.58156580472895</v>
       </c>
       <c r="H16">
-        <v>35.76230278010629</v>
+        <v>35.7623027801061</v>
       </c>
       <c r="I16">
-        <v>4.763205373490877</v>
+        <v>4.763205373490876</v>
       </c>
       <c r="J16">
-        <v>20.70921125747137</v>
+        <v>20.7092112574713</v>
       </c>
       <c r="K16">
         <v>11.60228460688125</v>
       </c>
       <c r="L16">
-        <v>17.20929253390523</v>
+        <v>17.20929253390517</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.68583526633464</v>
+        <v>21.68583526633456</v>
       </c>
       <c r="C17">
-        <v>18.49368546183849</v>
+        <v>18.49368546183855</v>
       </c>
       <c r="D17">
-        <v>8.765827082037665</v>
+        <v>8.76582708203766</v>
       </c>
       <c r="E17">
-        <v>7.675644894311964</v>
+        <v>7.675644894311959</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.82330003957397</v>
+        <v>41.82330003957401</v>
       </c>
       <c r="H17">
-        <v>35.19077039089144</v>
+        <v>35.19077039089149</v>
       </c>
       <c r="I17">
-        <v>4.770241996894687</v>
+        <v>4.770241996894655</v>
       </c>
       <c r="J17">
         <v>20.22597063949715</v>
@@ -1012,7 +1012,7 @@
         <v>11.39666098523847</v>
       </c>
       <c r="L17">
-        <v>16.81254582752804</v>
+        <v>16.812545827528</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.38221994137368</v>
+        <v>21.3822199413737</v>
       </c>
       <c r="C18">
-        <v>18.23035915875013</v>
+        <v>18.23035915875018</v>
       </c>
       <c r="D18">
-        <v>8.662072354197319</v>
+        <v>8.662072354197322</v>
       </c>
       <c r="E18">
-        <v>7.629485545140444</v>
+        <v>7.629485545140385</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.38649139716389</v>
+        <v>41.38649139716383</v>
       </c>
       <c r="H18">
-        <v>34.86216687338434</v>
+        <v>34.86216687338423</v>
       </c>
       <c r="I18">
-        <v>4.774337587935</v>
+        <v>4.774337587935005</v>
       </c>
       <c r="J18">
-        <v>19.94527539793985</v>
+        <v>19.94527539793991</v>
       </c>
       <c r="K18">
-        <v>11.27829237871496</v>
+        <v>11.27829237871497</v>
       </c>
       <c r="L18">
-        <v>16.58207953750953</v>
+        <v>16.5820795375096</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.27889140461525</v>
+        <v>21.27889140461524</v>
       </c>
       <c r="C19">
-        <v>18.14078260027641</v>
+        <v>18.14078260027629</v>
       </c>
       <c r="D19">
-        <v>8.626865311559968</v>
+        <v>8.62686531156</v>
       </c>
       <c r="E19">
-        <v>7.613920537957451</v>
+        <v>7.613920537957484</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.23847265754524</v>
+        <v>41.23847265754534</v>
       </c>
       <c r="H19">
-        <v>34.75092362262231</v>
+        <v>34.75092362262239</v>
       </c>
       <c r="I19">
-        <v>4.775732559583144</v>
+        <v>4.775732559583143</v>
       </c>
       <c r="J19">
         <v>19.84975484640321</v>
@@ -1088,7 +1088,7 @@
         <v>11.23819635431378</v>
       </c>
       <c r="L19">
-        <v>16.50365012111603</v>
+        <v>16.50365012111599</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.74177849823543</v>
+        <v>21.74177849823531</v>
       </c>
       <c r="C20">
-        <v>18.54222466277302</v>
+        <v>18.54222466277299</v>
       </c>
       <c r="D20">
         <v>8.784993287197823</v>
       </c>
       <c r="E20">
-        <v>7.684218495189</v>
+        <v>7.684218495188916</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.90408674046993</v>
+        <v>41.90408674046979</v>
       </c>
       <c r="H20">
-        <v>35.25159648668969</v>
+        <v>35.25159648668961</v>
       </c>
       <c r="I20">
-        <v>4.769487930631767</v>
+        <v>4.769487930631737</v>
       </c>
       <c r="J20">
-        <v>20.27769443207415</v>
+        <v>20.27769443207403</v>
       </c>
       <c r="K20">
         <v>11.41855989645256</v>
       </c>
       <c r="L20">
-        <v>16.85501301577222</v>
+        <v>16.85501301577217</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.26170100539952</v>
+        <v>23.26170100539956</v>
       </c>
       <c r="C21">
-        <v>19.86336646670139</v>
+        <v>19.86336646670126</v>
       </c>
       <c r="D21">
-        <v>9.311136651956065</v>
+        <v>9.311136651956033</v>
       </c>
       <c r="E21">
-        <v>7.925017597076264</v>
+        <v>7.925017597076256</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.13305191607642</v>
+        <v>44.13305191607629</v>
       </c>
       <c r="H21">
-        <v>36.9358066891512</v>
+        <v>36.93580668915112</v>
       </c>
       <c r="I21">
-        <v>4.749086119125505</v>
+        <v>4.749086119125569</v>
       </c>
       <c r="J21">
-        <v>21.68346331094112</v>
+        <v>21.68346331094107</v>
       </c>
       <c r="K21">
-        <v>12.02350854585848</v>
+        <v>12.02350854585847</v>
       </c>
       <c r="L21">
-        <v>18.00906868738845</v>
+        <v>18.00906868738843</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.23069427703797</v>
+        <v>24.23069427703788</v>
       </c>
       <c r="C22">
-        <v>20.70811167652933</v>
+        <v>20.70811167652935</v>
       </c>
       <c r="D22">
-        <v>9.654890637086401</v>
+        <v>9.654890637086348</v>
       </c>
       <c r="E22">
-        <v>8.086070401086698</v>
+        <v>8.086070401086715</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.58605342376696</v>
+        <v>45.58605342376695</v>
       </c>
       <c r="H22">
-        <v>38.03940019600578</v>
+        <v>38.03940019600574</v>
       </c>
       <c r="I22">
         <v>4.736189809018445</v>
       </c>
       <c r="J22">
-        <v>22.58021909413401</v>
+        <v>22.58021909413398</v>
       </c>
       <c r="K22">
-        <v>12.4184928720903</v>
+        <v>12.41849287209029</v>
       </c>
       <c r="L22">
-        <v>18.74508263982229</v>
+        <v>18.74508263982221</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.71561848152107</v>
+        <v>23.71561848152119</v>
       </c>
       <c r="C23">
-        <v>20.25883379126493</v>
+        <v>20.25883379126497</v>
       </c>
       <c r="D23">
-        <v>9.470150882813817</v>
+        <v>9.470150882813831</v>
       </c>
       <c r="E23">
-        <v>7.999759126322635</v>
+        <v>7.99975912632261</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.81076524326541</v>
+        <v>44.81076524326538</v>
       </c>
       <c r="H23">
-        <v>37.45002376790679</v>
+        <v>37.45002376790673</v>
       </c>
       <c r="I23">
-        <v>4.743032332277054</v>
+        <v>4.743032332276996</v>
       </c>
       <c r="J23">
-        <v>22.10348569995661</v>
+        <v>22.10348569995674</v>
       </c>
       <c r="K23">
-        <v>12.20768519337329</v>
+        <v>12.2076851933733</v>
       </c>
       <c r="L23">
-        <v>18.35382220337173</v>
+        <v>18.35382220337179</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.71649643112638</v>
+        <v>21.71649643112649</v>
       </c>
       <c r="C24">
-        <v>18.5202878973148</v>
+        <v>18.52028789731492</v>
       </c>
       <c r="D24">
-        <v>8.776329773767783</v>
+        <v>8.776329773767801</v>
       </c>
       <c r="E24">
-        <v>7.68034126232386</v>
+        <v>7.680341262323931</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.86756580879772</v>
+        <v>41.86756580879777</v>
       </c>
       <c r="H24">
-        <v>35.22409709349489</v>
+        <v>35.22409709349493</v>
       </c>
       <c r="I24">
-        <v>4.769828687870429</v>
+        <v>4.769828687870556</v>
       </c>
       <c r="J24">
-        <v>20.25431908260175</v>
+        <v>20.25431908260186</v>
       </c>
       <c r="K24">
-        <v>11.40865987922338</v>
+        <v>11.4086598792234</v>
       </c>
       <c r="L24">
-        <v>16.83582100677665</v>
+        <v>16.8358210067767</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.44344990827139</v>
+        <v>19.44344990827132</v>
       </c>
       <c r="C25">
-        <v>16.55295949517707</v>
+        <v>16.55295949517708</v>
       </c>
       <c r="D25">
-        <v>8.011015367606374</v>
+        <v>8.011015367606394</v>
       </c>
       <c r="E25">
         <v>7.350161803562082</v>
@@ -1301,22 +1301,22 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.66698315684511</v>
+        <v>38.66698315684496</v>
       </c>
       <c r="H25">
-        <v>32.82780655705064</v>
+        <v>32.82780655705048</v>
       </c>
       <c r="I25">
-        <v>4.800579510132168</v>
+        <v>4.80057951013217</v>
       </c>
       <c r="J25">
-        <v>18.1535833216977</v>
+        <v>18.15358332169769</v>
       </c>
       <c r="K25">
-        <v>10.54303965461976</v>
+        <v>10.54303965461977</v>
       </c>
       <c r="L25">
-        <v>15.11086503145539</v>
+        <v>15.11086503145535</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.65790971595732</v>
+        <v>17.65808207671641</v>
       </c>
       <c r="C2">
-        <v>15.0141348268224</v>
+        <v>15.00555933889307</v>
       </c>
       <c r="D2">
-        <v>7.431952311291651</v>
+        <v>7.432149097202132</v>
       </c>
       <c r="E2">
-        <v>7.118270641021136</v>
+        <v>7.119345442598318</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.28294944202405</v>
+        <v>34.9428342982194</v>
       </c>
       <c r="H2">
-        <v>31.06312243436633</v>
+        <v>36.32435703369235</v>
       </c>
       <c r="I2">
-        <v>4.824795903070804</v>
+        <v>31.02446050265482</v>
       </c>
       <c r="J2">
-        <v>16.50433242007293</v>
+        <v>4.824931971408559</v>
       </c>
       <c r="K2">
-        <v>9.901736691108159</v>
+        <v>16.50174435275663</v>
       </c>
       <c r="L2">
-        <v>13.75656406988491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>9.899968034108815</v>
+      </c>
+      <c r="M2">
+        <v>13.75553006424932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.37317467495338</v>
+        <v>16.37357248259192</v>
       </c>
       <c r="C3">
-        <v>13.91031723287268</v>
+        <v>13.90244798556636</v>
       </c>
       <c r="D3">
-        <v>7.030141764419971</v>
+        <v>7.030358959580896</v>
       </c>
       <c r="E3">
-        <v>6.967761040423608</v>
+        <v>6.968854688926625</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.65088136351181</v>
+        <v>33.09499145038448</v>
       </c>
       <c r="H3">
-        <v>29.8670966937149</v>
+        <v>34.69122716594665</v>
       </c>
       <c r="I3">
-        <v>4.842189995260455</v>
+        <v>29.83133693756596</v>
       </c>
       <c r="J3">
-        <v>15.31792934853616</v>
+        <v>4.842419272523713</v>
       </c>
       <c r="K3">
-        <v>9.465247489424289</v>
+        <v>15.31575595714684</v>
       </c>
       <c r="L3">
-        <v>12.88482159372208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>9.463607258791919</v>
+      </c>
+      <c r="M3">
+        <v>12.88417254617992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.54612515666592</v>
+        <v>15.54664722430868</v>
       </c>
       <c r="C4">
-        <v>13.20120026972708</v>
+        <v>13.19376713653454</v>
       </c>
       <c r="D4">
-        <v>6.779170054922927</v>
+        <v>6.779396451174261</v>
       </c>
       <c r="E4">
-        <v>6.878549474267177</v>
+        <v>6.879658575891813</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.64185985521231</v>
+        <v>31.94071766620062</v>
       </c>
       <c r="H4">
-        <v>29.13330641088916</v>
+        <v>33.68161120381023</v>
       </c>
       <c r="I4">
-        <v>4.853355884162117</v>
+        <v>29.09940277984828</v>
       </c>
       <c r="J4">
-        <v>14.55420402800579</v>
+        <v>4.853644264472848</v>
       </c>
       <c r="K4">
-        <v>9.196773628203655</v>
+        <v>14.55228200851645</v>
       </c>
       <c r="L4">
-        <v>12.46072577062543</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>9.195209070026507</v>
+      </c>
+      <c r="M4">
+        <v>12.46006190081876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.1993002252189</v>
+        <v>15.19986962109231</v>
       </c>
       <c r="C5">
-        <v>12.90416887546173</v>
+        <v>12.89691430519853</v>
       </c>
       <c r="D5">
-        <v>6.675910102777998</v>
+        <v>6.676139510493853</v>
       </c>
       <c r="E5">
-        <v>6.842992233798483</v>
+        <v>6.844108638692409</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>33.22920332817647</v>
+        <v>31.46568215969626</v>
       </c>
       <c r="H5">
-        <v>28.83457490242436</v>
+        <v>33.26872765049026</v>
       </c>
       <c r="I5">
-        <v>4.858028490088837</v>
+        <v>28.8014459522117</v>
       </c>
       <c r="J5">
-        <v>14.23392258179486</v>
+        <v>4.858341444694974</v>
       </c>
       <c r="K5">
-        <v>9.087345826818648</v>
+        <v>14.23210253717083</v>
       </c>
       <c r="L5">
-        <v>12.28698974960818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>9.085811408782563</v>
+      </c>
+      <c r="M5">
+        <v>12.28631472787107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.14111347621787</v>
+        <v>15.14169053718228</v>
       </c>
       <c r="C6">
-        <v>12.854355495202</v>
+        <v>12.84713063093713</v>
       </c>
       <c r="D6">
-        <v>6.65870721625107</v>
+        <v>6.658937082156156</v>
       </c>
       <c r="E6">
-        <v>6.83713592084586</v>
+        <v>6.838253599888532</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>33.16060249443634</v>
+        <v>31.38653208030484</v>
       </c>
       <c r="H6">
-        <v>28.78499370879913</v>
+        <v>33.20009005992273</v>
       </c>
       <c r="I6">
-        <v>4.858811774931556</v>
+        <v>28.75199448356357</v>
       </c>
       <c r="J6">
-        <v>14.18018779671582</v>
+        <v>4.859128840143145</v>
       </c>
       <c r="K6">
-        <v>9.06917725657617</v>
+        <v>14.17838466666146</v>
       </c>
       <c r="L6">
-        <v>12.25809164105003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>9.067647803858115</v>
+      </c>
+      <c r="M6">
+        <v>12.25741446198756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.54148764959401</v>
+        <v>15.54201036863309</v>
       </c>
       <c r="C7">
-        <v>13.19722725266987</v>
+        <v>13.18979652399584</v>
       </c>
       <c r="D7">
-        <v>6.777781321258904</v>
+        <v>6.778007760988407</v>
       </c>
       <c r="E7">
-        <v>6.878066718608952</v>
+        <v>6.879175914622494</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.63630017226548</v>
+        <v>31.93432957283045</v>
       </c>
       <c r="H7">
-        <v>29.12927619400667</v>
+        <v>33.67604839650701</v>
       </c>
       <c r="I7">
-        <v>4.853418404519863</v>
+        <v>29.09538293715675</v>
       </c>
       <c r="J7">
-        <v>14.54992151255129</v>
+        <v>4.853707114243715</v>
       </c>
       <c r="K7">
-        <v>9.19529779638593</v>
+        <v>14.54800086976013</v>
       </c>
       <c r="L7">
-        <v>12.45838614871116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>9.193733647388479</v>
+      </c>
+      <c r="M7">
+        <v>12.4577221490583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.22274785574057</v>
+        <v>17.22300106439872</v>
       </c>
       <c r="C8">
-        <v>14.63993943374643</v>
+        <v>14.63160710050322</v>
       </c>
       <c r="D8">
-        <v>7.294334022374573</v>
+        <v>7.294538599907975</v>
       </c>
       <c r="E8">
-        <v>7.065704996358557</v>
+        <v>7.066785512177688</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.72178587406094</v>
+        <v>34.30992589088511</v>
       </c>
       <c r="H8">
-        <v>30.65068890781938</v>
+        <v>35.76281589548682</v>
       </c>
       <c r="I8">
-        <v>4.830692673126209</v>
+        <v>30.61301211189697</v>
       </c>
       <c r="J8">
-        <v>16.10246288663987</v>
+        <v>4.830860502992961</v>
       </c>
       <c r="K8">
-        <v>9.751382324359577</v>
+        <v>16.10001869863725</v>
       </c>
       <c r="L8">
-        <v>13.42658218556756</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>9.749658677413906</v>
+      </c>
+      <c r="M8">
+        <v>13.42562626492689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.22580632172525</v>
+        <v>20.22540334993539</v>
       </c>
       <c r="C9">
-        <v>17.22900569345214</v>
+        <v>17.21891057348726</v>
       </c>
       <c r="D9">
-        <v>8.271215052515542</v>
+        <v>8.271345156558805</v>
       </c>
       <c r="E9">
-        <v>7.459580766919776</v>
+        <v>7.460633899322025</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.74923862025972</v>
+        <v>38.80532276146379</v>
       </c>
       <c r="H9">
-        <v>33.63490953639391</v>
+        <v>39.79320376965945</v>
       </c>
       <c r="I9">
-        <v>4.789976037046792</v>
+        <v>33.59040440381163</v>
       </c>
       <c r="J9">
-        <v>18.87645163066126</v>
+        <v>4.789920735801577</v>
       </c>
       <c r="K9">
-        <v>10.83525194680423</v>
+        <v>18.87293652014157</v>
       </c>
       <c r="L9">
-        <v>15.70445551270795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>10.83318442407499</v>
+      </c>
+      <c r="M9">
+        <v>15.70291012938078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.26767782167216</v>
+        <v>22.26668711145569</v>
       </c>
       <c r="C10">
-        <v>18.9988217532402</v>
+        <v>18.98740733126974</v>
       </c>
       <c r="D10">
-        <v>8.965883763960502</v>
+        <v>8.965931202474433</v>
       </c>
       <c r="E10">
-        <v>7.765838991931842</v>
+        <v>7.766885920019213</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.66800384950263</v>
+        <v>42.00815031006542</v>
       </c>
       <c r="H10">
-        <v>35.827540464444</v>
+        <v>42.71433545972266</v>
       </c>
       <c r="I10">
-        <v>4.76240901130544</v>
+        <v>35.77836291914965</v>
       </c>
       <c r="J10">
-        <v>20.76398785321289</v>
+        <v>4.762196741101006</v>
       </c>
       <c r="K10">
-        <v>11.62573546929519</v>
+        <v>20.75962806844837</v>
       </c>
       <c r="L10">
-        <v>17.25426300101908</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>11.62338583884733</v>
+      </c>
+      <c r="M10">
+        <v>17.25223925069363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.16467514205012</v>
+        <v>23.16338568814196</v>
       </c>
       <c r="C11">
-        <v>19.77889009778082</v>
+        <v>19.76686172922164</v>
       </c>
       <c r="D11">
-        <v>9.277253761261701</v>
+        <v>9.277255014721678</v>
       </c>
       <c r="E11">
-        <v>7.909205475246436</v>
+        <v>7.910251447082119</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>43.98887965793931</v>
+        <v>43.445942991146</v>
       </c>
       <c r="H11">
-        <v>36.82653801876068</v>
+        <v>44.03632335512178</v>
       </c>
       <c r="I11">
-        <v>4.750382770886211</v>
+        <v>36.77530044114415</v>
       </c>
       <c r="J11">
-        <v>21.59369493709361</v>
+        <v>4.7501001942633</v>
       </c>
       <c r="K11">
-        <v>11.98434106099094</v>
+        <v>21.58892955649953</v>
       </c>
       <c r="L11">
-        <v>17.93538290922368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>11.98185348941332</v>
+      </c>
+      <c r="M11">
+        <v>17.93312543083954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.50013258684976</v>
+        <v>23.49872458009112</v>
       </c>
       <c r="C12">
-        <v>20.07104189860714</v>
+        <v>20.05877813115967</v>
       </c>
       <c r="D12">
-        <v>9.394561485216881</v>
+        <v>9.394543745970394</v>
       </c>
       <c r="E12">
-        <v>7.96412084393137</v>
+        <v>7.965166594105008</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.48838032443773</v>
+        <v>43.98801300542638</v>
       </c>
       <c r="H12">
-        <v>37.2052961226176</v>
+        <v>44.53624938642859</v>
       </c>
       <c r="I12">
-        <v>4.745903604343321</v>
+        <v>37.153286700188</v>
       </c>
       <c r="J12">
-        <v>21.90407864430944</v>
+        <v>4.745594521282275</v>
       </c>
       <c r="K12">
-        <v>12.12006098856632</v>
+        <v>21.8991556808375</v>
       </c>
       <c r="L12">
-        <v>18.1901533278327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>12.11751944724844</v>
+      </c>
+      <c r="M12">
+        <v>18.18780436567382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.42806693850077</v>
+        <v>23.42668472229711</v>
       </c>
       <c r="C13">
-        <v>20.00825976962103</v>
+        <v>19.99604684609942</v>
       </c>
       <c r="D13">
-        <v>9.369322532807219</v>
+        <v>9.369308955808911</v>
       </c>
       <c r="E13">
-        <v>7.95226517893401</v>
+        <v>7.953310972967135</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.38082810693247</v>
+        <v>43.87136743664698</v>
       </c>
       <c r="H13">
-        <v>37.12369848797771</v>
+        <v>44.42860538487742</v>
       </c>
       <c r="I13">
-        <v>4.746864920704744</v>
+        <v>37.07185495197541</v>
       </c>
       <c r="J13">
-        <v>21.83739516241321</v>
+        <v>4.746561541806278</v>
       </c>
       <c r="K13">
-        <v>12.09083318995638</v>
+        <v>21.83250633161631</v>
       </c>
       <c r="L13">
-        <v>18.13541936413046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>12.08830335567645</v>
+      </c>
+      <c r="M13">
+        <v>18.13309024900101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.19235563958931</v>
+        <v>23.19105654696854</v>
       </c>
       <c r="C14">
-        <v>19.8029883679621</v>
+        <v>19.79094069741508</v>
       </c>
       <c r="D14">
-        <v>9.28691630278051</v>
+        <v>9.286916025595424</v>
       </c>
       <c r="E14">
-        <v>7.913710561862869</v>
+        <v>7.914756513489153</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.02998539564157</v>
+        <v>43.4905847052793</v>
       </c>
       <c r="H14">
-        <v>36.85768774901083</v>
+        <v>44.07746400802583</v>
       </c>
       <c r="I14">
-        <v>4.750012758575953</v>
+        <v>36.8063865140137</v>
       </c>
       <c r="J14">
-        <v>21.61930451134969</v>
+        <v>4.749727999167711</v>
       </c>
       <c r="K14">
-        <v>11.99550783021235</v>
+        <v>21.61452625231885</v>
       </c>
       <c r="L14">
-        <v>17.95640449997913</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>11.99301585560055</v>
+      </c>
+      <c r="M14">
+        <v>17.95413955908587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.04743836547941</v>
+        <v>23.04618945131374</v>
       </c>
       <c r="C15">
-        <v>19.67684283529806</v>
+        <v>19.66489597671593</v>
       </c>
       <c r="D15">
-        <v>9.236364275338794</v>
+        <v>9.236371939833155</v>
       </c>
       <c r="E15">
-        <v>7.890177729757765</v>
+        <v>7.891223791891827</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.81500611509752</v>
+        <v>43.25704633595014</v>
       </c>
       <c r="H15">
-        <v>36.69481707526215</v>
+        <v>43.86230231180897</v>
       </c>
       <c r="I15">
-        <v>4.751950692591509</v>
+        <v>36.6438490481172</v>
       </c>
       <c r="J15">
-        <v>21.48523307881874</v>
+        <v>4.751677352061172</v>
       </c>
       <c r="K15">
-        <v>11.93711099772231</v>
+        <v>21.48052199753786</v>
       </c>
       <c r="L15">
-        <v>17.84635089115213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>11.93464197544823</v>
+      </c>
+      <c r="M15">
+        <v>17.84412484935038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.2084459037553</v>
+        <v>22.20747401225525</v>
       </c>
       <c r="C16">
-        <v>18.94736804413941</v>
+        <v>18.93599339297808</v>
       </c>
       <c r="D16">
-        <v>8.945446578335563</v>
+        <v>8.945496840796848</v>
       </c>
       <c r="E16">
-        <v>7.756554541467549</v>
+        <v>7.7576015593342</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.58156580472895</v>
+        <v>41.91382928604976</v>
       </c>
       <c r="H16">
-        <v>35.7623027801061</v>
+        <v>42.62782537959153</v>
       </c>
       <c r="I16">
-        <v>4.763205373490876</v>
+        <v>35.71326108824889</v>
       </c>
       <c r="J16">
-        <v>20.7092112574713</v>
+        <v>4.76299771675707</v>
       </c>
       <c r="K16">
-        <v>11.60228460688125</v>
+        <v>20.70487747516591</v>
       </c>
       <c r="L16">
-        <v>17.20929253390517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>11.59994376958977</v>
+      </c>
+      <c r="M16">
+        <v>17.20728368071259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.68583526633456</v>
+        <v>21.68502469454848</v>
       </c>
       <c r="C17">
-        <v>18.49368546183855</v>
+        <v>18.48265771347694</v>
       </c>
       <c r="D17">
-        <v>8.76582708203766</v>
+        <v>8.765901105673938</v>
       </c>
       <c r="E17">
-        <v>7.675644894311959</v>
+        <v>7.676692894457032</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.82330003957401</v>
+        <v>41.08511181563547</v>
       </c>
       <c r="H17">
-        <v>35.19077039089149</v>
+        <v>41.86893218285311</v>
       </c>
       <c r="I17">
-        <v>4.770241996894655</v>
+        <v>35.14292648928625</v>
       </c>
       <c r="J17">
-        <v>20.22597063949715</v>
+        <v>4.770074889662404</v>
       </c>
       <c r="K17">
-        <v>11.39666098523847</v>
+        <v>20.22186225107147</v>
       </c>
       <c r="L17">
-        <v>16.812545827528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.39439609863189</v>
+      </c>
+      <c r="M17">
+        <v>16.8106656571792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.3822199413737</v>
+        <v>21.3814992682628</v>
       </c>
       <c r="C18">
-        <v>18.23035915875018</v>
+        <v>18.21952970845738</v>
       </c>
       <c r="D18">
-        <v>8.662072354197322</v>
+        <v>8.662159256260447</v>
       </c>
       <c r="E18">
-        <v>7.629485545140385</v>
+        <v>7.630534295134008</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.38649139716383</v>
+        <v>40.60661874403703</v>
       </c>
       <c r="H18">
-        <v>34.86216687338423</v>
+        <v>41.43176606034841</v>
       </c>
       <c r="I18">
-        <v>4.774337587935005</v>
+        <v>34.81501816167874</v>
       </c>
       <c r="J18">
-        <v>19.94527539793991</v>
+        <v>4.774193910034584</v>
       </c>
       <c r="K18">
-        <v>11.27829237871497</v>
+        <v>19.94129470573691</v>
       </c>
       <c r="L18">
-        <v>16.5820795375096</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>11.27607029797128</v>
+      </c>
+      <c r="M18">
+        <v>16.58027191158543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.27889140461524</v>
+        <v>21.27820069821578</v>
       </c>
       <c r="C19">
-        <v>18.14078260027629</v>
+        <v>18.13002010376934</v>
       </c>
       <c r="D19">
-        <v>8.62686531156</v>
+        <v>8.626956445905286</v>
       </c>
       <c r="E19">
-        <v>7.613920537957484</v>
+        <v>7.614969577016671</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.23847265754534</v>
+        <v>40.44428483659346</v>
       </c>
       <c r="H19">
-        <v>34.75092362262239</v>
+        <v>41.28362689444251</v>
       </c>
       <c r="I19">
-        <v>4.775732559583143</v>
+        <v>34.70401139412026</v>
       </c>
       <c r="J19">
-        <v>19.84975484640321</v>
+        <v>4.775596833850206</v>
       </c>
       <c r="K19">
-        <v>11.23819635431378</v>
+        <v>19.84581708110434</v>
       </c>
       <c r="L19">
-        <v>16.50365012111599</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>11.23598862536189</v>
+      </c>
+      <c r="M19">
+        <v>16.5018668228464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.74177849823531</v>
+        <v>21.74095105857749</v>
       </c>
       <c r="C20">
-        <v>18.54222466277299</v>
+        <v>18.53116011950294</v>
       </c>
       <c r="D20">
-        <v>8.784993287197823</v>
+        <v>8.785064864774471</v>
       </c>
       <c r="E20">
-        <v>7.684218495188916</v>
+        <v>7.68526637246882</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.90408674046979</v>
+        <v>41.17351808036946</v>
       </c>
       <c r="H20">
-        <v>35.25159648668961</v>
+        <v>41.94978532900532</v>
       </c>
       <c r="I20">
-        <v>4.769487930631737</v>
+        <v>35.20362443849891</v>
       </c>
       <c r="J20">
-        <v>20.27769443207403</v>
+        <v>4.769316496105359</v>
       </c>
       <c r="K20">
-        <v>11.41855989645256</v>
+        <v>20.27356225740402</v>
       </c>
       <c r="L20">
-        <v>16.85501301577217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.41628701802628</v>
+      </c>
+      <c r="M20">
+        <v>16.8531193034535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.26170100539956</v>
+        <v>23.26037765291855</v>
       </c>
       <c r="C21">
-        <v>19.86336646670126</v>
+        <v>19.85127034481538</v>
       </c>
       <c r="D21">
-        <v>9.311136651956033</v>
+        <v>9.311132511553041</v>
       </c>
       <c r="E21">
-        <v>7.925017597076256</v>
+        <v>7.926063499773275</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.13305191607629</v>
+        <v>43.60249105208914</v>
       </c>
       <c r="H21">
-        <v>36.93580668915112</v>
+        <v>44.18061814587589</v>
       </c>
       <c r="I21">
-        <v>4.749086119125569</v>
+        <v>36.88434595457024</v>
       </c>
       <c r="J21">
-        <v>21.68346331094107</v>
+        <v>4.748795887908462</v>
       </c>
       <c r="K21">
-        <v>12.02350854585847</v>
+        <v>21.67865269098836</v>
       </c>
       <c r="L21">
-        <v>18.00906868738843</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>12.02100550125677</v>
+      </c>
+      <c r="M21">
+        <v>18.00678498368056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.23069427703788</v>
+        <v>24.22901461045549</v>
       </c>
       <c r="C22">
-        <v>20.70811167652935</v>
+        <v>20.69532379570211</v>
       </c>
       <c r="D22">
-        <v>9.654890637086348</v>
+        <v>9.654792611771382</v>
       </c>
       <c r="E22">
-        <v>8.086070401086715</v>
+        <v>8.087115748954393</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.58605342376695</v>
+        <v>45.17630753330418</v>
       </c>
       <c r="H22">
-        <v>38.03940019600574</v>
+        <v>45.63486453586617</v>
       </c>
       <c r="I22">
-        <v>4.736189809018445</v>
+        <v>37.98570664480204</v>
       </c>
       <c r="J22">
-        <v>22.58021909413398</v>
+        <v>4.735822594915617</v>
       </c>
       <c r="K22">
-        <v>12.41849287209029</v>
+        <v>22.57494121916502</v>
       </c>
       <c r="L22">
-        <v>18.74508263982221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>12.41582906047461</v>
+      </c>
+      <c r="M22">
+        <v>18.74252629316173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.71561848152119</v>
+        <v>23.71413229222288</v>
       </c>
       <c r="C23">
-        <v>20.25883379126497</v>
+        <v>20.24641708796688</v>
       </c>
       <c r="D23">
-        <v>9.470150882813831</v>
+        <v>9.470120424922007</v>
       </c>
       <c r="E23">
-        <v>7.99975912632261</v>
+        <v>8.000804753642223</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.81076524326538</v>
+        <v>44.33742135683967</v>
       </c>
       <c r="H23">
-        <v>37.45002376790673</v>
+        <v>44.85891002207218</v>
       </c>
       <c r="I23">
-        <v>4.743032332276996</v>
+        <v>37.39751807443603</v>
       </c>
       <c r="J23">
-        <v>22.10348569995674</v>
+        <v>4.742706160817669</v>
       </c>
       <c r="K23">
-        <v>12.2076851933733</v>
+        <v>22.09845974897108</v>
       </c>
       <c r="L23">
-        <v>18.35382220337179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>12.20510827250062</v>
+      </c>
+      <c r="M23">
+        <v>18.35141325265425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.71649643112649</v>
+        <v>21.71567662623223</v>
       </c>
       <c r="C24">
-        <v>18.52028789731492</v>
+        <v>18.50923999250799</v>
       </c>
       <c r="D24">
-        <v>8.776329773767801</v>
+        <v>8.776402459624839</v>
       </c>
       <c r="E24">
-        <v>7.680341262323931</v>
+        <v>7.681389194565377</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.86756580879777</v>
+        <v>41.13355602660475</v>
       </c>
       <c r="H24">
-        <v>35.22409709349493</v>
+        <v>41.91323434730351</v>
       </c>
       <c r="I24">
-        <v>4.769828687870556</v>
+        <v>35.17618295983985</v>
       </c>
       <c r="J24">
-        <v>20.25431908260186</v>
+        <v>4.769659209346639</v>
       </c>
       <c r="K24">
-        <v>11.4086598792234</v>
+        <v>20.25019766749869</v>
       </c>
       <c r="L24">
-        <v>16.8358210067767</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.40639061654923</v>
+      </c>
+      <c r="M24">
+        <v>16.83393342121048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.44344990827132</v>
+        <v>19.44324060608806</v>
       </c>
       <c r="C25">
-        <v>16.55295949517708</v>
+        <v>16.54334310311679</v>
       </c>
       <c r="D25">
-        <v>8.011015367606394</v>
+        <v>8.011169803211967</v>
       </c>
       <c r="E25">
-        <v>7.350161803562082</v>
+        <v>7.351219576183681</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.66698315684496</v>
+        <v>37.60715682378179</v>
       </c>
       <c r="H25">
-        <v>32.82780655705048</v>
+        <v>38.7101139971643</v>
       </c>
       <c r="I25">
-        <v>4.80057951013217</v>
+        <v>32.78508604304489</v>
       </c>
       <c r="J25">
-        <v>18.15358332169769</v>
+        <v>4.800583225996418</v>
       </c>
       <c r="K25">
-        <v>10.54303965461977</v>
+        <v>18.15036552921433</v>
       </c>
       <c r="L25">
-        <v>15.11086503145535</v>
+        <v>10.54106942955781</v>
+      </c>
+      <c r="M25">
+        <v>15.10948522919345</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.65808207671641</v>
+        <v>24.75750281791957</v>
       </c>
       <c r="C2">
-        <v>15.00555933889307</v>
+        <v>11.65565080784905</v>
       </c>
       <c r="D2">
-        <v>7.432149097202132</v>
+        <v>7.866501821876476</v>
       </c>
       <c r="E2">
-        <v>7.119345442598318</v>
+        <v>6.754865950038755</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>34.9428342982194</v>
+        <v>2.165560932644023</v>
       </c>
       <c r="H2">
-        <v>36.32435703369235</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>31.02446050265482</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.824931971408559</v>
+        <v>4.876543575916268</v>
       </c>
       <c r="K2">
-        <v>16.50174435275663</v>
+        <v>19.74909484132414</v>
       </c>
       <c r="L2">
-        <v>9.899968034108815</v>
+        <v>8.040460165804712</v>
       </c>
       <c r="M2">
-        <v>13.75553006424932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>15.9645115024898</v>
+      </c>
+      <c r="N2">
+        <v>18.20828496987286</v>
+      </c>
+      <c r="O2">
+        <v>36.758920483578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.37357248259192</v>
+        <v>23.56164953683598</v>
       </c>
       <c r="C3">
-        <v>13.90244798556636</v>
+        <v>10.80758052196699</v>
       </c>
       <c r="D3">
-        <v>7.030358959580896</v>
+        <v>7.764570209757271</v>
       </c>
       <c r="E3">
-        <v>6.968854688926625</v>
+        <v>6.789824316674322</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.09499145038448</v>
+        <v>2.17741761115608</v>
       </c>
       <c r="H3">
-        <v>34.69122716594665</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>29.83133693756596</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.842419272523713</v>
+        <v>4.819944341455968</v>
       </c>
       <c r="K3">
-        <v>15.31575595714684</v>
+        <v>18.79946681517189</v>
       </c>
       <c r="L3">
-        <v>9.463607258791919</v>
+        <v>7.969849406214904</v>
       </c>
       <c r="M3">
-        <v>12.88417254617992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.53012140542393</v>
+      </c>
+      <c r="N3">
+        <v>18.32466087840217</v>
+      </c>
+      <c r="O3">
+        <v>35.97816171481595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.54664722430868</v>
+        <v>22.81883949139273</v>
       </c>
       <c r="C4">
-        <v>13.19376713653454</v>
+        <v>10.26199393359323</v>
       </c>
       <c r="D4">
-        <v>6.779396451174261</v>
+        <v>7.706233662270351</v>
       </c>
       <c r="E4">
-        <v>6.879658575891813</v>
+        <v>6.812453189335074</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31.94071766620062</v>
+        <v>2.184860664656984</v>
       </c>
       <c r="H4">
-        <v>33.68161120381023</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>29.09940277984828</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.853644264472848</v>
+        <v>4.785025031820355</v>
       </c>
       <c r="K4">
-        <v>14.55228200851645</v>
+        <v>18.21007534184468</v>
       </c>
       <c r="L4">
-        <v>9.195209070026507</v>
+        <v>7.930820271536905</v>
       </c>
       <c r="M4">
-        <v>12.46006190081876</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.26968500125746</v>
+      </c>
+      <c r="N4">
+        <v>18.40143899009874</v>
+      </c>
+      <c r="O4">
+        <v>35.51945098811617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.19986962109231</v>
+        <v>22.51431106448415</v>
       </c>
       <c r="C5">
-        <v>12.89691430519853</v>
+        <v>10.03330957805203</v>
       </c>
       <c r="D5">
-        <v>6.676139510493853</v>
+        <v>7.683509439276201</v>
       </c>
       <c r="E5">
-        <v>6.844108638692409</v>
+        <v>6.82196767983974</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.46568215969626</v>
+        <v>2.187937737382269</v>
       </c>
       <c r="H5">
-        <v>33.26872765049026</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>28.8014459522117</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4.858341444694974</v>
+        <v>4.770742353571737</v>
       </c>
       <c r="K5">
-        <v>14.23210253717083</v>
+        <v>17.96856134708599</v>
       </c>
       <c r="L5">
-        <v>9.085811408782563</v>
+        <v>7.915975641907584</v>
       </c>
       <c r="M5">
-        <v>12.28631472787107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15.16519557450535</v>
+      </c>
+      <c r="N5">
+        <v>18.43401809489165</v>
+      </c>
+      <c r="O5">
+        <v>35.33764518542689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.14169053718228</v>
+        <v>22.46364474159736</v>
       </c>
       <c r="C6">
-        <v>12.84713063093713</v>
+        <v>9.994950308733127</v>
       </c>
       <c r="D6">
-        <v>6.658937082156156</v>
+        <v>7.679798823061272</v>
       </c>
       <c r="E6">
-        <v>6.838253599888532</v>
+        <v>6.823565263457324</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.38653208030484</v>
+        <v>2.188451421205782</v>
       </c>
       <c r="H6">
-        <v>33.20009005992273</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>28.75199448356357</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.859128840143145</v>
+        <v>4.768367244904867</v>
       </c>
       <c r="K6">
-        <v>14.17838466666146</v>
+        <v>17.92838619494571</v>
       </c>
       <c r="L6">
-        <v>9.067647803858115</v>
+        <v>7.913573920927093</v>
       </c>
       <c r="M6">
-        <v>12.25741446198756</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15.14794615087794</v>
+      </c>
+      <c r="N6">
+        <v>18.43950454413974</v>
+      </c>
+      <c r="O6">
+        <v>35.3077636370771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.54201036863309</v>
+        <v>22.81473943673312</v>
       </c>
       <c r="C7">
-        <v>13.18979652399584</v>
+        <v>10.25893566415407</v>
       </c>
       <c r="D7">
-        <v>6.778007760988407</v>
+        <v>7.705922977431759</v>
       </c>
       <c r="E7">
-        <v>6.879175914622494</v>
+        <v>6.812580318090848</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31.93432957283045</v>
+        <v>2.1849019813414</v>
       </c>
       <c r="H7">
-        <v>33.67604839650701</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>29.09538293715675</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4.853707114243715</v>
+        <v>4.784832637719702</v>
       </c>
       <c r="K7">
-        <v>14.54800086976013</v>
+        <v>18.20682321597169</v>
       </c>
       <c r="L7">
-        <v>9.193733647388479</v>
+        <v>7.930615815981136</v>
       </c>
       <c r="M7">
-        <v>12.4577221490583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.26826909326383</v>
+      </c>
+      <c r="N7">
+        <v>18.40187319308531</v>
+      </c>
+      <c r="O7">
+        <v>35.5169784507722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.22300106439872</v>
+        <v>24.34711980632974</v>
       </c>
       <c r="C8">
-        <v>14.63160710050322</v>
+        <v>11.36833312705852</v>
       </c>
       <c r="D8">
-        <v>7.294538599907975</v>
+        <v>7.830461494048012</v>
       </c>
       <c r="E8">
-        <v>7.066785512177688</v>
+        <v>6.766678061546945</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.30992589088511</v>
+        <v>2.169617154293089</v>
       </c>
       <c r="H8">
-        <v>35.76281589548682</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>30.61301211189697</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4.830860502992961</v>
+        <v>4.85705601121574</v>
       </c>
       <c r="K8">
-        <v>16.10001869863725</v>
+        <v>19.42311062471855</v>
       </c>
       <c r="L8">
-        <v>9.749658677413906</v>
+        <v>8.015198786490751</v>
       </c>
       <c r="M8">
-        <v>13.42562626492689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15.81346481288805</v>
+      </c>
+      <c r="N8">
+        <v>18.24727673142788</v>
+      </c>
+      <c r="O8">
+        <v>36.48537503035882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.22540334993539</v>
+        <v>27.27376595183174</v>
       </c>
       <c r="C9">
-        <v>17.21891057348726</v>
+        <v>13.35177195757853</v>
       </c>
       <c r="D9">
-        <v>8.271345156558805</v>
+        <v>8.109350621967678</v>
       </c>
       <c r="E9">
-        <v>7.460633899322025</v>
+        <v>6.685898552118813</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>38.80532276146379</v>
+        <v>2.140788498799669</v>
       </c>
       <c r="H9">
-        <v>39.79320376965945</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>33.59040440381163</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4.789920735801577</v>
+        <v>4.997915554357368</v>
       </c>
       <c r="K9">
-        <v>18.87293652014157</v>
+        <v>21.74982153516895</v>
       </c>
       <c r="L9">
-        <v>10.83318442407499</v>
+        <v>8.216689904559907</v>
       </c>
       <c r="M9">
-        <v>15.70291012938078</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>16.93022954356228</v>
+      </c>
+      <c r="N9">
+        <v>17.98875034847774</v>
+      </c>
+      <c r="O9">
+        <v>38.5524857465993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.26668711145569</v>
+        <v>29.36757647968445</v>
       </c>
       <c r="C10">
-        <v>18.98740733126974</v>
+        <v>14.70028260205872</v>
       </c>
       <c r="D10">
-        <v>8.965931202474433</v>
+        <v>8.336835126124599</v>
       </c>
       <c r="E10">
-        <v>7.766885920019213</v>
+        <v>6.632192277174667</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.00815031006542</v>
+        <v>2.120074283851192</v>
       </c>
       <c r="H10">
-        <v>42.71433545972266</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>35.77836291914965</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4.762196741101006</v>
+        <v>5.10183755647901</v>
       </c>
       <c r="K10">
-        <v>20.75962806844837</v>
+        <v>23.41684957245671</v>
       </c>
       <c r="L10">
-        <v>11.62338583884733</v>
+        <v>8.388369880247966</v>
       </c>
       <c r="M10">
-        <v>17.25223925069363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17.7778990719499</v>
+      </c>
+      <c r="N10">
+        <v>17.82986352923721</v>
+      </c>
+      <c r="O10">
+        <v>40.1807625522823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.16338568814196</v>
+        <v>30.30758437693093</v>
       </c>
       <c r="C11">
-        <v>19.76686172922164</v>
+        <v>15.29233819480179</v>
       </c>
       <c r="D11">
-        <v>9.277255014721678</v>
+        <v>8.445604204808047</v>
       </c>
       <c r="E11">
-        <v>7.910251447082119</v>
+        <v>6.608995105655636</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>43.445942991146</v>
+        <v>2.110692409414889</v>
       </c>
       <c r="H11">
-        <v>44.03632335512178</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>36.77530044114415</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4.7501001942633</v>
+        <v>5.149450783462573</v>
       </c>
       <c r="K11">
-        <v>21.58892955649953</v>
+        <v>24.16582709716941</v>
       </c>
       <c r="L11">
-        <v>11.98185348941332</v>
+        <v>8.472080748131509</v>
       </c>
       <c r="M11">
-        <v>17.93312543083954</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18.16943098275223</v>
+      </c>
+      <c r="N11">
+        <v>17.76534814738338</v>
+      </c>
+      <c r="O11">
+        <v>40.9474749850463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.49872458009112</v>
+        <v>30.66182469366877</v>
       </c>
       <c r="C12">
-        <v>20.05877813115967</v>
+        <v>15.51366961573605</v>
       </c>
       <c r="D12">
-        <v>9.394543745970394</v>
+        <v>8.487589577154516</v>
       </c>
       <c r="E12">
-        <v>7.965166594105008</v>
+        <v>6.600389970263934</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>43.98801300542638</v>
+        <v>2.107139906773272</v>
       </c>
       <c r="H12">
-        <v>44.53624938642859</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>37.153286700188</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4.745594521282275</v>
+        <v>5.167553390722784</v>
       </c>
       <c r="K12">
-        <v>21.8991556808375</v>
+        <v>24.44816499200407</v>
       </c>
       <c r="L12">
-        <v>12.11751944724844</v>
+        <v>8.50463192751981</v>
       </c>
       <c r="M12">
-        <v>18.18780436567382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>18.31857806525291</v>
+      </c>
+      <c r="N12">
+        <v>17.74213583543251</v>
+      </c>
+      <c r="O12">
+        <v>41.24178697022504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.42668472229711</v>
+        <v>30.58560717266167</v>
       </c>
       <c r="C13">
-        <v>19.99604684609942</v>
+        <v>15.46612582657184</v>
       </c>
       <c r="D13">
-        <v>9.369308955808911</v>
+        <v>8.478511171379823</v>
       </c>
       <c r="E13">
-        <v>7.953310972967135</v>
+        <v>6.602235239833039</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>43.87136743664698</v>
+        <v>2.107905091668309</v>
       </c>
       <c r="H13">
-        <v>44.42860538487742</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>37.07185495197541</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4.746561541806278</v>
+        <v>5.163651024442951</v>
       </c>
       <c r="K13">
-        <v>21.83250633161631</v>
+        <v>24.38741386763606</v>
       </c>
       <c r="L13">
-        <v>12.08830335567645</v>
+        <v>8.497582791596422</v>
       </c>
       <c r="M13">
-        <v>18.13309024900101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18.28641650651797</v>
+      </c>
+      <c r="N13">
+        <v>17.74707905255005</v>
+      </c>
+      <c r="O13">
+        <v>41.17822042824163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.19105654696854</v>
+        <v>30.33676170694332</v>
       </c>
       <c r="C14">
-        <v>19.79094069741508</v>
+        <v>15.31060343095607</v>
       </c>
       <c r="D14">
-        <v>9.286916025595424</v>
+        <v>8.44904215968247</v>
       </c>
       <c r="E14">
-        <v>7.914756513489153</v>
+        <v>6.608283554122883</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>43.4905847052793</v>
+        <v>2.110400174131396</v>
       </c>
       <c r="H14">
-        <v>44.07746400802583</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>36.8063865140137</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4.749727999167711</v>
+        <v>5.150938492393812</v>
       </c>
       <c r="K14">
-        <v>21.61452625231885</v>
+        <v>24.18908033993143</v>
       </c>
       <c r="L14">
-        <v>11.99301585560055</v>
+        <v>8.474741406306432</v>
       </c>
       <c r="M14">
-        <v>17.95413955908587</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>18.18168343216363</v>
+      </c>
+      <c r="N14">
+        <v>17.76341340250961</v>
+      </c>
+      <c r="O14">
+        <v>40.97160698203879</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.04618945131374</v>
+        <v>30.18411621341348</v>
       </c>
       <c r="C15">
-        <v>19.66489597671593</v>
+        <v>15.21497475180976</v>
       </c>
       <c r="D15">
-        <v>9.236371939833155</v>
+        <v>8.431096529897086</v>
       </c>
       <c r="E15">
-        <v>7.891223791891827</v>
+        <v>6.612011709608385</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.25704633595014</v>
+        <v>2.111928328989181</v>
       </c>
       <c r="H15">
-        <v>43.86230231180897</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>36.6438490481172</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4.751677352061172</v>
+        <v>5.14316191510387</v>
       </c>
       <c r="K15">
-        <v>21.48052199753786</v>
+        <v>24.06743113389787</v>
       </c>
       <c r="L15">
-        <v>11.93464197544823</v>
+        <v>8.460862743029187</v>
       </c>
       <c r="M15">
-        <v>17.84412484935038</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>18.11764775313333</v>
+      </c>
+      <c r="N15">
+        <v>17.77358060123556</v>
+      </c>
+      <c r="O15">
+        <v>40.84557593259155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.20747401225525</v>
+        <v>29.30589817626158</v>
       </c>
       <c r="C16">
-        <v>18.93599339297808</v>
+        <v>14.66117717373376</v>
       </c>
       <c r="D16">
-        <v>8.945496840796848</v>
+        <v>8.329836162578067</v>
       </c>
       <c r="E16">
-        <v>7.7576015593342</v>
+        <v>6.633733228685133</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>41.91382928604976</v>
+        <v>2.120687768518366</v>
       </c>
       <c r="H16">
-        <v>42.62782537959153</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>35.71326108824889</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4.76299771675707</v>
+        <v>5.098734684703427</v>
       </c>
       <c r="K16">
-        <v>20.70487747516591</v>
+        <v>23.36771761516034</v>
       </c>
       <c r="L16">
-        <v>11.59994376958977</v>
+        <v>8.383015795415707</v>
       </c>
       <c r="M16">
-        <v>17.20728368071259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>17.75243267269661</v>
+      </c>
+      <c r="N16">
+        <v>17.83424435149038</v>
+      </c>
+      <c r="O16">
+        <v>40.13119809898074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.68502469454848</v>
+        <v>28.76397158912198</v>
       </c>
       <c r="C17">
-        <v>18.48265771347694</v>
+        <v>14.31610191569589</v>
       </c>
       <c r="D17">
-        <v>8.765901105673938</v>
+        <v>8.269094062253579</v>
       </c>
       <c r="E17">
-        <v>7.676692894457032</v>
+        <v>6.647375756026517</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.08511181563547</v>
+        <v>2.126068108726378</v>
       </c>
       <c r="H17">
-        <v>41.86893218285311</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>35.14292648928625</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4.770074889662404</v>
+        <v>5.071582533395807</v>
       </c>
       <c r="K17">
-        <v>20.22186225107147</v>
+        <v>22.93609234571581</v>
       </c>
       <c r="L17">
-        <v>11.39439609863189</v>
+        <v>8.33672665790399</v>
       </c>
       <c r="M17">
-        <v>16.8106656571792</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>17.52991465893502</v>
+      </c>
+      <c r="N17">
+        <v>17.87351585652052</v>
+      </c>
+      <c r="O17">
+        <v>39.69975941538949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.3814992682628</v>
+        <v>28.45108603973397</v>
       </c>
       <c r="C18">
-        <v>18.21952970845738</v>
+        <v>14.11559653133362</v>
       </c>
       <c r="D18">
-        <v>8.662159256260447</v>
+        <v>8.234651728154029</v>
       </c>
       <c r="E18">
-        <v>7.630534295134008</v>
+        <v>6.655338601826948</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>40.60661874403703</v>
+        <v>2.129166992037239</v>
       </c>
       <c r="H18">
-        <v>41.43176606034841</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>34.81501816167874</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4.774193910034584</v>
+        <v>5.055995572050934</v>
       </c>
       <c r="K18">
-        <v>19.94129470573691</v>
+        <v>22.6869440176592</v>
       </c>
       <c r="L18">
-        <v>11.27607029797128</v>
+        <v>8.310627690662663</v>
       </c>
       <c r="M18">
-        <v>16.58027191158543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17.40248214295097</v>
+      </c>
+      <c r="N18">
+        <v>17.89682755635112</v>
+      </c>
+      <c r="O18">
+        <v>39.45403736159486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.27820069821578</v>
+        <v>28.34494411528489</v>
       </c>
       <c r="C19">
-        <v>18.13002010376934</v>
+        <v>14.04735476863746</v>
       </c>
       <c r="D19">
-        <v>8.626956445905286</v>
+        <v>8.223074131614943</v>
       </c>
       <c r="E19">
-        <v>7.614969577016671</v>
+        <v>6.658054570845931</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40.44428483659346</v>
+        <v>2.130217112985415</v>
       </c>
       <c r="H19">
-        <v>41.28362689444251</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>34.70401139412026</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4.775596833850206</v>
+        <v>5.050722622329737</v>
       </c>
       <c r="K19">
-        <v>19.84581708110434</v>
+        <v>22.60243315533392</v>
       </c>
       <c r="L19">
-        <v>11.23598862536189</v>
+        <v>8.301879990957699</v>
       </c>
       <c r="M19">
-        <v>16.5018668228464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17.35943036927726</v>
+      </c>
+      <c r="N19">
+        <v>17.90484193700259</v>
+      </c>
+      <c r="O19">
+        <v>39.37125123167706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.74095105857749</v>
+        <v>28.82178282765469</v>
       </c>
       <c r="C20">
-        <v>18.53116011950294</v>
+        <v>14.35304415371968</v>
       </c>
       <c r="D20">
-        <v>8.785064864774471</v>
+        <v>8.27550869504099</v>
       </c>
       <c r="E20">
-        <v>7.68526637246882</v>
+        <v>6.645911467412562</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.17351808036946</v>
+        <v>2.12549496097801</v>
       </c>
       <c r="H20">
-        <v>41.94978532900532</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>35.20362443849891</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4.769316496105359</v>
+        <v>5.074469636089953</v>
       </c>
       <c r="K20">
-        <v>20.27356225740402</v>
+        <v>22.98213134180471</v>
       </c>
       <c r="L20">
-        <v>11.41628701802628</v>
+        <v>8.34159954327904</v>
       </c>
       <c r="M20">
-        <v>16.8531193034535</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>17.55354462085475</v>
+      </c>
+      <c r="N20">
+        <v>17.869259739064</v>
+      </c>
+      <c r="O20">
+        <v>39.74543377929017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.26037765291855</v>
+        <v>30.4098993500209</v>
       </c>
       <c r="C21">
-        <v>19.85127034481538</v>
+        <v>15.35636013990838</v>
       </c>
       <c r="D21">
-        <v>9.311132511553041</v>
+        <v>8.457675966794383</v>
       </c>
       <c r="E21">
-        <v>7.926063499773275</v>
+        <v>6.606502139596299</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>43.60249105208914</v>
+        <v>2.109667351570057</v>
       </c>
       <c r="H21">
-        <v>44.18061814587589</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>36.88434595457024</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4.748795887908462</v>
+        <v>5.154670294213347</v>
       </c>
       <c r="K21">
-        <v>21.67865269098836</v>
+        <v>24.2473697181131</v>
       </c>
       <c r="L21">
-        <v>12.02100550125677</v>
+        <v>8.481426973632678</v>
       </c>
       <c r="M21">
-        <v>18.00678498368056</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>18.21242172824199</v>
+      </c>
+      <c r="N21">
+        <v>17.75858165653817</v>
+      </c>
+      <c r="O21">
+        <v>41.03218430462366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.22901461045549</v>
+        <v>31.43789096840675</v>
       </c>
       <c r="C22">
-        <v>20.69532379570211</v>
+        <v>15.99549117671897</v>
       </c>
       <c r="D22">
-        <v>9.654792611771382</v>
+        <v>8.581400195158327</v>
       </c>
       <c r="E22">
-        <v>8.087115748954393</v>
+        <v>6.581791234560081</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.17630753330418</v>
+        <v>2.099321080585715</v>
       </c>
       <c r="H22">
-        <v>45.63486453586617</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>37.98570664480204</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4.735822594915617</v>
+        <v>5.207522690879676</v>
       </c>
       <c r="K22">
-        <v>22.57494121916502</v>
+        <v>25.06687060973012</v>
       </c>
       <c r="L22">
-        <v>12.41582906047461</v>
+        <v>8.57780213930703</v>
       </c>
       <c r="M22">
-        <v>18.74252629316173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>18.64821677731149</v>
+      </c>
+      <c r="N22">
+        <v>17.69340685416776</v>
+      </c>
+      <c r="O22">
+        <v>41.89647377477083</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.71413229222288</v>
+        <v>30.89009585192819</v>
       </c>
       <c r="C23">
-        <v>20.24641708796688</v>
+        <v>15.65581670939764</v>
       </c>
       <c r="D23">
-        <v>9.470120424922007</v>
+        <v>8.514925072342555</v>
       </c>
       <c r="E23">
-        <v>8.000804753642223</v>
+        <v>6.594883533255909</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.33742135683967</v>
+        <v>2.104845359137923</v>
       </c>
       <c r="H23">
-        <v>44.85891002207218</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>37.39751807443603</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4.742706160817669</v>
+        <v>5.179265505365001</v>
       </c>
       <c r="K23">
-        <v>22.09845974897108</v>
+        <v>24.63012726403579</v>
       </c>
       <c r="L23">
-        <v>12.20510827250062</v>
+        <v>8.525891873506636</v>
       </c>
       <c r="M23">
-        <v>18.35141325265425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>18.41513233707531</v>
+      </c>
+      <c r="N23">
+        <v>17.7274989773066</v>
+      </c>
+      <c r="O23">
+        <v>41.43295748144302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.71567662623223</v>
+        <v>28.79565049752007</v>
       </c>
       <c r="C24">
-        <v>18.50923999250799</v>
+        <v>14.33634917732399</v>
       </c>
       <c r="D24">
-        <v>8.776402459624839</v>
+        <v>8.272607149924445</v>
       </c>
       <c r="E24">
-        <v>7.681389194565377</v>
+        <v>6.646573099960067</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.13355602660475</v>
+        <v>2.125754063043532</v>
       </c>
       <c r="H24">
-        <v>41.91323434730351</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>35.17618295983985</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4.769659209346639</v>
+        <v>5.073164306530751</v>
       </c>
       <c r="K24">
-        <v>20.25019766749869</v>
+        <v>22.96132023410864</v>
       </c>
       <c r="L24">
-        <v>11.40639061654923</v>
+        <v>8.339394916349372</v>
       </c>
       <c r="M24">
-        <v>16.83393342121048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17.54285997187664</v>
+      </c>
+      <c r="N24">
+        <v>17.87118165108929</v>
+      </c>
+      <c r="O24">
+        <v>39.72477719694532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.44324060608806</v>
+        <v>26.49158757057651</v>
       </c>
       <c r="C25">
-        <v>16.54334310311679</v>
+        <v>12.83496258848017</v>
       </c>
       <c r="D25">
-        <v>8.011169803211967</v>
+        <v>8.030050867650578</v>
       </c>
       <c r="E25">
-        <v>7.351219576183681</v>
+        <v>6.706762721731365</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>37.60715682378179</v>
+        <v>2.148487207461989</v>
       </c>
       <c r="H25">
-        <v>38.7101139971643</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>32.78508604304489</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4.800583225996418</v>
+        <v>4.959806270157042</v>
       </c>
       <c r="K25">
-        <v>18.15036552921433</v>
+        <v>21.12756313744862</v>
       </c>
       <c r="L25">
-        <v>10.54106942955781</v>
+        <v>8.158176787026676</v>
       </c>
       <c r="M25">
-        <v>15.10948522919345</v>
+        <v>16.62326733722212</v>
+      </c>
+      <c r="N25">
+        <v>18.05354528555827</v>
+      </c>
+      <c r="O25">
+        <v>37.97463926650921</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.75750281791957</v>
+        <v>23.17653048791558</v>
       </c>
       <c r="C2">
-        <v>11.65565080784905</v>
+        <v>16.41738291675351</v>
       </c>
       <c r="D2">
-        <v>7.866501821876476</v>
+        <v>10.04161794222173</v>
       </c>
       <c r="E2">
-        <v>6.754865950038755</v>
+        <v>9.450261706559957</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.165560932644023</v>
+        <v>51.56130573041062</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>14.8217154625242</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.876543575916268</v>
+        <v>4.935001061426013</v>
       </c>
       <c r="K2">
-        <v>19.74909484132414</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.040460165804712</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>15.9645115024898</v>
+        <v>17.62412829632096</v>
       </c>
       <c r="N2">
-        <v>18.20828496987286</v>
+        <v>13.07685902650545</v>
       </c>
       <c r="O2">
-        <v>36.758920483578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.56164953683598</v>
+        <v>21.53098801313424</v>
       </c>
       <c r="C3">
-        <v>10.80758052196699</v>
+        <v>15.24224103302578</v>
       </c>
       <c r="D3">
-        <v>7.764570209757271</v>
+        <v>9.747588974830089</v>
       </c>
       <c r="E3">
-        <v>6.789824316674322</v>
+        <v>9.315698920966389</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.17741761115608</v>
+        <v>49.26480537340958</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>14.49448669008648</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.819944341455968</v>
+        <v>4.97553303899069</v>
       </c>
       <c r="K3">
-        <v>18.79946681517189</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>7.969849406214904</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>15.53012140542393</v>
+        <v>16.76453993068943</v>
       </c>
       <c r="N3">
-        <v>18.32466087840217</v>
+        <v>13.34214411950017</v>
       </c>
       <c r="O3">
-        <v>35.97816171481595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.81883949139273</v>
+        <v>20.54912346175767</v>
       </c>
       <c r="C4">
-        <v>10.26199393359323</v>
+        <v>14.48450715689475</v>
       </c>
       <c r="D4">
-        <v>7.706233662270351</v>
+        <v>9.571078473332825</v>
       </c>
       <c r="E4">
-        <v>6.812453189335074</v>
+        <v>9.239005832090443</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.184860664656984</v>
+        <v>47.86657258640882</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>14.30519963429259</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.785025031820355</v>
+        <v>5.001593523588579</v>
       </c>
       <c r="K4">
-        <v>18.21007534184468</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>7.930820271536905</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>15.26968500125746</v>
+        <v>16.22880129693148</v>
       </c>
       <c r="N4">
-        <v>18.40143899009874</v>
+        <v>13.50826947591946</v>
       </c>
       <c r="O4">
-        <v>35.51945098811617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.51431106448415</v>
+        <v>20.14431512935314</v>
       </c>
       <c r="C5">
-        <v>10.03330957805203</v>
+        <v>14.16649202742394</v>
       </c>
       <c r="D5">
-        <v>7.683509439276201</v>
+        <v>9.500201565614482</v>
       </c>
       <c r="E5">
-        <v>6.82196767983974</v>
+        <v>9.209208211117154</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.187937737382269</v>
+        <v>47.30022304406836</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>14.23092942839805</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.770742353571737</v>
+        <v>5.012510038104563</v>
       </c>
       <c r="K5">
-        <v>17.96856134708599</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>7.915975641907584</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>15.16519557450535</v>
+        <v>16.00871462592883</v>
       </c>
       <c r="N5">
-        <v>18.43401809489165</v>
+        <v>13.57680871596342</v>
       </c>
       <c r="O5">
-        <v>35.33764518542689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.46364474159736</v>
+        <v>20.07653096608617</v>
       </c>
       <c r="C6">
-        <v>9.994950308733127</v>
+        <v>14.11312466554099</v>
       </c>
       <c r="D6">
-        <v>7.679798823061272</v>
+        <v>9.488497341030545</v>
       </c>
       <c r="E6">
-        <v>6.823565263457324</v>
+        <v>9.204347199660601</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.188451421205782</v>
+        <v>47.20640444422396</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>14.21876822572024</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.768367244904867</v>
+        <v>5.014340679743127</v>
       </c>
       <c r="K6">
-        <v>17.92838619494571</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>7.913573920927093</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>15.14794615087794</v>
+        <v>15.97207024319741</v>
       </c>
       <c r="N6">
-        <v>18.43950454413974</v>
+        <v>13.58824124928877</v>
       </c>
       <c r="O6">
-        <v>35.3077636370771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.81473943673312</v>
+        <v>20.54370213001135</v>
       </c>
       <c r="C7">
-        <v>10.25893566415407</v>
+        <v>14.48025583938699</v>
       </c>
       <c r="D7">
-        <v>7.705922977431759</v>
+        <v>9.570118284234331</v>
       </c>
       <c r="E7">
-        <v>6.812580318090848</v>
+        <v>9.238598125004774</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.1849019813414</v>
+        <v>47.8589199772115</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>14.30418647665931</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.784832637719702</v>
+        <v>5.001739544314276</v>
       </c>
       <c r="K7">
-        <v>18.20682321597169</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>7.930615815981136</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>15.26826909326383</v>
+        <v>16.22583995327902</v>
       </c>
       <c r="N7">
-        <v>18.40187319308531</v>
+        <v>13.50919037536318</v>
       </c>
       <c r="O7">
-        <v>35.5169784507722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.34711980632974</v>
+        <v>22.61937822656013</v>
       </c>
       <c r="C8">
-        <v>11.36833312705852</v>
+        <v>16.01962184934543</v>
       </c>
       <c r="D8">
-        <v>7.830461494048012</v>
+        <v>9.939424237792066</v>
       </c>
       <c r="E8">
-        <v>6.766678061546945</v>
+        <v>9.40261251328505</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.169617154293089</v>
+        <v>50.76726678599649</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>14.7064371393852</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.85705601121574</v>
+        <v>4.948733792875115</v>
       </c>
       <c r="K8">
-        <v>19.42311062471855</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>8.015198786490751</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15.81346481288805</v>
+        <v>17.32951415381316</v>
       </c>
       <c r="N8">
-        <v>18.24727673142788</v>
+        <v>13.16767336604138</v>
       </c>
       <c r="O8">
-        <v>36.48537503035882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.27376595183174</v>
+        <v>26.45706392699301</v>
       </c>
       <c r="C9">
-        <v>13.35177195757853</v>
+        <v>18.7578757651035</v>
       </c>
       <c r="D9">
-        <v>8.109350621967678</v>
+        <v>10.69414402942592</v>
       </c>
       <c r="E9">
-        <v>6.685898552118813</v>
+        <v>9.772928727858284</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.140788498799669</v>
+        <v>56.54975661889701</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>15.59029921698009</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.997915554357368</v>
+        <v>4.854035808931927</v>
       </c>
       <c r="K9">
-        <v>21.74982153516895</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>8.216689904559907</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>16.93022954356228</v>
+        <v>19.42330715466325</v>
       </c>
       <c r="N9">
-        <v>17.98875034847774</v>
+        <v>12.52245724156987</v>
       </c>
       <c r="O9">
-        <v>38.5524857465993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.36757647968445</v>
+        <v>29.05294503035241</v>
       </c>
       <c r="C10">
-        <v>14.70028260205872</v>
+        <v>20.6093180093898</v>
       </c>
       <c r="D10">
-        <v>8.336835126124599</v>
+        <v>11.26611984647488</v>
       </c>
       <c r="E10">
-        <v>6.632192277174667</v>
+        <v>10.07713851866883</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.120074283851192</v>
+        <v>60.83702506124737</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>16.30191916051664</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.10183755647901</v>
+        <v>4.790010627518032</v>
       </c>
       <c r="K10">
-        <v>23.41684957245671</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>8.388369880247966</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>17.7778990719499</v>
+        <v>20.97950512561929</v>
       </c>
       <c r="N10">
-        <v>17.82986352923721</v>
+        <v>12.06179092361743</v>
       </c>
       <c r="O10">
-        <v>40.1807625522823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.30758437693093</v>
+        <v>30.18865360774092</v>
       </c>
       <c r="C11">
-        <v>15.29233819480179</v>
+        <v>21.41950104619378</v>
       </c>
       <c r="D11">
-        <v>8.445604204808047</v>
+        <v>11.53016843852592</v>
       </c>
       <c r="E11">
-        <v>6.608995105655636</v>
+        <v>10.22313394599636</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.110692409414889</v>
+        <v>62.79706622846432</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>16.64034974768564</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.149450783462573</v>
+        <v>4.762072519546701</v>
       </c>
       <c r="K11">
-        <v>24.16582709716941</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>8.472080748131509</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>18.16943098275223</v>
+        <v>21.80627434051593</v>
       </c>
       <c r="N11">
-        <v>17.76534814738338</v>
+        <v>11.85484960443514</v>
       </c>
       <c r="O11">
-        <v>40.9474749850463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.66182469366877</v>
+        <v>30.61254669984679</v>
       </c>
       <c r="C12">
-        <v>15.51366961573605</v>
+        <v>21.72194870654307</v>
       </c>
       <c r="D12">
-        <v>8.487589577154516</v>
+        <v>11.63073740353247</v>
       </c>
       <c r="E12">
-        <v>6.600389970263934</v>
+        <v>10.2795737194644</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.107139906773272</v>
+        <v>63.54101340208794</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>16.77074322162849</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.167553390722784</v>
+        <v>4.751662774201141</v>
       </c>
       <c r="K12">
-        <v>24.44816499200407</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>8.50463192751981</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>18.31857806525291</v>
+        <v>22.11492336602339</v>
       </c>
       <c r="N12">
-        <v>17.74213583543251</v>
+        <v>11.77684795338566</v>
       </c>
       <c r="O12">
-        <v>41.24178697022504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.58560717266167</v>
+        <v>30.52152278619447</v>
       </c>
       <c r="C13">
-        <v>15.46612582657184</v>
+        <v>21.65700024704335</v>
       </c>
       <c r="D13">
-        <v>8.478511171379823</v>
+        <v>11.60905167259778</v>
       </c>
       <c r="E13">
-        <v>6.602235239833039</v>
+        <v>10.26736598443849</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.107905091668309</v>
+        <v>63.38070725160705</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>16.74255891629101</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.163651024442951</v>
+        <v>4.753897159190229</v>
       </c>
       <c r="K13">
-        <v>24.38741386763606</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>8.497582791596422</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>18.28641650651797</v>
+        <v>22.04864289748291</v>
       </c>
       <c r="N13">
-        <v>17.74707905255005</v>
+        <v>11.79363101974088</v>
       </c>
       <c r="O13">
-        <v>41.17822042824163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.33676170694332</v>
+        <v>30.2236493083457</v>
       </c>
       <c r="C14">
-        <v>15.31060343095607</v>
+        <v>21.44446920544662</v>
       </c>
       <c r="D14">
-        <v>8.44904215968247</v>
+        <v>11.53843047305605</v>
       </c>
       <c r="E14">
-        <v>6.608283554122883</v>
+        <v>10.22775375963925</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.110400174131396</v>
+        <v>62.8582341552776</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>16.65103166459112</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.150938492393812</v>
+        <v>4.76121270481642</v>
       </c>
       <c r="K14">
-        <v>24.18908033993143</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>8.474741406306432</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>18.18168343216363</v>
+        <v>21.83175429344227</v>
       </c>
       <c r="N14">
-        <v>17.76341340250961</v>
+        <v>11.84842514848832</v>
       </c>
       <c r="O14">
-        <v>40.97160698203879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.18411621341348</v>
+        <v>30.04039930394831</v>
       </c>
       <c r="C15">
-        <v>15.21497475180976</v>
+        <v>21.31372937500563</v>
       </c>
       <c r="D15">
-        <v>8.431096529897086</v>
+        <v>11.49524952898879</v>
       </c>
       <c r="E15">
-        <v>6.612011709608385</v>
+        <v>10.20364244322709</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.111928328989181</v>
+        <v>62.53844145134227</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>16.59526400848716</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.14316191510387</v>
+        <v>4.765715778229461</v>
       </c>
       <c r="K15">
-        <v>24.06743113389787</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>8.460862743029187</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>18.11764775313333</v>
+        <v>21.69833492612451</v>
       </c>
       <c r="N15">
-        <v>17.77358060123556</v>
+        <v>11.88203506227362</v>
       </c>
       <c r="O15">
-        <v>40.84557593259155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.30589817626158</v>
+        <v>28.97784123071566</v>
       </c>
       <c r="C16">
-        <v>14.66117717373376</v>
+        <v>20.55574701834734</v>
       </c>
       <c r="D16">
-        <v>8.329836162578067</v>
+        <v>11.24894289127696</v>
       </c>
       <c r="E16">
-        <v>6.633733228685133</v>
+        <v>10.06775541196813</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.120687768518366</v>
+        <v>60.70915084282038</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>16.28010774680153</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.098734684703427</v>
+        <v>4.791860256485494</v>
       </c>
       <c r="K16">
-        <v>23.36771761516034</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>8.383015795415707</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>17.75243267269661</v>
+        <v>20.92483916226251</v>
       </c>
       <c r="N16">
-        <v>17.83424435149038</v>
+        <v>12.0753663527892</v>
       </c>
       <c r="O16">
-        <v>40.13119809898074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.76397158912198</v>
+        <v>28.31464113047069</v>
       </c>
       <c r="C17">
-        <v>14.31610191569589</v>
+        <v>20.08271425237162</v>
       </c>
       <c r="D17">
-        <v>8.269094062253579</v>
+        <v>11.09884039266562</v>
       </c>
       <c r="E17">
-        <v>6.647375756026517</v>
+        <v>9.98638177862474</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.126068108726378</v>
+        <v>59.58960343998492</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>16.09061586458697</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.071582533395807</v>
+        <v>4.808202421015387</v>
       </c>
       <c r="K17">
-        <v>22.93609234571581</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>8.33672665790399</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>17.52991465893502</v>
+        <v>20.48382917845653</v>
       </c>
       <c r="N17">
-        <v>17.87351585652052</v>
+        <v>12.19462729847491</v>
       </c>
       <c r="O17">
-        <v>39.69975941538949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.45108603973397</v>
+        <v>27.92891258780014</v>
       </c>
       <c r="C18">
-        <v>14.11559653133362</v>
+        <v>19.80760465346392</v>
       </c>
       <c r="D18">
-        <v>8.234651728154029</v>
+        <v>11.01286546480713</v>
       </c>
       <c r="E18">
-        <v>6.655338601826948</v>
+        <v>9.940289867509534</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.129166992037239</v>
+        <v>58.9465556319786</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>15.98300113927248</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.055995572050934</v>
+        <v>4.817713797326943</v>
       </c>
       <c r="K18">
-        <v>22.6869440176592</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>8.310627690662663</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>17.40248214295097</v>
+        <v>20.26143454492918</v>
       </c>
       <c r="N18">
-        <v>17.89682755635112</v>
+        <v>12.26346994923681</v>
       </c>
       <c r="O18">
-        <v>39.45403736159486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.34494411528489</v>
+        <v>27.7975685260616</v>
       </c>
       <c r="C19">
-        <v>14.04735476863746</v>
+        <v>19.71392892194769</v>
       </c>
       <c r="D19">
-        <v>8.223074131614943</v>
+        <v>10.98381723571757</v>
       </c>
       <c r="E19">
-        <v>6.658054570845931</v>
+        <v>9.924804556246626</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.130217112985415</v>
+        <v>58.72897624921851</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>15.94679768967471</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.050722622329737</v>
+        <v>4.820953418045544</v>
       </c>
       <c r="K19">
-        <v>22.60243315533392</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>8.301879990957699</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>17.35943036927726</v>
+        <v>20.18595826115365</v>
       </c>
       <c r="N19">
-        <v>17.90484193700259</v>
+        <v>12.28682183352266</v>
       </c>
       <c r="O19">
-        <v>39.37125123167706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.82178282765469</v>
+        <v>28.38568001271348</v>
       </c>
       <c r="C20">
-        <v>14.35304415371968</v>
+        <v>20.13338161070806</v>
       </c>
       <c r="D20">
-        <v>8.27550869504099</v>
+        <v>11.11478167797673</v>
       </c>
       <c r="E20">
-        <v>6.645911467412562</v>
+        <v>9.994970041460565</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.12549496097801</v>
+        <v>59.7086877364284</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>16.11064439265665</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.074469636089953</v>
+        <v>4.806451206574423</v>
       </c>
       <c r="K20">
-        <v>22.98213134180471</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>8.34159954327904</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>17.55354462085475</v>
+        <v>20.52490531546274</v>
       </c>
       <c r="N20">
-        <v>17.869259739064</v>
+        <v>12.18190633701851</v>
       </c>
       <c r="O20">
-        <v>39.74543377929017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.4098993500209</v>
+        <v>30.31130678012597</v>
       </c>
       <c r="C21">
-        <v>15.35636013990838</v>
+        <v>21.5070105931433</v>
       </c>
       <c r="D21">
-        <v>8.457675966794383</v>
+        <v>11.55915759646089</v>
       </c>
       <c r="E21">
-        <v>6.606502139596299</v>
+        <v>10.23935696503223</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.109667351570057</v>
+        <v>63.01164689301432</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>16.67785361244779</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.154670294213347</v>
+        <v>4.759059349440263</v>
       </c>
       <c r="K21">
-        <v>24.2473697181131</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>8.481426973632678</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>18.21242172824199</v>
+        <v>21.8955777748783</v>
       </c>
       <c r="N21">
-        <v>17.75858165653817</v>
+        <v>11.83232101860679</v>
       </c>
       <c r="O21">
-        <v>41.03218430462366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.43789096840675</v>
+        <v>31.53400464470311</v>
       </c>
       <c r="C22">
-        <v>15.99549117671897</v>
+        <v>22.37953991600992</v>
       </c>
       <c r="D22">
-        <v>8.581400195158327</v>
+        <v>11.85298833095103</v>
       </c>
       <c r="E22">
-        <v>6.581791234560081</v>
+        <v>10.40584325005451</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.099321080585715</v>
+        <v>65.18065298906799</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>17.06167547297542</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.207522690879676</v>
+        <v>4.72907554360791</v>
       </c>
       <c r="K22">
-        <v>25.06687060973012</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>8.57780213930703</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>18.64821677731149</v>
+        <v>22.78600657422569</v>
       </c>
       <c r="N22">
-        <v>17.69340685416776</v>
+        <v>11.60595957449444</v>
       </c>
       <c r="O22">
-        <v>41.89647377477083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.89009585192819</v>
+        <v>30.88458639492761</v>
       </c>
       <c r="C23">
-        <v>15.65581670939764</v>
+        <v>21.91606783429507</v>
       </c>
       <c r="D23">
-        <v>8.514925072342555</v>
+        <v>11.69583967904965</v>
       </c>
       <c r="E23">
-        <v>6.594883533255909</v>
+        <v>10.31634454068137</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.104845359137923</v>
+        <v>64.02190999830043</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>16.85557439300674</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.179265505365001</v>
+        <v>4.744988172058473</v>
       </c>
       <c r="K23">
-        <v>24.63012726403579</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>8.525891873506636</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>18.41513233707531</v>
+        <v>22.31302442803</v>
       </c>
       <c r="N23">
-        <v>17.7274989773066</v>
+        <v>11.72658208305142</v>
       </c>
       <c r="O23">
-        <v>41.43295748144302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.79565049752007</v>
+        <v>28.3535772058768</v>
       </c>
       <c r="C24">
-        <v>14.33634917732399</v>
+        <v>20.11048474959382</v>
       </c>
       <c r="D24">
-        <v>8.272607149924445</v>
+        <v>11.10757362466122</v>
       </c>
       <c r="E24">
-        <v>6.646573099960067</v>
+        <v>9.991085140320251</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.125754063043532</v>
+        <v>59.65484789470167</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>16.10158537161861</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.073164306530751</v>
+        <v>4.80724256908865</v>
       </c>
       <c r="K24">
-        <v>22.96132023410864</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>8.339394916349372</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>17.54285997187664</v>
+        <v>20.50633831379877</v>
       </c>
       <c r="N24">
-        <v>17.87118165108929</v>
+        <v>12.18765661680782</v>
       </c>
       <c r="O24">
-        <v>39.72477719694532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.49158757057651</v>
+        <v>25.45915685509186</v>
       </c>
       <c r="C25">
-        <v>12.83496258848017</v>
+        <v>18.04610712321308</v>
       </c>
       <c r="D25">
-        <v>8.030050867650578</v>
+        <v>10.48686454201787</v>
       </c>
       <c r="E25">
-        <v>6.706762721731365</v>
+        <v>9.667294753047484</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.148487207461989</v>
+        <v>54.97846827371141</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>15.34060357148651</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.959806270157042</v>
+        <v>4.878673639553735</v>
       </c>
       <c r="K25">
-        <v>21.12756313744862</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>8.158176787026676</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>16.62326733722212</v>
+        <v>18.86525926374107</v>
       </c>
       <c r="N25">
-        <v>18.05354528555827</v>
+        <v>12.69455136406603</v>
       </c>
       <c r="O25">
-        <v>37.97463926650921</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.17653048791558</v>
+        <v>19.31316573748933</v>
       </c>
       <c r="C2">
-        <v>16.41738291675351</v>
+        <v>11.84010561515647</v>
       </c>
       <c r="D2">
-        <v>10.04161794222173</v>
+        <v>14.15956757559038</v>
       </c>
       <c r="E2">
-        <v>9.450261706559957</v>
+        <v>14.84811228905033</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>51.56130573041062</v>
+        <v>54.50571722401614</v>
       </c>
       <c r="H2">
-        <v>14.8217154625242</v>
+        <v>20.32345201087863</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.935001061426013</v>
+        <v>8.804551075236112</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.62412829632096</v>
+        <v>21.10196533253012</v>
       </c>
       <c r="N2">
-        <v>13.07685902650545</v>
+        <v>20.09585692038839</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.53098801313424</v>
+        <v>18.90903804794742</v>
       </c>
       <c r="C3">
-        <v>15.24224103302578</v>
+        <v>11.47483974471798</v>
       </c>
       <c r="D3">
-        <v>9.747588974830089</v>
+        <v>14.15133265898079</v>
       </c>
       <c r="E3">
-        <v>9.315698920966389</v>
+        <v>14.86717736098309</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>49.26480537340958</v>
+        <v>54.16403796566748</v>
       </c>
       <c r="H3">
-        <v>14.49448669008648</v>
+        <v>20.32839887147685</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.97553303899069</v>
+        <v>8.822916133225236</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.76453993068943</v>
+        <v>20.99173617891381</v>
       </c>
       <c r="N3">
-        <v>13.34214411950017</v>
+        <v>20.16664817796953</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.54912346175767</v>
+        <v>18.66227009808558</v>
       </c>
       <c r="C4">
-        <v>14.48450715689475</v>
+        <v>11.24815731486175</v>
       </c>
       <c r="D4">
-        <v>9.571078473332825</v>
+        <v>14.14918911161825</v>
       </c>
       <c r="E4">
-        <v>9.239005832090443</v>
+        <v>14.8813916364922</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>47.86657258640882</v>
+        <v>53.97074229940368</v>
       </c>
       <c r="H4">
-        <v>14.30519963429259</v>
+        <v>20.33605387164364</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.001593523588579</v>
+        <v>8.834873604584125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.22880129693148</v>
+        <v>20.92882995850882</v>
       </c>
       <c r="N4">
-        <v>13.50826947591946</v>
+        <v>20.21211858886305</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.14431512935314</v>
+        <v>18.56220773770978</v>
       </c>
       <c r="C5">
-        <v>14.16649202742394</v>
+        <v>11.15533633640147</v>
       </c>
       <c r="D5">
-        <v>9.500201565614482</v>
+        <v>14.14904841333506</v>
       </c>
       <c r="E5">
-        <v>9.209208211117154</v>
+        <v>14.88781401456687</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>47.30022304406836</v>
+        <v>53.89617619942163</v>
       </c>
       <c r="H5">
-        <v>14.23092942839805</v>
+        <v>20.34033170834338</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.012510038104563</v>
+        <v>8.839918138362195</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.00871462592883</v>
+        <v>20.90441495526168</v>
       </c>
       <c r="N5">
-        <v>13.57680871596342</v>
+        <v>20.23115327545823</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.07653096608617</v>
+        <v>18.54562703936355</v>
       </c>
       <c r="C6">
-        <v>14.11312466554099</v>
+        <v>11.13990139318545</v>
       </c>
       <c r="D6">
-        <v>9.488497341030545</v>
+        <v>14.14906931373177</v>
       </c>
       <c r="E6">
-        <v>9.204347199660601</v>
+        <v>14.88891846784225</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>47.20640444422396</v>
+        <v>53.88404988847753</v>
       </c>
       <c r="H6">
-        <v>14.21876822572024</v>
+        <v>20.34111190990903</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.014340679743127</v>
+        <v>8.840766167240719</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.97207024319741</v>
+        <v>20.90043505734542</v>
       </c>
       <c r="N6">
-        <v>13.58824124928877</v>
+        <v>20.23434451233698</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.54370213001135</v>
+        <v>18.66091840304684</v>
       </c>
       <c r="C7">
-        <v>14.48025583938699</v>
+        <v>11.24690708684073</v>
       </c>
       <c r="D7">
-        <v>9.570118284234331</v>
+        <v>14.1491842467796</v>
       </c>
       <c r="E7">
-        <v>9.238598125004774</v>
+        <v>14.88147570142258</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>47.8589199772115</v>
+        <v>53.96971958860559</v>
       </c>
       <c r="H7">
-        <v>14.30418647665931</v>
+        <v>20.33610687809975</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.001739544314276</v>
+        <v>8.834940940847352</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.22583995327902</v>
+        <v>20.92849572652784</v>
       </c>
       <c r="N7">
-        <v>13.50919037536318</v>
+        <v>20.21237325064232</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.61937822656013</v>
+        <v>19.1736299415763</v>
       </c>
       <c r="C8">
-        <v>16.01962184934543</v>
+        <v>11.71475417408169</v>
       </c>
       <c r="D8">
-        <v>9.939424237792066</v>
+        <v>14.15612399183474</v>
       </c>
       <c r="E8">
-        <v>9.40261251328505</v>
+        <v>14.85416490597774</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>50.76726678599649</v>
+        <v>54.38451785003357</v>
       </c>
       <c r="H8">
-        <v>14.7064371393852</v>
+        <v>20.32419779804294</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.948733792875115</v>
+        <v>8.810742230712004</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.32951415381316</v>
+        <v>21.06297928459298</v>
       </c>
       <c r="N8">
-        <v>13.16767336604138</v>
+        <v>20.11985043755843</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.45706392699301</v>
+        <v>20.18331408745182</v>
       </c>
       <c r="C9">
-        <v>18.7578757651035</v>
+        <v>12.60662158141576</v>
       </c>
       <c r="D9">
-        <v>10.69414402942592</v>
+        <v>14.19281117883172</v>
       </c>
       <c r="E9">
-        <v>9.772928727858284</v>
+        <v>14.82054179504506</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>56.54975661889701</v>
+        <v>55.32603149663916</v>
       </c>
       <c r="H9">
-        <v>15.59029921698009</v>
+        <v>20.3375846967809</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.854035808931927</v>
+        <v>8.768673251251952</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.42330715466325</v>
+        <v>21.36366725189469</v>
       </c>
       <c r="N9">
-        <v>12.52245724156987</v>
+        <v>19.95426377959314</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.05294503035241</v>
+        <v>20.91920561054616</v>
       </c>
       <c r="C10">
-        <v>20.6093180093898</v>
+        <v>13.23839670334807</v>
       </c>
       <c r="D10">
-        <v>11.26611984647488</v>
+        <v>14.23376725079765</v>
       </c>
       <c r="E10">
-        <v>10.07713851866883</v>
+        <v>14.80802921406976</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>60.83702506124737</v>
+        <v>56.09160239746194</v>
       </c>
       <c r="H10">
-        <v>16.30191916051664</v>
+        <v>20.36992500405676</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.790010627518032</v>
+        <v>8.741018974867218</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.97950512561929</v>
+        <v>21.6057748460663</v>
       </c>
       <c r="N10">
-        <v>12.06179092361743</v>
+        <v>19.84219420587848</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.18865360774092</v>
+        <v>21.25100957635809</v>
       </c>
       <c r="C11">
-        <v>21.41950104619378</v>
+        <v>13.51927105140103</v>
       </c>
       <c r="D11">
-        <v>11.53016843852592</v>
+        <v>14.25541637038682</v>
       </c>
       <c r="E11">
-        <v>10.22313394599636</v>
+        <v>14.8049896943582</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>62.79706622846432</v>
+        <v>56.45487179497734</v>
       </c>
       <c r="H11">
-        <v>16.64034974768564</v>
+        <v>20.38953455579231</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.762072519546701</v>
+        <v>8.72913877794209</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.80627434051593</v>
+        <v>21.72020040904216</v>
       </c>
       <c r="N11">
-        <v>11.85484960443514</v>
+        <v>19.7932766000578</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.61254669984679</v>
+        <v>21.3760991504071</v>
       </c>
       <c r="C12">
-        <v>21.72194870654307</v>
+        <v>13.62458833265829</v>
       </c>
       <c r="D12">
-        <v>11.63073740353247</v>
+        <v>14.26404554361297</v>
       </c>
       <c r="E12">
-        <v>10.2795737194644</v>
+        <v>14.80422033228817</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>63.54101340208794</v>
+        <v>56.59449430633205</v>
       </c>
       <c r="H12">
-        <v>16.77074322162849</v>
+        <v>20.39766415239693</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.751662774201141</v>
+        <v>8.724740235084665</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.11492336602339</v>
+        <v>21.76411853529686</v>
       </c>
       <c r="N12">
-        <v>11.77684795338566</v>
+        <v>19.77504837707132</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.52152278619447</v>
+        <v>21.34918568250884</v>
       </c>
       <c r="C13">
-        <v>21.65700024704335</v>
+        <v>13.60195435938506</v>
       </c>
       <c r="D13">
-        <v>11.60905167259778</v>
+        <v>14.26216797282305</v>
       </c>
       <c r="E13">
-        <v>10.26736598443849</v>
+        <v>14.80436905290547</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>63.38070725160705</v>
+        <v>56.56433407518547</v>
       </c>
       <c r="H13">
-        <v>16.74255891629101</v>
+        <v>20.39588200628419</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.753897159190229</v>
+        <v>8.725683088729912</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.04864289748291</v>
+        <v>21.75463432133018</v>
       </c>
       <c r="N13">
-        <v>11.79363101974088</v>
+        <v>19.77896100876686</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.2236493083457</v>
+        <v>21.26131267067123</v>
       </c>
       <c r="C14">
-        <v>21.44446920544662</v>
+        <v>13.52795705218955</v>
       </c>
       <c r="D14">
-        <v>11.53843047305605</v>
+        <v>14.25611767531911</v>
       </c>
       <c r="E14">
-        <v>10.22775375963925</v>
+        <v>14.80491874919074</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>62.8582341552776</v>
+        <v>56.46631790867666</v>
       </c>
       <c r="H14">
-        <v>16.65103166459112</v>
+        <v>20.39018928037355</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.76121270481642</v>
+        <v>8.728774900755553</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.83175429344227</v>
+        <v>21.72380197338807</v>
       </c>
       <c r="N14">
-        <v>11.84842514848832</v>
+        <v>19.79177102973953</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.04039930394831</v>
+        <v>21.20741153760321</v>
       </c>
       <c r="C15">
-        <v>21.31372937500563</v>
+        <v>13.48249268914167</v>
       </c>
       <c r="D15">
-        <v>11.49524952898879</v>
+        <v>14.25246774560252</v>
       </c>
       <c r="E15">
-        <v>10.20364244322709</v>
+        <v>14.80530515835909</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>62.53844145134227</v>
+        <v>56.40654550309267</v>
       </c>
       <c r="H15">
-        <v>16.59526400848716</v>
+        <v>20.38679396463734</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.765715778229461</v>
+        <v>8.730681765667333</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.69833492612451</v>
+        <v>21.70499191441043</v>
       </c>
       <c r="N15">
-        <v>11.88203506227362</v>
+        <v>19.79965603464628</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.97784123071566</v>
+        <v>20.89745046135583</v>
       </c>
       <c r="C16">
-        <v>20.55574701834734</v>
+        <v>13.21990035233387</v>
       </c>
       <c r="D16">
-        <v>11.24894289127696</v>
+        <v>14.23241292517808</v>
       </c>
       <c r="E16">
-        <v>10.06775541196813</v>
+        <v>14.80828125040092</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>60.70915084282038</v>
+        <v>56.06815562720565</v>
       </c>
       <c r="H16">
-        <v>16.28010774680153</v>
+        <v>20.36874200947646</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.791860256485494</v>
+        <v>8.741809421664719</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.92483916226251</v>
+        <v>21.59838071417136</v>
       </c>
       <c r="N16">
-        <v>12.0753663527892</v>
+        <v>19.8454325297246</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.31464113047069</v>
+        <v>20.70644552114938</v>
       </c>
       <c r="C17">
-        <v>20.08271425237162</v>
+        <v>13.05705897400666</v>
       </c>
       <c r="D17">
-        <v>11.09884039266562</v>
+        <v>14.2208810285101</v>
       </c>
       <c r="E17">
-        <v>9.98638177862474</v>
+        <v>14.81078655368603</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>59.58960343998492</v>
+        <v>55.86434014097112</v>
       </c>
       <c r="H17">
-        <v>16.09061586458697</v>
+        <v>20.35892207457302</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.808202421015387</v>
+        <v>8.748814838420358</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.48382917845653</v>
+        <v>21.53405645462157</v>
       </c>
       <c r="N17">
-        <v>12.19462729847491</v>
+        <v>19.87404276415118</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.92891258780014</v>
+        <v>20.59631364640904</v>
       </c>
       <c r="C18">
-        <v>19.80760465346392</v>
+        <v>12.96278851851377</v>
       </c>
       <c r="D18">
-        <v>11.01286546480713</v>
+        <v>14.21453245458524</v>
       </c>
       <c r="E18">
-        <v>9.940289867509534</v>
+        <v>14.81247720177139</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>58.9465556319786</v>
+        <v>55.74852961142332</v>
       </c>
       <c r="H18">
-        <v>15.98300113927248</v>
+        <v>20.35373497646311</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.817713797326943</v>
+        <v>8.752910068423217</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.26143454492918</v>
+        <v>21.49746442259966</v>
       </c>
       <c r="N18">
-        <v>12.26346994923681</v>
+        <v>19.89069288422364</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.7975685260616</v>
+        <v>20.55898251853962</v>
       </c>
       <c r="C19">
-        <v>19.71392892194769</v>
+        <v>12.93076906950054</v>
       </c>
       <c r="D19">
-        <v>10.98381723571757</v>
+        <v>14.2124318397546</v>
       </c>
       <c r="E19">
-        <v>9.924804556246626</v>
+        <v>14.81309249743855</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>58.72897624921851</v>
+        <v>55.70956472615236</v>
       </c>
       <c r="H19">
-        <v>15.94679768967471</v>
+        <v>20.35205790489879</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.820953418045544</v>
+        <v>8.754307973835489</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.18595826115365</v>
+        <v>21.48514551926068</v>
       </c>
       <c r="N19">
-        <v>12.28682183352266</v>
+        <v>19.89636372270421</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.38568001271348</v>
+        <v>20.72680734152866</v>
       </c>
       <c r="C20">
-        <v>20.13338161070806</v>
+        <v>13.07445748444475</v>
       </c>
       <c r="D20">
-        <v>11.11478167797673</v>
+        <v>14.22207921726601</v>
       </c>
       <c r="E20">
-        <v>9.994970041460565</v>
+        <v>14.81049401864508</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>59.7086877364284</v>
+        <v>55.88589050546314</v>
       </c>
       <c r="H20">
-        <v>16.11064439265665</v>
+        <v>20.35991970546106</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.806451206574423</v>
+        <v>8.748062282485288</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.52490531546274</v>
+        <v>21.5408621137611</v>
       </c>
       <c r="N20">
-        <v>12.18190633701851</v>
+        <v>19.87097705628012</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.31130678012597</v>
+        <v>21.28713924570543</v>
       </c>
       <c r="C21">
-        <v>21.5070105931433</v>
+        <v>13.54972097001401</v>
       </c>
       <c r="D21">
-        <v>11.55915759646089</v>
+        <v>14.25788311885918</v>
       </c>
       <c r="E21">
-        <v>10.23935696503223</v>
+        <v>14.80474693155815</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>63.01164689301432</v>
+        <v>56.49505251979332</v>
       </c>
       <c r="H21">
-        <v>16.67785361244779</v>
+        <v>20.39184227523148</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.759059349440263</v>
+        <v>8.727864043657977</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.8955777748783</v>
+        <v>21.73284247070866</v>
       </c>
       <c r="N21">
-        <v>11.83232101860679</v>
+        <v>19.78800039485108</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.53400464470311</v>
+        <v>21.6500440332453</v>
       </c>
       <c r="C22">
-        <v>22.37953991600992</v>
+        <v>13.85420799056181</v>
       </c>
       <c r="D22">
-        <v>11.85298833095103</v>
+        <v>14.28379430476428</v>
       </c>
       <c r="E22">
-        <v>10.40584325005451</v>
+        <v>14.80321535252554</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>65.18065298906799</v>
+        <v>56.90513547812174</v>
       </c>
       <c r="H22">
-        <v>17.06167547297542</v>
+        <v>20.41680764876748</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.72907554360791</v>
+        <v>8.715247355990476</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.78600657422569</v>
+        <v>21.86172373550119</v>
       </c>
       <c r="N22">
-        <v>11.60595957449444</v>
+        <v>19.73549417188006</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.88458639492761</v>
+        <v>21.45669888128376</v>
       </c>
       <c r="C23">
-        <v>21.91606783429507</v>
+        <v>13.6922901096693</v>
       </c>
       <c r="D23">
-        <v>11.69583967904965</v>
+        <v>14.26973629614114</v>
       </c>
       <c r="E23">
-        <v>10.31634454068137</v>
+        <v>14.80382921329195</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>64.02190999830043</v>
+        <v>56.6852055816717</v>
       </c>
       <c r="H23">
-        <v>16.85557439300674</v>
+        <v>20.40310811813855</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.744988172058473</v>
+        <v>8.721927815507195</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.31302442803</v>
+        <v>21.79263518540316</v>
       </c>
       <c r="N23">
-        <v>11.72658208305142</v>
+        <v>19.7633602929294</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.3535772058768</v>
+        <v>20.71760275098489</v>
       </c>
       <c r="C24">
-        <v>20.11048474959382</v>
+        <v>13.06659363676676</v>
       </c>
       <c r="D24">
-        <v>11.10757362466122</v>
+        <v>14.22153663983335</v>
       </c>
       <c r="E24">
-        <v>9.991085140320251</v>
+        <v>14.81062549407636</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>59.65484789470167</v>
+        <v>55.87614332444241</v>
       </c>
       <c r="H24">
-        <v>16.10158537161861</v>
+        <v>20.35946724834688</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.80724256908865</v>
+        <v>8.74840230205157</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.50633831379877</v>
+        <v>21.53778406190896</v>
       </c>
       <c r="N24">
-        <v>12.18765661680782</v>
+        <v>19.87236243444254</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.45915685509186</v>
+        <v>19.91061297480015</v>
       </c>
       <c r="C25">
-        <v>18.04610712321308</v>
+        <v>12.36894485635601</v>
       </c>
       <c r="D25">
-        <v>10.48686454201787</v>
+        <v>14.18042080282629</v>
       </c>
       <c r="E25">
-        <v>9.667294753047484</v>
+        <v>14.82749925703606</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>54.97846827371141</v>
+        <v>55.05802511047554</v>
       </c>
       <c r="H25">
-        <v>15.34060357148651</v>
+        <v>20.33001637607367</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.878673639553735</v>
+        <v>8.779480558742049</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.86525926374107</v>
+        <v>21.27849821838105</v>
       </c>
       <c r="N25">
-        <v>12.69455136406603</v>
+        <v>19.99737039747051</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.31316573748933</v>
+        <v>23.17653048791557</v>
       </c>
       <c r="C2">
-        <v>11.84010561515647</v>
+        <v>16.4173829167534</v>
       </c>
       <c r="D2">
-        <v>14.15956757559038</v>
+        <v>10.04161794222163</v>
       </c>
       <c r="E2">
-        <v>14.84811228905033</v>
+        <v>9.450261706559953</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>54.50571722401614</v>
+        <v>51.56130573041063</v>
       </c>
       <c r="H2">
-        <v>20.32345201087863</v>
+        <v>14.82171546252421</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.804551075236112</v>
+        <v>4.935001061426081</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>21.10196533253012</v>
+        <v>17.62412829632096</v>
       </c>
       <c r="N2">
-        <v>20.09585692038839</v>
+        <v>13.07685902650548</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.90903804794742</v>
+        <v>21.53098801313422</v>
       </c>
       <c r="C3">
-        <v>11.47483974471798</v>
+        <v>15.24224103302573</v>
       </c>
       <c r="D3">
-        <v>14.15133265898079</v>
+        <v>9.747588974830034</v>
       </c>
       <c r="E3">
-        <v>14.86717736098309</v>
+        <v>9.315698920966351</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>54.16403796566748</v>
+        <v>49.26480537340974</v>
       </c>
       <c r="H3">
-        <v>20.32839887147685</v>
+        <v>14.49448669008649</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.822916133225236</v>
+        <v>4.975533038990629</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.99173617891381</v>
+        <v>16.76453993068943</v>
       </c>
       <c r="N3">
-        <v>20.16664817796953</v>
+        <v>13.34214411950024</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.66227009808558</v>
+        <v>20.54912346175768</v>
       </c>
       <c r="C4">
-        <v>11.24815731486175</v>
+        <v>14.48450715689485</v>
       </c>
       <c r="D4">
-        <v>14.14918911161825</v>
+        <v>9.571078473332703</v>
       </c>
       <c r="E4">
-        <v>14.8813916364922</v>
+        <v>9.239005832090399</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>53.97074229940368</v>
+        <v>47.86657258640859</v>
       </c>
       <c r="H4">
-        <v>20.33605387164364</v>
+        <v>14.30519963429252</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.834873604584125</v>
+        <v>5.001593523588579</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20.92882995850882</v>
+        <v>16.22880129693142</v>
       </c>
       <c r="N4">
-        <v>20.21211858886305</v>
+        <v>13.5082694759194</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.56220773770978</v>
+        <v>20.14431512935314</v>
       </c>
       <c r="C5">
-        <v>11.15533633640147</v>
+        <v>14.16649202742398</v>
       </c>
       <c r="D5">
-        <v>14.14904841333506</v>
+        <v>9.500201565614525</v>
       </c>
       <c r="E5">
-        <v>14.88781401456687</v>
+        <v>9.209208211117168</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>53.89617619942163</v>
+        <v>47.30022304406812</v>
       </c>
       <c r="H5">
-        <v>20.34033170834338</v>
+        <v>14.230929428398</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.839918138362195</v>
+        <v>5.012510038104534</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20.90441495526168</v>
+        <v>16.0087146259288</v>
       </c>
       <c r="N5">
-        <v>20.23115327545823</v>
+        <v>13.57680871596335</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.54562703936355</v>
+        <v>20.07653096608616</v>
       </c>
       <c r="C6">
-        <v>11.13990139318545</v>
+        <v>14.11312466554102</v>
       </c>
       <c r="D6">
-        <v>14.14906931373177</v>
+        <v>9.488497341030424</v>
       </c>
       <c r="E6">
-        <v>14.88891846784225</v>
+        <v>9.204347199660553</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>53.88404988847753</v>
+        <v>47.20640444422374</v>
       </c>
       <c r="H6">
-        <v>20.34111190990903</v>
+        <v>14.21876822572016</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.840766167240719</v>
+        <v>5.014340679743193</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20.90043505734542</v>
+        <v>15.97207024319733</v>
       </c>
       <c r="N6">
-        <v>20.23434451233698</v>
+        <v>13.58824124928864</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.66091840304684</v>
+        <v>20.54370213001135</v>
       </c>
       <c r="C7">
-        <v>11.24690708684073</v>
+        <v>14.48025583938701</v>
       </c>
       <c r="D7">
-        <v>14.1491842467796</v>
+        <v>9.570118284234232</v>
       </c>
       <c r="E7">
-        <v>14.88147570142258</v>
+        <v>9.23859812500468</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>53.96971958860559</v>
+        <v>47.85891997721141</v>
       </c>
       <c r="H7">
-        <v>20.33610687809975</v>
+        <v>14.30418647665918</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.834940940847352</v>
+        <v>5.001739544314241</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20.92849572652784</v>
+        <v>16.22583995327898</v>
       </c>
       <c r="N7">
-        <v>20.21237325064232</v>
+        <v>13.50919037536312</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.1736299415763</v>
+        <v>22.6193782265602</v>
       </c>
       <c r="C8">
-        <v>11.71475417408169</v>
+        <v>16.01962184934541</v>
       </c>
       <c r="D8">
-        <v>14.15612399183474</v>
+        <v>9.939424237791965</v>
       </c>
       <c r="E8">
-        <v>14.85416490597774</v>
+        <v>9.40261251328501</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>54.38451785003357</v>
+        <v>50.76726678599663</v>
       </c>
       <c r="H8">
-        <v>20.32419779804294</v>
+        <v>14.70643713938518</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.810742230712004</v>
+        <v>4.948733792875081</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>21.06297928459298</v>
+        <v>17.32951415381313</v>
       </c>
       <c r="N8">
-        <v>20.11985043755843</v>
+        <v>13.1676733660414</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.18331408745182</v>
+        <v>26.45706392699305</v>
       </c>
       <c r="C9">
-        <v>12.60662158141576</v>
+        <v>18.75787576510342</v>
       </c>
       <c r="D9">
-        <v>14.19281117883172</v>
+        <v>10.69414402942594</v>
       </c>
       <c r="E9">
-        <v>14.82054179504506</v>
+        <v>9.772928727858307</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>55.32603149663916</v>
+        <v>56.54975661889691</v>
       </c>
       <c r="H9">
-        <v>20.3375846967809</v>
+        <v>15.59029921698003</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.768673251251952</v>
+        <v>4.854035808931989</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.36366725189469</v>
+        <v>19.42330715466323</v>
       </c>
       <c r="N9">
-        <v>19.95426377959314</v>
+        <v>12.52245724156978</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.91920561054616</v>
+        <v>29.05294503035237</v>
       </c>
       <c r="C10">
-        <v>13.23839670334807</v>
+        <v>20.60931800938981</v>
       </c>
       <c r="D10">
-        <v>14.23376725079765</v>
+        <v>11.26611984647485</v>
       </c>
       <c r="E10">
-        <v>14.80802921406976</v>
+        <v>10.07713851866885</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>56.09160239746194</v>
+        <v>60.83702506124731</v>
       </c>
       <c r="H10">
-        <v>20.36992500405676</v>
+        <v>16.30191916051663</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.741018974867218</v>
+        <v>4.790010627518095</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.6057748460663</v>
+        <v>20.97950512561927</v>
       </c>
       <c r="N10">
-        <v>19.84219420587848</v>
+        <v>12.06179092361749</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.25100957635809</v>
+        <v>30.18865360774096</v>
       </c>
       <c r="C11">
-        <v>13.51927105140103</v>
+        <v>21.41950104619373</v>
       </c>
       <c r="D11">
-        <v>14.25541637038682</v>
+        <v>11.53016843852594</v>
       </c>
       <c r="E11">
-        <v>14.8049896943582</v>
+        <v>10.22313394599635</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>56.45487179497734</v>
+        <v>62.79706622846435</v>
       </c>
       <c r="H11">
-        <v>20.38953455579231</v>
+        <v>16.64034974768562</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.72913877794209</v>
+        <v>4.762072519546788</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.72020040904216</v>
+        <v>21.80627434051598</v>
       </c>
       <c r="N11">
-        <v>19.7932766000578</v>
+        <v>11.85484960443512</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.3760991504071</v>
+        <v>30.6125466998467</v>
       </c>
       <c r="C12">
-        <v>13.62458833265829</v>
+        <v>21.72194870654302</v>
       </c>
       <c r="D12">
-        <v>14.26404554361297</v>
+        <v>11.63073740353248</v>
       </c>
       <c r="E12">
-        <v>14.80422033228817</v>
+        <v>10.27957371946439</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>56.59449430633205</v>
+        <v>63.54101340208776</v>
       </c>
       <c r="H12">
-        <v>20.39766415239693</v>
+        <v>16.7707432216285</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.724740235084665</v>
+        <v>4.751662774201239</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.76411853529686</v>
+        <v>22.11492336602333</v>
       </c>
       <c r="N12">
-        <v>19.77504837707132</v>
+        <v>11.77684795338577</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.34918568250884</v>
+        <v>30.52152278619445</v>
       </c>
       <c r="C13">
-        <v>13.60195435938506</v>
+        <v>21.65700024704347</v>
       </c>
       <c r="D13">
-        <v>14.26216797282305</v>
+        <v>11.60905167259779</v>
       </c>
       <c r="E13">
-        <v>14.80436905290547</v>
+        <v>10.26736598443848</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>56.56433407518547</v>
+        <v>63.38070725160703</v>
       </c>
       <c r="H13">
-        <v>20.39588200628419</v>
+        <v>16.74255891629098</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.725683088729912</v>
+        <v>4.753897159190259</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.75463432133018</v>
+        <v>22.04864289748295</v>
       </c>
       <c r="N13">
-        <v>19.77896100876686</v>
+        <v>11.79363101974084</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.26131267067123</v>
+        <v>30.22364930834573</v>
       </c>
       <c r="C14">
-        <v>13.52795705218955</v>
+        <v>21.44446920544658</v>
       </c>
       <c r="D14">
-        <v>14.25611767531911</v>
+        <v>11.53843047305607</v>
       </c>
       <c r="E14">
-        <v>14.80491874919074</v>
+        <v>10.22775375963923</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>56.46631790867666</v>
+        <v>62.85823415527766</v>
       </c>
       <c r="H14">
-        <v>20.39018928037355</v>
+        <v>16.65103166459111</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.728774900755553</v>
+        <v>4.761212704816396</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.72380197338807</v>
+        <v>21.8317542934423</v>
       </c>
       <c r="N14">
-        <v>19.79177102973953</v>
+        <v>11.84842514848826</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.20741153760321</v>
+        <v>30.04039930394842</v>
       </c>
       <c r="C15">
-        <v>13.48249268914167</v>
+        <v>21.31372937500567</v>
       </c>
       <c r="D15">
-        <v>14.25246774560252</v>
+        <v>11.49524952898881</v>
       </c>
       <c r="E15">
-        <v>14.80530515835909</v>
+        <v>10.20364244322716</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>56.40654550309267</v>
+        <v>62.53844145134229</v>
       </c>
       <c r="H15">
-        <v>20.38679396463734</v>
+        <v>16.59526400848711</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.730681765667333</v>
+        <v>4.765715778229527</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.70499191441043</v>
+        <v>21.69833492612454</v>
       </c>
       <c r="N15">
-        <v>19.79965603464628</v>
+        <v>11.88203506227353</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.89745046135583</v>
+        <v>28.97784123071562</v>
       </c>
       <c r="C16">
-        <v>13.21990035233387</v>
+        <v>20.55574701834747</v>
       </c>
       <c r="D16">
-        <v>14.23241292517808</v>
+        <v>11.24894289127697</v>
       </c>
       <c r="E16">
-        <v>14.80828125040092</v>
+        <v>10.0677554119681</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>56.06815562720565</v>
+        <v>60.70915084282047</v>
       </c>
       <c r="H16">
-        <v>20.36874200947646</v>
+        <v>16.28010774680156</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.741809421664719</v>
+        <v>4.791860256485426</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.59838071417136</v>
+        <v>20.9248391622625</v>
       </c>
       <c r="N16">
-        <v>19.8454325297246</v>
+        <v>12.07536635278933</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.70644552114938</v>
+        <v>28.31464113047074</v>
       </c>
       <c r="C17">
-        <v>13.05705897400666</v>
+        <v>20.08271425237166</v>
       </c>
       <c r="D17">
-        <v>14.2208810285101</v>
+        <v>11.09884039266555</v>
       </c>
       <c r="E17">
-        <v>14.81078655368603</v>
+        <v>9.986381778624741</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>55.86434014097112</v>
+        <v>59.58960343998493</v>
       </c>
       <c r="H17">
-        <v>20.35892207457302</v>
+        <v>16.09061586458692</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.748814838420358</v>
+        <v>4.808202421015412</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.53405645462157</v>
+        <v>20.48382917845653</v>
       </c>
       <c r="N17">
-        <v>19.87404276415118</v>
+        <v>12.19462729847485</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.59631364640904</v>
+        <v>27.92891258780006</v>
       </c>
       <c r="C18">
-        <v>12.96278851851377</v>
+        <v>19.80760465346395</v>
       </c>
       <c r="D18">
-        <v>14.21453245458524</v>
+        <v>11.01286546480712</v>
       </c>
       <c r="E18">
-        <v>14.81247720177139</v>
+        <v>9.940289867509556</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>55.74852961142332</v>
+        <v>58.94655563197869</v>
       </c>
       <c r="H18">
-        <v>20.35373497646311</v>
+        <v>15.98300113927255</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.752910068423217</v>
+        <v>4.817713797326943</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.49746442259966</v>
+        <v>20.2614345449292</v>
       </c>
       <c r="N18">
-        <v>19.89069288422364</v>
+        <v>12.26346994923693</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.55898251853962</v>
+        <v>27.79756852606161</v>
       </c>
       <c r="C19">
-        <v>12.93076906950054</v>
+        <v>19.71392892194772</v>
       </c>
       <c r="D19">
-        <v>14.2124318397546</v>
+        <v>10.98381723571757</v>
       </c>
       <c r="E19">
-        <v>14.81309249743855</v>
+        <v>9.924804556246654</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>55.70956472615236</v>
+        <v>58.72897624921849</v>
       </c>
       <c r="H19">
-        <v>20.35205790489879</v>
+        <v>15.94679768967469</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.754307973835489</v>
+        <v>4.820953418045542</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.48514551926068</v>
+        <v>20.18595826115365</v>
       </c>
       <c r="N19">
-        <v>19.89636372270421</v>
+        <v>12.28682183352266</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.72680734152866</v>
+        <v>28.38568001271353</v>
       </c>
       <c r="C20">
-        <v>13.07445748444475</v>
+        <v>20.13338161070802</v>
       </c>
       <c r="D20">
-        <v>14.22207921726601</v>
+        <v>11.1147816779768</v>
       </c>
       <c r="E20">
-        <v>14.81049401864508</v>
+        <v>9.994970041460588</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>55.88589050546314</v>
+        <v>59.70868773642836</v>
       </c>
       <c r="H20">
-        <v>20.35991970546106</v>
+        <v>16.11064439265662</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.748062282485288</v>
+        <v>4.806451206574362</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.5408621137611</v>
+        <v>20.52490531546274</v>
       </c>
       <c r="N20">
-        <v>19.87097705628012</v>
+        <v>12.18190633701842</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.28713924570543</v>
+        <v>30.3113067801261</v>
       </c>
       <c r="C21">
-        <v>13.54972097001401</v>
+        <v>21.50701059314323</v>
       </c>
       <c r="D21">
-        <v>14.25788311885918</v>
+        <v>11.55915759646085</v>
       </c>
       <c r="E21">
-        <v>14.80474693155815</v>
+        <v>10.23935696503222</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.49505251979332</v>
+        <v>63.01164689301453</v>
       </c>
       <c r="H21">
-        <v>20.39184227523148</v>
+        <v>16.67785361244782</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.727864043657977</v>
+        <v>4.759059349440325</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.73284247070866</v>
+        <v>21.89557777487837</v>
       </c>
       <c r="N21">
-        <v>19.78800039485108</v>
+        <v>11.83232101860684</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.6500440332453</v>
+        <v>31.53400464470304</v>
       </c>
       <c r="C22">
-        <v>13.85420799056181</v>
+        <v>22.37953991600981</v>
       </c>
       <c r="D22">
-        <v>14.28379430476428</v>
+        <v>11.852988330951</v>
       </c>
       <c r="E22">
-        <v>14.80321535252554</v>
+        <v>10.40584325005452</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>56.90513547812174</v>
+        <v>65.18065298906801</v>
       </c>
       <c r="H22">
-        <v>20.41680764876748</v>
+        <v>17.06167547297548</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.715247355990476</v>
+        <v>4.729075543607903</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.86172373550119</v>
+        <v>22.78600657422562</v>
       </c>
       <c r="N22">
-        <v>19.73549417188006</v>
+        <v>11.60595957449447</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.45669888128376</v>
+        <v>30.88458639492772</v>
       </c>
       <c r="C23">
-        <v>13.6922901096693</v>
+        <v>21.91606783429526</v>
       </c>
       <c r="D23">
-        <v>14.26973629614114</v>
+        <v>11.69583967904959</v>
       </c>
       <c r="E23">
-        <v>14.80382921329195</v>
+        <v>10.31634454068133</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>56.6852055816717</v>
+        <v>64.02190999830052</v>
       </c>
       <c r="H23">
-        <v>20.40310811813855</v>
+        <v>16.8555743930067</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.721927815507195</v>
+        <v>4.744988172058452</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.79263518540316</v>
+        <v>22.31302442803013</v>
       </c>
       <c r="N23">
-        <v>19.7633602929294</v>
+        <v>11.72658208305134</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.71760275098489</v>
+        <v>28.35357720587675</v>
       </c>
       <c r="C24">
-        <v>13.06659363676676</v>
+        <v>20.11048474959391</v>
       </c>
       <c r="D24">
-        <v>14.22153663983335</v>
+        <v>11.10757362466123</v>
       </c>
       <c r="E24">
-        <v>14.81062549407636</v>
+        <v>9.991085140320207</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>55.87614332444241</v>
+        <v>59.65484789470158</v>
       </c>
       <c r="H24">
-        <v>20.35946724834688</v>
+        <v>16.10158537161865</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.74840230205157</v>
+        <v>4.807242569088643</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.53778406190896</v>
+        <v>20.50633831379876</v>
       </c>
       <c r="N24">
-        <v>19.87236243444254</v>
+        <v>12.18765661680782</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.91061297480015</v>
+        <v>25.45915685509187</v>
       </c>
       <c r="C25">
-        <v>12.36894485635601</v>
+        <v>18.04610712321302</v>
       </c>
       <c r="D25">
-        <v>14.18042080282629</v>
+        <v>10.48686454201791</v>
       </c>
       <c r="E25">
-        <v>14.82749925703606</v>
+        <v>9.667294753047525</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>55.05802511047554</v>
+        <v>54.97846827371134</v>
       </c>
       <c r="H25">
-        <v>20.33001637607367</v>
+        <v>15.34060357148644</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.779480558742049</v>
+        <v>4.878673639553798</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>21.27849821838105</v>
+        <v>18.86525926374108</v>
       </c>
       <c r="N25">
-        <v>19.99737039747051</v>
+        <v>12.69455136406596</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.17653048791557</v>
+        <v>12.71959475771827</v>
       </c>
       <c r="C2">
-        <v>16.4173829167534</v>
+        <v>7.182802833190608</v>
       </c>
       <c r="D2">
-        <v>10.04161794222163</v>
+        <v>9.221248364972473</v>
       </c>
       <c r="E2">
-        <v>9.450261706559953</v>
+        <v>8.574904390459306</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>51.56130573041063</v>
+        <v>27.36469547874194</v>
       </c>
       <c r="H2">
-        <v>14.82171546252421</v>
+        <v>3.420208799442074</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.761423066521269</v>
       </c>
       <c r="J2">
-        <v>4.935001061426081</v>
+        <v>10.49081113076788</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.25618850805525</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.194877630666697</v>
       </c>
       <c r="M2">
-        <v>17.62412829632096</v>
+        <v>10.31810789471491</v>
       </c>
       <c r="N2">
-        <v>13.07685902650548</v>
+        <v>7.107693626248731</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.27670462659245</v>
+      </c>
+      <c r="P2">
+        <v>13.85294635744915</v>
+      </c>
+      <c r="Q2">
+        <v>17.54152940917641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.53098801313422</v>
+        <v>11.95317410141729</v>
       </c>
       <c r="C3">
-        <v>15.24224103302573</v>
+        <v>6.995973372470248</v>
       </c>
       <c r="D3">
-        <v>9.747588974830034</v>
+        <v>8.994980389723597</v>
       </c>
       <c r="E3">
-        <v>9.315698920966351</v>
+        <v>8.469956722690336</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>49.26480537340974</v>
+        <v>27.11375739019405</v>
       </c>
       <c r="H3">
-        <v>14.49448669008649</v>
+        <v>3.600898236315608</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.896243231637882</v>
       </c>
       <c r="J3">
-        <v>4.975533038990629</v>
+        <v>10.51171500901889</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.28937983599005</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.145057215137142</v>
       </c>
       <c r="M3">
-        <v>16.76453993068943</v>
+        <v>9.720855967174828</v>
       </c>
       <c r="N3">
-        <v>13.34214411950024</v>
+        <v>6.973134218920314</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.936514687471899</v>
+      </c>
+      <c r="P3">
+        <v>13.98269132489362</v>
+      </c>
+      <c r="Q3">
+        <v>17.51357491818732</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.54912346175768</v>
+        <v>11.45546879186705</v>
       </c>
       <c r="C4">
-        <v>14.48450715689485</v>
+        <v>6.878917627357062</v>
       </c>
       <c r="D4">
-        <v>9.571078473332703</v>
+        <v>8.855147432103355</v>
       </c>
       <c r="E4">
-        <v>9.239005832090399</v>
+        <v>8.404367634042522</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>47.86657258640859</v>
+        <v>26.96783278984595</v>
       </c>
       <c r="H4">
-        <v>14.30519963429252</v>
+        <v>3.716133804531361</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.982941703653371</v>
       </c>
       <c r="J4">
-        <v>5.001593523588579</v>
+        <v>10.52700957178946</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.31310343125031</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.113306806583395</v>
       </c>
       <c r="M4">
-        <v>16.22880129693142</v>
+        <v>9.333931945344592</v>
       </c>
       <c r="N4">
-        <v>13.5082694759194</v>
+        <v>6.890090684119675</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.722284757573656</v>
+      </c>
+      <c r="P4">
+        <v>14.06394160016146</v>
+      </c>
+      <c r="Q4">
+        <v>17.50134449825524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.14431512935314</v>
+        <v>11.24133976496354</v>
       </c>
       <c r="C5">
-        <v>14.16649202742398</v>
+        <v>6.834000951806489</v>
       </c>
       <c r="D5">
-        <v>9.500201565614525</v>
+        <v>8.797243362675587</v>
       </c>
       <c r="E5">
-        <v>9.209208211117168</v>
+        <v>8.376367680968597</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>47.30022304406812</v>
+        <v>26.9015949028753</v>
       </c>
       <c r="H5">
-        <v>14.230929428398</v>
+        <v>3.764477885666248</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.021702735186524</v>
       </c>
       <c r="J5">
-        <v>5.012510038104534</v>
+        <v>10.53238036637569</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.31965339241519</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.099949412611563</v>
       </c>
       <c r="M5">
-        <v>16.0087146259288</v>
+        <v>9.171077970631476</v>
       </c>
       <c r="N5">
-        <v>13.57680871596335</v>
+        <v>6.857078889115992</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.633020369531616</v>
+      </c>
+      <c r="P5">
+        <v>14.09704281995338</v>
+      </c>
+      <c r="Q5">
+        <v>17.49392521607167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.07653096608616</v>
+        <v>11.19977983659764</v>
       </c>
       <c r="C6">
-        <v>14.11312466554102</v>
+        <v>6.830640902063354</v>
       </c>
       <c r="D6">
-        <v>9.488497341030424</v>
+        <v>8.786683188716147</v>
       </c>
       <c r="E6">
-        <v>9.204347199660553</v>
+        <v>8.370485469897362</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>47.20640444422374</v>
+        <v>26.87992697781746</v>
       </c>
       <c r="H6">
-        <v>14.21876822572016</v>
+        <v>3.772929938270247</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.031317947968094</v>
       </c>
       <c r="J6">
-        <v>5.014340679743193</v>
+        <v>10.53151026208537</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.31596868206888</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.09756369146276</v>
       </c>
       <c r="M6">
-        <v>15.97207024319733</v>
+        <v>9.143555301025142</v>
       </c>
       <c r="N6">
-        <v>13.58824124928864</v>
+        <v>6.85270460976441</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.617232649433536</v>
+      </c>
+      <c r="P6">
+        <v>14.10205927890078</v>
+      </c>
+      <c r="Q6">
+        <v>17.48829682341581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.54370213001135</v>
+        <v>11.43764691645247</v>
       </c>
       <c r="C7">
-        <v>14.48025583938701</v>
+        <v>6.889540099609803</v>
       </c>
       <c r="D7">
-        <v>9.570118284234232</v>
+        <v>8.851830497105654</v>
       </c>
       <c r="E7">
-        <v>9.23859812500468</v>
+        <v>8.400695536359249</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>47.85891997721141</v>
+        <v>26.93757141590054</v>
       </c>
       <c r="H7">
-        <v>14.30418647665918</v>
+        <v>3.717742243191741</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.991701726390247</v>
       </c>
       <c r="J7">
-        <v>5.001739544314241</v>
+        <v>10.5221805286634</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.30004335665855</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.112730486225855</v>
       </c>
       <c r="M7">
-        <v>16.22583995327898</v>
+        <v>9.331278798834859</v>
       </c>
       <c r="N7">
-        <v>13.50919037536312</v>
+        <v>6.892663775977197</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.718668202453198</v>
+      </c>
+      <c r="P7">
+        <v>14.06305481782319</v>
+      </c>
+      <c r="Q7">
+        <v>17.48906497018737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.6193782265602</v>
+        <v>12.44262642084863</v>
       </c>
       <c r="C8">
-        <v>16.01962184934541</v>
+        <v>7.133493003364003</v>
       </c>
       <c r="D8">
-        <v>9.939424237791965</v>
+        <v>9.140222542385679</v>
       </c>
       <c r="E8">
-        <v>9.40261251328501</v>
+        <v>8.534723151157884</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>50.76726678599663</v>
+        <v>27.23823053892774</v>
       </c>
       <c r="H8">
-        <v>14.70643713938518</v>
+        <v>3.482822081977081</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.817521942286813</v>
       </c>
       <c r="J8">
-        <v>4.948733792875081</v>
+        <v>10.49107548289702</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.24965775828883</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.177460815025507</v>
       </c>
       <c r="M8">
-        <v>17.32951415381313</v>
+        <v>10.11580767767028</v>
       </c>
       <c r="N8">
-        <v>13.1676733660414</v>
+        <v>7.065319783403941</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.15749975823982</v>
+      </c>
+      <c r="P8">
+        <v>13.89580076445688</v>
+      </c>
+      <c r="Q8">
+        <v>17.51489891328105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.45706392699305</v>
+        <v>14.21946219415273</v>
       </c>
       <c r="C9">
-        <v>18.75787576510342</v>
+        <v>7.573268952949934</v>
       </c>
       <c r="D9">
-        <v>10.69414402942594</v>
+        <v>9.699872187396153</v>
       </c>
       <c r="E9">
-        <v>9.772928727858307</v>
+        <v>8.793581308646965</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>56.54975661889691</v>
+        <v>27.94375993667022</v>
       </c>
       <c r="H9">
-        <v>15.59029921698003</v>
+        <v>3.054070066979613</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.493259585790652</v>
       </c>
       <c r="J9">
-        <v>4.854035808931989</v>
+        <v>10.45871927942245</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.20134596731745</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.29600387180739</v>
       </c>
       <c r="M9">
-        <v>19.42330715466323</v>
+        <v>11.49320407416685</v>
       </c>
       <c r="N9">
-        <v>12.52245724156978</v>
+        <v>7.394061357107846</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.97526304258762</v>
+      </c>
+      <c r="P9">
+        <v>13.58204542190093</v>
+      </c>
+      <c r="Q9">
+        <v>17.62718031850662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.05294503035237</v>
+        <v>15.35193943922052</v>
       </c>
       <c r="C10">
-        <v>20.60931800938981</v>
+        <v>7.90598982942397</v>
       </c>
       <c r="D10">
-        <v>11.26611984647485</v>
+        <v>10.0434018673284</v>
       </c>
       <c r="E10">
-        <v>10.07713851866885</v>
+        <v>8.906245704885643</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>60.83702506124731</v>
+        <v>28.35078923063215</v>
       </c>
       <c r="H10">
-        <v>16.30191916051663</v>
+        <v>2.783908011380404</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.282787055561855</v>
       </c>
       <c r="J10">
-        <v>4.790010627518095</v>
+        <v>10.42224699598161</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.12591998512881</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.378103819722416</v>
       </c>
       <c r="M10">
-        <v>20.97950512561927</v>
+        <v>12.39624758320225</v>
       </c>
       <c r="N10">
-        <v>12.06179092361749</v>
+        <v>7.567244162140217</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.48230997132683</v>
+      </c>
+      <c r="P10">
+        <v>13.35530017512231</v>
+      </c>
+      <c r="Q10">
+        <v>17.67194678688545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.18865360774096</v>
+        <v>15.5485635506187</v>
       </c>
       <c r="C11">
-        <v>21.41950104619373</v>
+        <v>8.22171237410139</v>
       </c>
       <c r="D11">
-        <v>11.53016843852594</v>
+        <v>9.705735434615333</v>
       </c>
       <c r="E11">
-        <v>10.22313394599635</v>
+        <v>8.397984366962952</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>62.79706622846435</v>
+        <v>27.31999274458489</v>
       </c>
       <c r="H11">
-        <v>16.64034974768562</v>
+        <v>3.50628857346429</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.243517919540547</v>
       </c>
       <c r="J11">
-        <v>4.762072519546788</v>
+        <v>10.19989573195045</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.63669629853427</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.452880336608213</v>
       </c>
       <c r="M11">
-        <v>21.80627434051598</v>
+        <v>12.70981567405086</v>
       </c>
       <c r="N11">
-        <v>11.85484960443512</v>
+        <v>7.098694112045241</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>11.19324934582323</v>
+      </c>
+      <c r="P11">
+        <v>13.24001745786073</v>
+      </c>
+      <c r="Q11">
+        <v>17.17964977626756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.6125466998467</v>
+        <v>15.49848905395688</v>
       </c>
       <c r="C12">
-        <v>21.72194870654302</v>
+        <v>8.41275291072508</v>
       </c>
       <c r="D12">
-        <v>11.63073740353248</v>
+        <v>9.347010648163046</v>
       </c>
       <c r="E12">
-        <v>10.27957371946439</v>
+        <v>8.018361217487517</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>63.54101340208776</v>
+        <v>26.39170303983675</v>
       </c>
       <c r="H12">
-        <v>16.7707432216285</v>
+        <v>4.682437649094657</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.236340607864121</v>
       </c>
       <c r="J12">
-        <v>4.751662774201239</v>
+        <v>10.02498228819091</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.26143863328972</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.54508247076428</v>
       </c>
       <c r="M12">
-        <v>22.11492336602333</v>
+        <v>12.79131618311987</v>
       </c>
       <c r="N12">
-        <v>11.77684795338577</v>
+        <v>6.681457820816463</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.84066451154537</v>
+      </c>
+      <c r="P12">
+        <v>13.20350719035429</v>
+      </c>
+      <c r="Q12">
+        <v>16.76721610473934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.52152278619445</v>
+        <v>15.2364168885836</v>
       </c>
       <c r="C13">
-        <v>21.65700024704347</v>
+        <v>8.536625882878191</v>
       </c>
       <c r="D13">
-        <v>11.60905167259779</v>
+        <v>8.94184803922847</v>
       </c>
       <c r="E13">
-        <v>10.26736598443848</v>
+        <v>7.718492485620823</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>63.38070725160703</v>
+        <v>25.43606495039376</v>
       </c>
       <c r="H13">
-        <v>16.74255891629098</v>
+        <v>5.991846012013968</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.266946264634803</v>
       </c>
       <c r="J13">
-        <v>4.753897159190259</v>
+        <v>9.868583307177039</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.93226429792</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.6517912710968</v>
       </c>
       <c r="M13">
-        <v>22.04864289748295</v>
+        <v>12.70132428683467</v>
       </c>
       <c r="N13">
-        <v>11.79363101974084</v>
+        <v>6.28483136583313</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.40828973098608</v>
+      </c>
+      <c r="P13">
+        <v>13.22145988813632</v>
+      </c>
+      <c r="Q13">
+        <v>16.37219538283362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.22364930834573</v>
+        <v>14.94967257883656</v>
       </c>
       <c r="C14">
-        <v>21.44446920544658</v>
+        <v>8.598104824899789</v>
       </c>
       <c r="D14">
-        <v>11.53843047305607</v>
+        <v>8.635183766055698</v>
       </c>
       <c r="E14">
-        <v>10.22775375963923</v>
+        <v>7.560641368648219</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>62.85823415527766</v>
+        <v>24.74865318072639</v>
       </c>
       <c r="H14">
-        <v>16.65103166459111</v>
+        <v>6.948579196074562</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.308101311807151</v>
       </c>
       <c r="J14">
-        <v>4.761212704816396</v>
+        <v>9.767082807554104</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.72251893295006</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.736870964300783</v>
       </c>
       <c r="M14">
-        <v>21.8317542934423</v>
+        <v>12.55951300825261</v>
       </c>
       <c r="N14">
-        <v>11.84842514848826</v>
+        <v>6.024571546316656</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.06582085840668</v>
+      </c>
+      <c r="P14">
+        <v>13.25912723147656</v>
+      </c>
+      <c r="Q14">
+        <v>16.10226828650729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.04039930394842</v>
+        <v>14.82898441927802</v>
       </c>
       <c r="C15">
-        <v>21.31372937500567</v>
+        <v>8.602745751951373</v>
       </c>
       <c r="D15">
-        <v>11.49524952898881</v>
+        <v>8.550288255476012</v>
       </c>
       <c r="E15">
-        <v>10.20364244322716</v>
+        <v>7.529548047442323</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>62.53844145134229</v>
+        <v>24.56825505470579</v>
       </c>
       <c r="H15">
-        <v>16.59526400848711</v>
+        <v>7.174897608405724</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.330519273166908</v>
       </c>
       <c r="J15">
-        <v>4.765715778229527</v>
+        <v>9.745212065856647</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.6775140958765</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.754759344017413</v>
       </c>
       <c r="M15">
-        <v>21.69833492612454</v>
+        <v>12.487536081566</v>
       </c>
       <c r="N15">
-        <v>11.88203506227353</v>
+        <v>5.964205901601733</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.964871794341832</v>
+      </c>
+      <c r="P15">
+        <v>13.27827198902578</v>
+      </c>
+      <c r="Q15">
+        <v>16.03743639803251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.97784123071562</v>
+        <v>14.39065677270496</v>
       </c>
       <c r="C16">
-        <v>20.55574701834747</v>
+        <v>8.447721121257112</v>
       </c>
       <c r="D16">
-        <v>11.24894289127697</v>
+        <v>8.473040668609579</v>
       </c>
       <c r="E16">
-        <v>10.0677554119681</v>
+        <v>7.538266478545708</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>60.70915084282047</v>
+        <v>24.55567172630353</v>
       </c>
       <c r="H16">
-        <v>16.28010774680156</v>
+        <v>7.001335759326105</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.419331140731201</v>
       </c>
       <c r="J16">
-        <v>4.791860256485426</v>
+        <v>9.789567513670688</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.77094872726911</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.694688144885494</v>
       </c>
       <c r="M16">
-        <v>20.9248391622625</v>
+        <v>12.13007162348904</v>
       </c>
       <c r="N16">
-        <v>12.07536635278933</v>
+        <v>5.967670746781209</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.820880198150805</v>
+      </c>
+      <c r="P16">
+        <v>13.36390775133715</v>
+      </c>
+      <c r="Q16">
+        <v>16.0895780133773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.31464113047074</v>
+        <v>14.20733382321308</v>
       </c>
       <c r="C17">
-        <v>20.08271425237166</v>
+        <v>8.293717228785271</v>
       </c>
       <c r="D17">
-        <v>11.09884039266555</v>
+        <v>8.579782491947872</v>
       </c>
       <c r="E17">
-        <v>9.986381778624741</v>
+        <v>7.619876084175783</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>59.58960343998493</v>
+        <v>24.91399111145815</v>
       </c>
       <c r="H17">
-        <v>16.09061586458692</v>
+        <v>6.333959365950345</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.466316855964266</v>
       </c>
       <c r="J17">
-        <v>4.808202421015412</v>
+        <v>9.877395598940323</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.95233222177303</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.599721048350117</v>
       </c>
       <c r="M17">
-        <v>20.48382917845653</v>
+        <v>11.92899497429589</v>
       </c>
       <c r="N17">
-        <v>12.19462729847485</v>
+        <v>6.105489406337107</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.896651053535201</v>
+      </c>
+      <c r="P17">
+        <v>13.41037784945636</v>
+      </c>
+      <c r="Q17">
+        <v>16.27291065838283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.92891258780006</v>
+        <v>14.23880588852478</v>
       </c>
       <c r="C18">
-        <v>19.80760465346395</v>
+        <v>8.11709737782682</v>
       </c>
       <c r="D18">
-        <v>11.01286546480712</v>
+        <v>8.858876530450219</v>
       </c>
       <c r="E18">
-        <v>9.940289867509556</v>
+        <v>7.821884428762582</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>58.94655563197869</v>
+        <v>25.65122941848612</v>
       </c>
       <c r="H18">
-        <v>15.98300113927255</v>
+        <v>5.217218624340787</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.471845583933706</v>
       </c>
       <c r="J18">
-        <v>4.817713797326943</v>
+        <v>10.01589081794476</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.2426294183901</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.483297107114288</v>
       </c>
       <c r="M18">
-        <v>20.2614345449292</v>
+        <v>11.84537133543057</v>
       </c>
       <c r="N18">
-        <v>12.26346994923693</v>
+        <v>6.391757913701496</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.17201651546985</v>
+      </c>
+      <c r="P18">
+        <v>13.43361561264478</v>
+      </c>
+      <c r="Q18">
+        <v>16.59827224201608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.79756852606161</v>
+        <v>14.41632769635192</v>
       </c>
       <c r="C19">
-        <v>19.71392892194772</v>
+        <v>7.966737670193427</v>
       </c>
       <c r="D19">
-        <v>10.98381723571757</v>
+        <v>9.251324346199223</v>
       </c>
       <c r="E19">
-        <v>9.924804556246654</v>
+        <v>8.166411247207483</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>58.72897624921849</v>
+        <v>26.59243874894304</v>
       </c>
       <c r="H19">
-        <v>15.94679768967469</v>
+        <v>3.977060140222605</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.45898580160879</v>
       </c>
       <c r="J19">
-        <v>4.820953418045542</v>
+        <v>10.17795476783234</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.5861384918422</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.389348388039331</v>
       </c>
       <c r="M19">
-        <v>20.18595826115365</v>
+        <v>11.86337247966386</v>
       </c>
       <c r="N19">
-        <v>12.28682183352266</v>
+        <v>6.80477891579183</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.58072230074164</v>
+      </c>
+      <c r="P19">
+        <v>13.44420255438369</v>
+      </c>
+      <c r="Q19">
+        <v>16.99629007055919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.38568001271353</v>
+        <v>15.02550867959822</v>
       </c>
       <c r="C20">
-        <v>20.13338161070802</v>
+        <v>7.853414654416158</v>
       </c>
       <c r="D20">
-        <v>11.1147816779768</v>
+        <v>9.944371405452662</v>
       </c>
       <c r="E20">
-        <v>9.994970041460588</v>
+        <v>8.864670385382393</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>59.70868773642836</v>
+        <v>28.14933741688189</v>
       </c>
       <c r="H20">
-        <v>16.11064439265662</v>
+        <v>2.855907530085164</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.364392297651343</v>
       </c>
       <c r="J20">
-        <v>4.806451206574362</v>
+        <v>10.41512899336636</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.10248467904628</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.355958477700971</v>
       </c>
       <c r="M20">
-        <v>20.52490531546274</v>
+        <v>12.16424059058377</v>
       </c>
       <c r="N20">
-        <v>12.18190633701842</v>
+        <v>7.527734416069672</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.34214750312201</v>
+      </c>
+      <c r="P20">
+        <v>13.4116364536561</v>
+      </c>
+      <c r="Q20">
+        <v>17.61937867276195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.3113067801261</v>
+        <v>15.91045627018564</v>
       </c>
       <c r="C21">
-        <v>21.50701059314323</v>
+        <v>8.071608108464536</v>
       </c>
       <c r="D21">
-        <v>11.55915759646085</v>
+        <v>10.29323576252</v>
       </c>
       <c r="E21">
-        <v>10.23935696503222</v>
+        <v>9.05877549957891</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>63.01164689301453</v>
+        <v>28.70495479543097</v>
       </c>
       <c r="H21">
-        <v>16.67785361244782</v>
+        <v>2.616712502982347</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.196325653184736</v>
       </c>
       <c r="J21">
-        <v>4.759059349440325</v>
+        <v>10.43051993565942</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.13821825733189</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.417130506034074</v>
       </c>
       <c r="M21">
-        <v>21.89557777487837</v>
+        <v>12.83948662673472</v>
       </c>
       <c r="N21">
-        <v>11.83232101860684</v>
+        <v>7.758306770536892</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.81241456969345</v>
+      </c>
+      <c r="P21">
+        <v>13.24477102440862</v>
+      </c>
+      <c r="Q21">
+        <v>17.75966730314853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.53400464470304</v>
+        <v>16.46131102735687</v>
       </c>
       <c r="C22">
-        <v>22.37953991600981</v>
+        <v>8.207292314452683</v>
       </c>
       <c r="D22">
-        <v>11.852988330951</v>
+        <v>10.49217813306156</v>
       </c>
       <c r="E22">
-        <v>10.40584325005452</v>
+        <v>9.152460954208262</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>65.18065298906801</v>
+        <v>29.0396333184604</v>
       </c>
       <c r="H22">
-        <v>17.06167547297548</v>
+        <v>2.474660484917069</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.080687429770855</v>
       </c>
       <c r="J22">
-        <v>4.729075543607903</v>
+        <v>10.43741745044931</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.15551896952832</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.456735670997241</v>
       </c>
       <c r="M22">
-        <v>22.78600657422562</v>
+        <v>13.2584257776417</v>
       </c>
       <c r="N22">
-        <v>11.60595957449447</v>
+        <v>7.870737336615433</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.08472284917365</v>
+      </c>
+      <c r="P22">
+        <v>13.13632043842177</v>
+      </c>
+      <c r="Q22">
+        <v>17.84193025570985</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.88458639492772</v>
+        <v>16.18258735352929</v>
       </c>
       <c r="C23">
-        <v>21.91606783429526</v>
+        <v>8.12289207506188</v>
       </c>
       <c r="D23">
-        <v>11.69583967904959</v>
+        <v>10.3887993518202</v>
       </c>
       <c r="E23">
-        <v>10.31634454068133</v>
+        <v>9.106028626936434</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>64.02190999830052</v>
+        <v>28.8921871142722</v>
       </c>
       <c r="H23">
-        <v>16.8555743930067</v>
+        <v>2.549292574949285</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.131324363672636</v>
       </c>
       <c r="J23">
-        <v>4.744988172058452</v>
+        <v>10.43907301275973</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.16097738314284</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.435988261259583</v>
       </c>
       <c r="M23">
-        <v>22.31302442803013</v>
+        <v>13.0369276792476</v>
       </c>
       <c r="N23">
-        <v>11.72658208305134</v>
+        <v>7.807620887644952</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.94247386459094</v>
+      </c>
+      <c r="P23">
+        <v>13.19498633506971</v>
+      </c>
+      <c r="Q23">
+        <v>17.81122943551773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.35357720587675</v>
+        <v>15.05730776938998</v>
       </c>
       <c r="C24">
-        <v>20.11048474959391</v>
+        <v>7.81739618365679</v>
       </c>
       <c r="D24">
-        <v>11.10757362466123</v>
+        <v>9.987795540488232</v>
       </c>
       <c r="E24">
-        <v>9.991085140320207</v>
+        <v>8.922161836914839</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>59.65484789470158</v>
+        <v>28.29867994813699</v>
       </c>
       <c r="H24">
-        <v>16.10158537161865</v>
+        <v>2.839956935445959</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.346765206042409</v>
       </c>
       <c r="J24">
-        <v>4.807242569088643</v>
+        <v>10.44188081889906</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.16554323270759</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.355220608011444</v>
       </c>
       <c r="M24">
-        <v>20.50633831379876</v>
+        <v>12.16069224882576</v>
       </c>
       <c r="N24">
-        <v>12.18765661680782</v>
+        <v>7.571090930600544</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.38530668600398</v>
+      </c>
+      <c r="P24">
+        <v>13.41806191141108</v>
+      </c>
+      <c r="Q24">
+        <v>17.68411130536713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.45915685509187</v>
+        <v>13.73963130626094</v>
       </c>
       <c r="C25">
-        <v>18.04610712321302</v>
+        <v>7.475922343624862</v>
       </c>
       <c r="D25">
-        <v>10.48686454201791</v>
+        <v>9.545766540797381</v>
       </c>
       <c r="E25">
-        <v>9.667294753047525</v>
+        <v>8.719073647872321</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>54.97846827371134</v>
+        <v>27.69504702986085</v>
       </c>
       <c r="H25">
-        <v>15.34060357148644</v>
+        <v>3.168059566248972</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.592592983092635</v>
       </c>
       <c r="J25">
-        <v>4.878673639553798</v>
+        <v>10.45658332481725</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.18804586209133</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.264297681723215</v>
       </c>
       <c r="M25">
-        <v>18.86525926374108</v>
+        <v>11.13733554207714</v>
       </c>
       <c r="N25">
-        <v>12.69455136406596</v>
+        <v>7.310985374059936</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>10.75563756456049</v>
+      </c>
+      <c r="P25">
+        <v>13.6638880294134</v>
+      </c>
+      <c r="Q25">
+        <v>17.57088556603032</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.71959475771827</v>
+        <v>12.36950409201547</v>
       </c>
       <c r="C2">
-        <v>7.182802833190608</v>
+        <v>6.94074466440921</v>
       </c>
       <c r="D2">
-        <v>9.221248364972473</v>
+        <v>9.161650743458893</v>
       </c>
       <c r="E2">
-        <v>8.574904390459306</v>
+        <v>8.482298846547062</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>27.36469547874194</v>
+        <v>26.06685829319231</v>
       </c>
       <c r="H2">
-        <v>3.420208799442074</v>
+        <v>3.286544093361939</v>
       </c>
       <c r="I2">
-        <v>3.761423066521269</v>
+        <v>3.586928487984563</v>
       </c>
       <c r="J2">
-        <v>10.49081113076788</v>
+        <v>10.42424709761421</v>
       </c>
       <c r="K2">
-        <v>17.25618850805525</v>
+        <v>16.58607306507876</v>
       </c>
       <c r="L2">
-        <v>5.194877630666697</v>
+        <v>13.17315236832349</v>
       </c>
       <c r="M2">
-        <v>10.31810789471491</v>
+        <v>11.34151909572763</v>
       </c>
       <c r="N2">
-        <v>7.107693626248731</v>
+        <v>5.169431772784024</v>
       </c>
       <c r="O2">
-        <v>10.27670462659245</v>
+        <v>10.35013001939064</v>
       </c>
       <c r="P2">
-        <v>13.85294635744915</v>
+        <v>7.303644622138432</v>
       </c>
       <c r="Q2">
-        <v>17.54152940917641</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.19370565092616</v>
+      </c>
+      <c r="R2">
+        <v>13.66685900532628</v>
+      </c>
+      <c r="S2">
+        <v>17.04018618581113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.95317410141729</v>
+        <v>11.63052721619355</v>
       </c>
       <c r="C3">
-        <v>6.995973372470248</v>
+        <v>6.684255665139946</v>
       </c>
       <c r="D3">
-        <v>8.994980389723597</v>
+        <v>8.943077846750933</v>
       </c>
       <c r="E3">
-        <v>8.469956722690336</v>
+        <v>8.389190751090597</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>27.11375739019405</v>
+        <v>25.92400878673446</v>
       </c>
       <c r="H3">
-        <v>3.600898236315608</v>
+        <v>3.456113221999575</v>
       </c>
       <c r="I3">
-        <v>3.896243231637882</v>
+        <v>3.707789517569046</v>
       </c>
       <c r="J3">
-        <v>10.51171500901889</v>
+        <v>10.42038146801507</v>
       </c>
       <c r="K3">
-        <v>17.28937983599005</v>
+        <v>16.64180642706146</v>
       </c>
       <c r="L3">
-        <v>5.145057215137142</v>
+        <v>13.29251340704636</v>
       </c>
       <c r="M3">
-        <v>9.720855967174828</v>
+        <v>11.34220095509805</v>
       </c>
       <c r="N3">
-        <v>6.973134218920314</v>
+        <v>5.120965920376691</v>
       </c>
       <c r="O3">
-        <v>9.936514687471899</v>
+        <v>9.75810918985364</v>
       </c>
       <c r="P3">
-        <v>13.98269132489362</v>
+        <v>7.167282858612929</v>
       </c>
       <c r="Q3">
-        <v>17.51357491818732</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.856557464951898</v>
+      </c>
+      <c r="R3">
+        <v>13.78940331924347</v>
+      </c>
+      <c r="S3">
+        <v>17.03506561285219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.45546879186705</v>
+        <v>11.14948991014801</v>
       </c>
       <c r="C4">
-        <v>6.878917627357062</v>
+        <v>6.523483665472353</v>
       </c>
       <c r="D4">
-        <v>8.855147432103355</v>
+        <v>8.808040532788782</v>
       </c>
       <c r="E4">
-        <v>8.404367634042522</v>
+        <v>8.330954832768432</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>26.96783278984595</v>
+        <v>25.84595791635901</v>
       </c>
       <c r="H4">
-        <v>3.716133804531361</v>
+        <v>3.564293314471127</v>
       </c>
       <c r="I4">
-        <v>3.982941703653371</v>
+        <v>3.785790966793887</v>
       </c>
       <c r="J4">
-        <v>10.52700957178946</v>
+        <v>10.41891041499761</v>
       </c>
       <c r="K4">
-        <v>17.31310343125031</v>
+        <v>16.67841821450356</v>
       </c>
       <c r="L4">
-        <v>5.113306806583395</v>
+        <v>13.36694328615128</v>
       </c>
       <c r="M4">
-        <v>9.333931945344592</v>
+        <v>11.35813075509035</v>
       </c>
       <c r="N4">
-        <v>6.890090684119675</v>
+        <v>5.090108664278289</v>
       </c>
       <c r="O4">
-        <v>9.722284757573656</v>
+        <v>9.37468511646294</v>
       </c>
       <c r="P4">
-        <v>14.06394160016146</v>
+        <v>7.083442981475217</v>
       </c>
       <c r="Q4">
-        <v>17.50134449825524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.643977814120639</v>
+      </c>
+      <c r="R4">
+        <v>13.86635546213518</v>
+      </c>
+      <c r="S4">
+        <v>17.03598103986568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.24133976496354</v>
+        <v>10.94200810349228</v>
       </c>
       <c r="C5">
-        <v>6.834000951806489</v>
+        <v>6.461389520670919</v>
       </c>
       <c r="D5">
-        <v>8.797243362675587</v>
+        <v>8.752104240595887</v>
       </c>
       <c r="E5">
-        <v>8.376367680968597</v>
+        <v>8.305980940192793</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>26.9015949028753</v>
+        <v>25.80775371989349</v>
       </c>
       <c r="H5">
-        <v>3.764477885666248</v>
+        <v>3.609696905082829</v>
       </c>
       <c r="I5">
-        <v>4.021702735186524</v>
+        <v>3.821390237087654</v>
       </c>
       <c r="J5">
-        <v>10.53238036637569</v>
+        <v>10.41700192163618</v>
       </c>
       <c r="K5">
-        <v>17.31965339241519</v>
+        <v>16.69003876798115</v>
       </c>
       <c r="L5">
-        <v>5.099949412611563</v>
+        <v>13.39371637178448</v>
       </c>
       <c r="M5">
-        <v>9.171077970631476</v>
+        <v>11.36647974841137</v>
       </c>
       <c r="N5">
-        <v>6.857078889115992</v>
+        <v>5.077142131258322</v>
       </c>
       <c r="O5">
-        <v>9.633020369531616</v>
+        <v>9.213339666660648</v>
       </c>
       <c r="P5">
-        <v>14.09704281995338</v>
+        <v>7.050186837864299</v>
       </c>
       <c r="Q5">
-        <v>17.49392521607167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.555320283658462</v>
+      </c>
+      <c r="R5">
+        <v>13.89780162417775</v>
+      </c>
+      <c r="S5">
+        <v>17.03370145920264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.19977983659764</v>
+        <v>10.90146445795289</v>
       </c>
       <c r="C6">
-        <v>6.830640902063354</v>
+        <v>6.456194482621578</v>
       </c>
       <c r="D6">
-        <v>8.786683188716147</v>
+        <v>8.741870666344489</v>
       </c>
       <c r="E6">
-        <v>8.370485469897362</v>
+        <v>8.300616055071449</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>26.87992697781746</v>
+        <v>25.79082077350473</v>
       </c>
       <c r="H6">
-        <v>3.772929938270247</v>
+        <v>3.617648623076692</v>
       </c>
       <c r="I6">
-        <v>4.031317947968094</v>
+        <v>3.831024482268766</v>
       </c>
       <c r="J6">
-        <v>10.53151026208537</v>
+        <v>10.41482240727363</v>
       </c>
       <c r="K6">
-        <v>17.31596868206888</v>
+        <v>16.68725094917646</v>
       </c>
       <c r="L6">
-        <v>5.09756369146276</v>
+        <v>13.39348489817638</v>
       </c>
       <c r="M6">
-        <v>9.143555301025142</v>
+        <v>11.36560934292323</v>
       </c>
       <c r="N6">
-        <v>6.85270460976441</v>
+        <v>5.074835933376391</v>
       </c>
       <c r="O6">
-        <v>9.617232649433536</v>
+        <v>9.186077073454195</v>
       </c>
       <c r="P6">
-        <v>14.10205927890078</v>
+        <v>7.045776138644734</v>
       </c>
       <c r="Q6">
-        <v>17.48829682341581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.539619970958684</v>
+      </c>
+      <c r="R6">
+        <v>13.90262882662275</v>
+      </c>
+      <c r="S6">
+        <v>17.02891764111392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.43764691645247</v>
+        <v>11.12865779334912</v>
       </c>
       <c r="C7">
-        <v>6.889540099609803</v>
+        <v>6.532767090345192</v>
       </c>
       <c r="D7">
-        <v>8.851830497105654</v>
+        <v>8.805286525771113</v>
       </c>
       <c r="E7">
-        <v>8.400695536359249</v>
+        <v>8.327803635991089</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>26.93757141590054</v>
+        <v>25.88281865061389</v>
       </c>
       <c r="H7">
-        <v>3.717742243191741</v>
+        <v>3.566357075688368</v>
       </c>
       <c r="I7">
-        <v>3.991701726390247</v>
+        <v>3.796407849460107</v>
       </c>
       <c r="J7">
-        <v>10.5221805286634</v>
+        <v>10.38239803765647</v>
       </c>
       <c r="K7">
-        <v>17.30004335665855</v>
+        <v>16.66066688603098</v>
       </c>
       <c r="L7">
-        <v>5.112730486225855</v>
+        <v>13.34999112117684</v>
       </c>
       <c r="M7">
-        <v>9.331278798834859</v>
+        <v>11.34840546425581</v>
       </c>
       <c r="N7">
-        <v>6.892663775977197</v>
+        <v>5.089380702589684</v>
       </c>
       <c r="O7">
-        <v>9.718668202453198</v>
+        <v>9.368177160547122</v>
       </c>
       <c r="P7">
-        <v>14.06305481782319</v>
+        <v>7.085334801190525</v>
       </c>
       <c r="Q7">
-        <v>17.48906497018737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.638950060724946</v>
+      </c>
+      <c r="R7">
+        <v>13.86523489200107</v>
+      </c>
+      <c r="S7">
+        <v>17.0162270688437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.44262642084863</v>
+        <v>12.0928818788135</v>
       </c>
       <c r="C8">
-        <v>7.133493003364003</v>
+        <v>6.858687820873849</v>
       </c>
       <c r="D8">
-        <v>9.140222542385679</v>
+        <v>9.085041068306401</v>
       </c>
       <c r="E8">
-        <v>8.534723151157884</v>
+        <v>8.447774643812087</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>27.23823053892774</v>
+        <v>26.19833222408229</v>
       </c>
       <c r="H8">
-        <v>3.482822081977081</v>
+        <v>3.346933069404944</v>
       </c>
       <c r="I8">
-        <v>3.817521942286813</v>
+        <v>3.641501935706368</v>
       </c>
       <c r="J8">
-        <v>10.49107548289702</v>
+        <v>10.3138167078362</v>
       </c>
       <c r="K8">
-        <v>17.24965775828883</v>
+        <v>16.57162103715687</v>
       </c>
       <c r="L8">
-        <v>5.177460815025507</v>
+        <v>13.18434121356347</v>
       </c>
       <c r="M8">
-        <v>10.11580767767028</v>
+        <v>11.31768043330137</v>
       </c>
       <c r="N8">
-        <v>7.065319783403941</v>
+        <v>5.151915589797015</v>
       </c>
       <c r="O8">
-        <v>10.15749975823982</v>
+        <v>10.13755287244354</v>
       </c>
       <c r="P8">
-        <v>13.89580076445688</v>
+        <v>7.258410202166883</v>
       </c>
       <c r="Q8">
-        <v>17.51489891328105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.07109891662571</v>
+      </c>
+      <c r="R8">
+        <v>13.70637991063152</v>
+      </c>
+      <c r="S8">
+        <v>16.99678808205391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.21946219415273</v>
+        <v>13.80032943332372</v>
       </c>
       <c r="C9">
-        <v>7.573268952949934</v>
+        <v>7.459865009595348</v>
       </c>
       <c r="D9">
-        <v>9.699872187396153</v>
+        <v>9.626449639927962</v>
       </c>
       <c r="E9">
-        <v>8.793581308646965</v>
+        <v>8.678124864956891</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.94375993667022</v>
+        <v>26.70072588110614</v>
       </c>
       <c r="H9">
-        <v>3.054070066979613</v>
+        <v>2.94498836258399</v>
       </c>
       <c r="I9">
-        <v>3.493259585790652</v>
+        <v>3.350091242124703</v>
       </c>
       <c r="J9">
-        <v>10.45871927942245</v>
+        <v>10.30717462959594</v>
       </c>
       <c r="K9">
-        <v>17.20134596731745</v>
+        <v>16.45727972409615</v>
       </c>
       <c r="L9">
-        <v>5.29600387180739</v>
+        <v>12.90579658176823</v>
       </c>
       <c r="M9">
-        <v>11.49320407416685</v>
+        <v>11.40520050057862</v>
       </c>
       <c r="N9">
-        <v>7.394061357107846</v>
+        <v>5.267250898698275</v>
       </c>
       <c r="O9">
-        <v>10.97526304258762</v>
+        <v>11.50155138306448</v>
       </c>
       <c r="P9">
-        <v>13.58204542190093</v>
+        <v>7.592776710659075</v>
       </c>
       <c r="Q9">
-        <v>17.62718031850662</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.87934620555111</v>
+      </c>
+      <c r="R9">
+        <v>13.41132847759558</v>
+      </c>
+      <c r="S9">
+        <v>17.04083743506418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.35193943922052</v>
+        <v>14.87372966418936</v>
       </c>
       <c r="C10">
-        <v>7.90598982942397</v>
+        <v>7.885058010161145</v>
       </c>
       <c r="D10">
-        <v>10.0434018673284</v>
+        <v>9.96099457567194</v>
       </c>
       <c r="E10">
-        <v>8.906245704885643</v>
+        <v>8.775689489256782</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>28.35078923063215</v>
+        <v>27.35993017176689</v>
       </c>
       <c r="H10">
-        <v>2.783908011380404</v>
+        <v>2.695684386259478</v>
       </c>
       <c r="I10">
-        <v>3.282787055561855</v>
+        <v>3.165792809412431</v>
       </c>
       <c r="J10">
-        <v>10.42224699598161</v>
+        <v>10.11406134243027</v>
       </c>
       <c r="K10">
-        <v>17.12591998512881</v>
+        <v>16.30780024893112</v>
       </c>
       <c r="L10">
-        <v>5.378103819722416</v>
+        <v>12.64845935295805</v>
       </c>
       <c r="M10">
-        <v>12.39624758320225</v>
+        <v>11.48156247305744</v>
       </c>
       <c r="N10">
-        <v>7.567244162140217</v>
+        <v>5.347548107526386</v>
       </c>
       <c r="O10">
-        <v>11.48230997132683</v>
+        <v>12.37827555593975</v>
       </c>
       <c r="P10">
-        <v>13.35530017512231</v>
+        <v>7.766670406144248</v>
       </c>
       <c r="Q10">
-        <v>17.67194678688545</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.37222212269853</v>
+      </c>
+      <c r="R10">
+        <v>13.20074726591366</v>
+      </c>
+      <c r="S10">
+        <v>16.9941856453577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.5485635506187</v>
+        <v>15.05656987971471</v>
       </c>
       <c r="C11">
-        <v>8.22171237410139</v>
+        <v>8.201505969687672</v>
       </c>
       <c r="D11">
-        <v>9.705735434615333</v>
+        <v>9.631720287528204</v>
       </c>
       <c r="E11">
-        <v>8.397984366962952</v>
+        <v>8.284650482206693</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.31999274458489</v>
+        <v>27.18065242392386</v>
       </c>
       <c r="H11">
-        <v>3.50628857346429</v>
+        <v>3.443921054066863</v>
       </c>
       <c r="I11">
-        <v>3.243517919540547</v>
+        <v>3.140142217032217</v>
       </c>
       <c r="J11">
-        <v>10.19989573195045</v>
+        <v>9.604126768126513</v>
       </c>
       <c r="K11">
-        <v>16.63669629853427</v>
+        <v>15.80151499650858</v>
       </c>
       <c r="L11">
-        <v>5.452880336608213</v>
+        <v>12.2196225470333</v>
       </c>
       <c r="M11">
-        <v>12.70981567405086</v>
+        <v>11.17005949409747</v>
       </c>
       <c r="N11">
-        <v>7.098694112045241</v>
+        <v>5.428927807602602</v>
       </c>
       <c r="O11">
-        <v>11.19324934582323</v>
+        <v>12.65202498617754</v>
       </c>
       <c r="P11">
-        <v>13.24001745786073</v>
+        <v>7.282794393344111</v>
       </c>
       <c r="Q11">
-        <v>17.17964977626756</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.07082231077185</v>
+      </c>
+      <c r="R11">
+        <v>13.11477278830191</v>
+      </c>
+      <c r="S11">
+        <v>16.43768298804724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.49848905395688</v>
+        <v>15.01575820537833</v>
       </c>
       <c r="C12">
-        <v>8.41275291072508</v>
+        <v>8.377683420491582</v>
       </c>
       <c r="D12">
-        <v>9.347010648163046</v>
+        <v>9.280010008284233</v>
       </c>
       <c r="E12">
-        <v>8.018361217487517</v>
+        <v>7.92001196176194</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.39170303983675</v>
+        <v>26.67150753195293</v>
       </c>
       <c r="H12">
-        <v>4.682437649094657</v>
+        <v>4.636870287542202</v>
       </c>
       <c r="I12">
-        <v>3.236340607864121</v>
+        <v>3.13528029896711</v>
       </c>
       <c r="J12">
-        <v>10.02498228819091</v>
+        <v>9.347251563707747</v>
       </c>
       <c r="K12">
-        <v>16.26143863328972</v>
+        <v>15.44761845737568</v>
       </c>
       <c r="L12">
-        <v>5.54508247076428</v>
+        <v>11.95186508676002</v>
       </c>
       <c r="M12">
-        <v>12.79131618311987</v>
+        <v>10.91222115504747</v>
       </c>
       <c r="N12">
-        <v>6.681457820816463</v>
+        <v>5.52597794439929</v>
       </c>
       <c r="O12">
-        <v>10.84066451154537</v>
+        <v>12.71588387765899</v>
       </c>
       <c r="P12">
-        <v>13.20350719035429</v>
+        <v>6.854391309017119</v>
       </c>
       <c r="Q12">
-        <v>16.76721610473934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.71547657158946</v>
+      </c>
+      <c r="R12">
+        <v>13.10043201235194</v>
+      </c>
+      <c r="S12">
+        <v>16.02000611738672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.2364168885836</v>
+        <v>14.78728269746893</v>
       </c>
       <c r="C13">
-        <v>8.536625882878191</v>
+        <v>8.488855891534602</v>
       </c>
       <c r="D13">
-        <v>8.94184803922847</v>
+        <v>8.880000148369575</v>
       </c>
       <c r="E13">
-        <v>7.718492485620823</v>
+        <v>7.634760593632548</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.43606495039376</v>
+        <v>25.65704704852276</v>
       </c>
       <c r="H13">
-        <v>5.991846012013968</v>
+        <v>5.953979436349331</v>
       </c>
       <c r="I13">
-        <v>3.266946264634803</v>
+        <v>3.161459685269739</v>
       </c>
       <c r="J13">
-        <v>9.868583307177039</v>
+        <v>9.274905662563484</v>
       </c>
       <c r="K13">
-        <v>15.93226429792</v>
+        <v>15.17851350054748</v>
       </c>
       <c r="L13">
-        <v>5.6517912710968</v>
+        <v>11.77101456801994</v>
       </c>
       <c r="M13">
-        <v>12.70132428683467</v>
+        <v>10.67845187957819</v>
       </c>
       <c r="N13">
-        <v>6.28483136583313</v>
+        <v>5.637891673389444</v>
       </c>
       <c r="O13">
-        <v>10.40828973098608</v>
+        <v>12.63147978501776</v>
       </c>
       <c r="P13">
-        <v>13.22145988813632</v>
+        <v>6.450291047171324</v>
       </c>
       <c r="Q13">
-        <v>16.37219538283362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.29025060892605</v>
+      </c>
+      <c r="R13">
+        <v>13.13227201510444</v>
+      </c>
+      <c r="S13">
+        <v>15.68012715266954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.94967257883656</v>
+        <v>14.53526493063186</v>
       </c>
       <c r="C14">
-        <v>8.598104824899789</v>
+        <v>8.543085843332966</v>
       </c>
       <c r="D14">
-        <v>8.635183766055698</v>
+        <v>8.576260209107724</v>
       </c>
       <c r="E14">
-        <v>7.560641368648219</v>
+        <v>7.487848261146601</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>24.74865318072639</v>
+        <v>24.72938354599096</v>
       </c>
       <c r="H14">
-        <v>6.948579196074562</v>
+        <v>6.913327804278466</v>
       </c>
       <c r="I14">
-        <v>3.308101311807151</v>
+        <v>3.197029256481161</v>
       </c>
       <c r="J14">
-        <v>9.767082807554104</v>
+        <v>9.292464181461543</v>
       </c>
       <c r="K14">
-        <v>15.72251893295006</v>
+        <v>15.02500740549472</v>
       </c>
       <c r="L14">
-        <v>5.736870964300783</v>
+        <v>11.67701491886203</v>
       </c>
       <c r="M14">
-        <v>12.55951300825261</v>
+        <v>10.5267030937492</v>
       </c>
       <c r="N14">
-        <v>6.024571546316656</v>
+        <v>5.727013680532433</v>
       </c>
       <c r="O14">
-        <v>10.06582085840668</v>
+        <v>12.50386671878119</v>
       </c>
       <c r="P14">
-        <v>13.25912723147656</v>
+        <v>6.186206779224213</v>
       </c>
       <c r="Q14">
-        <v>16.10226828650729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.956939607159528</v>
+      </c>
+      <c r="R14">
+        <v>13.17422654853098</v>
+      </c>
+      <c r="S14">
+        <v>15.47288546115945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.82898441927802</v>
+        <v>14.42782821190973</v>
       </c>
       <c r="C15">
-        <v>8.602745751951373</v>
+        <v>8.547279605832932</v>
       </c>
       <c r="D15">
-        <v>8.550288255476012</v>
+        <v>8.491844372404788</v>
       </c>
       <c r="E15">
-        <v>7.529548047442323</v>
+        <v>7.459886404686348</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>24.56825505470579</v>
+        <v>24.40900503409363</v>
       </c>
       <c r="H15">
-        <v>7.174897608405724</v>
+        <v>7.139509633918843</v>
       </c>
       <c r="I15">
-        <v>3.330519273166908</v>
+        <v>3.217381652625094</v>
       </c>
       <c r="J15">
-        <v>9.745212065856647</v>
+        <v>9.325817695857081</v>
       </c>
       <c r="K15">
-        <v>15.6775140958765</v>
+        <v>14.99978361414224</v>
       </c>
       <c r="L15">
-        <v>5.754759344017413</v>
+        <v>11.66567034370418</v>
       </c>
       <c r="M15">
-        <v>12.487536081566</v>
+        <v>10.49282767734132</v>
       </c>
       <c r="N15">
-        <v>5.964205901601733</v>
+        <v>5.74625811940914</v>
       </c>
       <c r="O15">
-        <v>9.964871794341832</v>
+        <v>12.43982022297616</v>
       </c>
       <c r="P15">
-        <v>13.27827198902578</v>
+        <v>6.125569881439874</v>
       </c>
       <c r="Q15">
-        <v>16.03743639803251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.859970443969731</v>
+      </c>
+      <c r="R15">
+        <v>13.19227136672902</v>
+      </c>
+      <c r="S15">
+        <v>15.43343965580635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.39065677270496</v>
+        <v>14.03000897175556</v>
       </c>
       <c r="C16">
-        <v>8.447721121257112</v>
+        <v>8.394334021325973</v>
       </c>
       <c r="D16">
-        <v>8.473040668609579</v>
+        <v>8.413133665845153</v>
       </c>
       <c r="E16">
-        <v>7.538266478545708</v>
+        <v>7.471989953982709</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>24.55567172630353</v>
+        <v>23.74441109530792</v>
       </c>
       <c r="H16">
-        <v>7.001335759326105</v>
+        <v>6.958747331098511</v>
       </c>
       <c r="I16">
-        <v>3.419331140731201</v>
+        <v>3.293817594778327</v>
       </c>
       <c r="J16">
-        <v>9.789567513670688</v>
+        <v>9.603150682472933</v>
       </c>
       <c r="K16">
-        <v>15.77094872726911</v>
+        <v>15.14342002805703</v>
       </c>
       <c r="L16">
-        <v>5.694688144885494</v>
+        <v>11.7987092617008</v>
       </c>
       <c r="M16">
-        <v>12.13007162348904</v>
+        <v>10.54542398926269</v>
       </c>
       <c r="N16">
-        <v>5.967670746781209</v>
+        <v>5.689242566636816</v>
       </c>
       <c r="O16">
-        <v>9.820880198150805</v>
+        <v>12.11982964721498</v>
       </c>
       <c r="P16">
-        <v>13.36390775133715</v>
+        <v>6.135110575341453</v>
       </c>
       <c r="Q16">
-        <v>16.0895780133773</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.730618711000277</v>
+      </c>
+      <c r="R16">
+        <v>13.259890545416</v>
+      </c>
+      <c r="S16">
+        <v>15.56970942006119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.20733382321308</v>
+        <v>13.85519707751884</v>
       </c>
       <c r="C17">
-        <v>8.293717228785271</v>
+        <v>8.238918864730513</v>
       </c>
       <c r="D17">
-        <v>8.579782491947872</v>
+        <v>8.517852802690982</v>
       </c>
       <c r="E17">
-        <v>7.619876084175783</v>
+        <v>7.54931074208086</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>24.91399111145815</v>
+        <v>23.82110178045423</v>
       </c>
       <c r="H17">
-        <v>6.333959365950345</v>
+        <v>6.283172815650394</v>
       </c>
       <c r="I17">
-        <v>3.466316855964266</v>
+        <v>3.334855216321392</v>
       </c>
       <c r="J17">
-        <v>9.877395598940323</v>
+        <v>9.790101440818805</v>
       </c>
       <c r="K17">
-        <v>15.95233222177303</v>
+        <v>15.33060884216185</v>
       </c>
       <c r="L17">
-        <v>5.599721048350117</v>
+        <v>11.95520976058252</v>
       </c>
       <c r="M17">
-        <v>11.92899497429589</v>
+        <v>10.65841897271672</v>
       </c>
       <c r="N17">
-        <v>6.105489406337107</v>
+        <v>5.593545119772108</v>
       </c>
       <c r="O17">
-        <v>9.896651053535201</v>
+        <v>11.93522929142522</v>
       </c>
       <c r="P17">
-        <v>13.41037784945636</v>
+        <v>6.279162985227593</v>
       </c>
       <c r="Q17">
-        <v>16.27291065838283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.811164145164247</v>
+      </c>
+      <c r="R17">
+        <v>13.29351095143471</v>
+      </c>
+      <c r="S17">
+        <v>15.77655478038676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.23880588852478</v>
+        <v>13.87353801623921</v>
       </c>
       <c r="C18">
-        <v>8.11709737782682</v>
+        <v>8.062795305161828</v>
       </c>
       <c r="D18">
-        <v>8.858876530450219</v>
+        <v>8.792987798625687</v>
       </c>
       <c r="E18">
-        <v>7.821884428762582</v>
+        <v>7.739427201085462</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.65122941848612</v>
+        <v>24.40396471458262</v>
       </c>
       <c r="H18">
-        <v>5.217218624340787</v>
+        <v>5.154250452171369</v>
       </c>
       <c r="I18">
-        <v>3.471845583933706</v>
+        <v>3.337156128446697</v>
       </c>
       <c r="J18">
-        <v>10.01589081794476</v>
+        <v>9.963208259005372</v>
       </c>
       <c r="K18">
-        <v>16.2426294183901</v>
+        <v>15.59825629302125</v>
       </c>
       <c r="L18">
-        <v>5.483297107114288</v>
+        <v>12.16865394582997</v>
       </c>
       <c r="M18">
-        <v>11.84537133543057</v>
+        <v>10.8466768828866</v>
       </c>
       <c r="N18">
-        <v>6.391757913701496</v>
+        <v>5.473223232724385</v>
       </c>
       <c r="O18">
-        <v>10.17201651546985</v>
+        <v>11.85812037667228</v>
       </c>
       <c r="P18">
-        <v>13.43361561264478</v>
+        <v>6.573156997388452</v>
       </c>
       <c r="Q18">
-        <v>16.59827224201608</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.08606036991626</v>
+      </c>
+      <c r="R18">
+        <v>13.30453215463238</v>
+      </c>
+      <c r="S18">
+        <v>16.0917319364065</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.41632769635192</v>
+        <v>14.02394308424035</v>
       </c>
       <c r="C19">
-        <v>7.966737670193427</v>
+        <v>7.919500097959357</v>
       </c>
       <c r="D19">
-        <v>9.251324346199223</v>
+        <v>9.179733308719022</v>
       </c>
       <c r="E19">
-        <v>8.166411247207483</v>
+        <v>8.067000573598627</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>26.59243874894304</v>
+        <v>25.24555579578614</v>
       </c>
       <c r="H19">
-        <v>3.977060140222605</v>
+        <v>3.896565589324053</v>
       </c>
       <c r="I19">
-        <v>3.45898580160879</v>
+        <v>3.326858687339392</v>
       </c>
       <c r="J19">
-        <v>10.17795476783234</v>
+        <v>10.12472436375125</v>
       </c>
       <c r="K19">
-        <v>16.5861384918422</v>
+        <v>15.90123902951851</v>
       </c>
       <c r="L19">
-        <v>5.389348388039331</v>
+        <v>12.4046721317317</v>
       </c>
       <c r="M19">
-        <v>11.86337247966386</v>
+        <v>11.07265295463374</v>
       </c>
       <c r="N19">
-        <v>6.80477891579183</v>
+        <v>5.37277220540059</v>
       </c>
       <c r="O19">
-        <v>10.58072230074164</v>
+        <v>11.87689080346978</v>
       </c>
       <c r="P19">
-        <v>13.44420255438369</v>
+        <v>6.994783749774601</v>
       </c>
       <c r="Q19">
-        <v>16.99629007055919</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.49110652285989</v>
+      </c>
+      <c r="R19">
+        <v>13.30301579153033</v>
+      </c>
+      <c r="S19">
+        <v>16.45906119814434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.02550867959822</v>
+        <v>14.57069285897695</v>
       </c>
       <c r="C20">
-        <v>7.853414654416158</v>
+        <v>7.828802549907025</v>
       </c>
       <c r="D20">
-        <v>9.944371405452662</v>
+        <v>9.86246838504222</v>
       </c>
       <c r="E20">
-        <v>8.864670385382393</v>
+        <v>8.73652381095631</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.14933741688189</v>
+        <v>26.85655837743614</v>
       </c>
       <c r="H20">
-        <v>2.855907530085164</v>
+        <v>2.760706369426885</v>
       </c>
       <c r="I20">
-        <v>3.364392297651343</v>
+        <v>3.244369255006806</v>
       </c>
       <c r="J20">
-        <v>10.41512899336636</v>
+        <v>10.25353816881186</v>
       </c>
       <c r="K20">
-        <v>17.10248467904628</v>
+        <v>16.32318629591914</v>
       </c>
       <c r="L20">
-        <v>5.355958477700971</v>
+        <v>12.69761484291013</v>
       </c>
       <c r="M20">
-        <v>12.16424059058377</v>
+        <v>11.43951422781407</v>
       </c>
       <c r="N20">
-        <v>7.527734416069672</v>
+        <v>5.326649886151683</v>
       </c>
       <c r="O20">
-        <v>11.34214750312201</v>
+        <v>12.16408151765972</v>
       </c>
       <c r="P20">
-        <v>13.4116364536561</v>
+        <v>7.729108172704527</v>
       </c>
       <c r="Q20">
-        <v>17.61937867276195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.2401606552536</v>
+      </c>
+      <c r="R20">
+        <v>13.25459142080226</v>
+      </c>
+      <c r="S20">
+        <v>16.99307383188869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.91045627018564</v>
+        <v>15.36353321535452</v>
       </c>
       <c r="C21">
-        <v>8.071608108464536</v>
+        <v>8.050427919556169</v>
       </c>
       <c r="D21">
-        <v>10.29323576252</v>
+        <v>10.21323486863261</v>
       </c>
       <c r="E21">
-        <v>9.05877549957891</v>
+        <v>8.925797799992621</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.70495479543097</v>
+        <v>28.85730221214487</v>
       </c>
       <c r="H21">
-        <v>2.616712502982347</v>
+        <v>2.544534317598199</v>
       </c>
       <c r="I21">
-        <v>3.196325653184736</v>
+        <v>3.102484160847718</v>
       </c>
       <c r="J21">
-        <v>10.43051993565942</v>
+        <v>9.638343565936269</v>
       </c>
       <c r="K21">
-        <v>17.13821825733189</v>
+        <v>16.19920629011616</v>
       </c>
       <c r="L21">
-        <v>5.417130506034074</v>
+        <v>12.49794800696168</v>
       </c>
       <c r="M21">
-        <v>12.83948662673472</v>
+        <v>11.50466681066017</v>
       </c>
       <c r="N21">
-        <v>7.758306770536892</v>
+        <v>5.381957701031541</v>
       </c>
       <c r="O21">
-        <v>11.81241456969345</v>
+        <v>12.76343155093571</v>
       </c>
       <c r="P21">
-        <v>13.24477102440862</v>
+        <v>7.950914098997532</v>
       </c>
       <c r="Q21">
-        <v>17.75966730314853</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.67565084834541</v>
+      </c>
+      <c r="R21">
+        <v>13.09524551286184</v>
+      </c>
+      <c r="S21">
+        <v>16.91411173791749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.46131102735687</v>
+        <v>15.85516634876567</v>
       </c>
       <c r="C22">
-        <v>8.207292314452683</v>
+        <v>8.181879981399499</v>
       </c>
       <c r="D22">
-        <v>10.49217813306156</v>
+        <v>10.41490911501966</v>
       </c>
       <c r="E22">
-        <v>9.152460954208262</v>
+        <v>9.019292042003807</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.0396333184604</v>
+        <v>30.27503949560798</v>
       </c>
       <c r="H22">
-        <v>2.474660484917069</v>
+        <v>2.417095501740349</v>
       </c>
       <c r="I22">
-        <v>3.080687429770855</v>
+        <v>3.001330243417421</v>
       </c>
       <c r="J22">
-        <v>10.43741745044931</v>
+        <v>9.258048661876417</v>
       </c>
       <c r="K22">
-        <v>17.15551896952832</v>
+        <v>16.10528778652868</v>
       </c>
       <c r="L22">
-        <v>5.456735670997241</v>
+        <v>12.36047171308195</v>
       </c>
       <c r="M22">
-        <v>13.2584257776417</v>
+        <v>11.54491933222357</v>
       </c>
       <c r="N22">
-        <v>7.870737336615433</v>
+        <v>5.418543015765712</v>
       </c>
       <c r="O22">
-        <v>12.08472284917365</v>
+        <v>13.13119318776862</v>
       </c>
       <c r="P22">
-        <v>13.13632043842177</v>
+        <v>8.056444794429687</v>
       </c>
       <c r="Q22">
-        <v>17.84193025570985</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.92407788688621</v>
+      </c>
+      <c r="R22">
+        <v>12.99333335848254</v>
+      </c>
+      <c r="S22">
+        <v>16.84205990557288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.18258735352929</v>
+        <v>15.61369126843313</v>
       </c>
       <c r="C23">
-        <v>8.12289207506188</v>
+        <v>8.105755234363308</v>
       </c>
       <c r="D23">
-        <v>10.3887993518202</v>
+        <v>10.30863006377589</v>
       </c>
       <c r="E23">
-        <v>9.106028626936434</v>
+        <v>8.97130930031657</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.8921871142722</v>
+        <v>29.36662176682713</v>
       </c>
       <c r="H23">
-        <v>2.549292574949285</v>
+        <v>2.483143844601134</v>
       </c>
       <c r="I23">
-        <v>3.131324363672636</v>
+        <v>3.041468277138621</v>
       </c>
       <c r="J23">
-        <v>10.43907301275973</v>
+        <v>9.518311651883694</v>
       </c>
       <c r="K23">
-        <v>17.16097738314284</v>
+        <v>16.18211841008949</v>
       </c>
       <c r="L23">
-        <v>5.435988261259583</v>
+        <v>12.45216660471847</v>
       </c>
       <c r="M23">
-        <v>13.0369276792476</v>
+        <v>11.54484265627591</v>
       </c>
       <c r="N23">
-        <v>7.807620887644952</v>
+        <v>5.399637435008648</v>
       </c>
       <c r="O23">
-        <v>11.94247386459094</v>
+        <v>12.94447415506913</v>
       </c>
       <c r="P23">
-        <v>13.19498633506971</v>
+        <v>7.998549502313803</v>
       </c>
       <c r="Q23">
-        <v>17.81122943551773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.79774196225538</v>
+      </c>
+      <c r="R23">
+        <v>13.04789491496105</v>
+      </c>
+      <c r="S23">
+        <v>16.91310095636327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.05730776938998</v>
+        <v>14.60052342731493</v>
       </c>
       <c r="C24">
-        <v>7.81739618365679</v>
+        <v>7.787959205945167</v>
       </c>
       <c r="D24">
-        <v>9.987795540488232</v>
+        <v>9.905284868462614</v>
       </c>
       <c r="E24">
-        <v>8.922161836914839</v>
+        <v>8.792250251247097</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.29867994813699</v>
+        <v>26.98708449454066</v>
       </c>
       <c r="H24">
-        <v>2.839956935445959</v>
+        <v>2.744662548728466</v>
       </c>
       <c r="I24">
-        <v>3.346765206042409</v>
+        <v>3.223607628661776</v>
       </c>
       <c r="J24">
-        <v>10.44188081889906</v>
+        <v>10.28377314249417</v>
       </c>
       <c r="K24">
-        <v>17.16554323270759</v>
+        <v>16.38162170334334</v>
       </c>
       <c r="L24">
-        <v>5.355220608011444</v>
+        <v>12.74359193726987</v>
       </c>
       <c r="M24">
-        <v>12.16069224882576</v>
+        <v>11.48238836540669</v>
       </c>
       <c r="N24">
-        <v>7.571090930600544</v>
+        <v>5.324936254589541</v>
       </c>
       <c r="O24">
-        <v>11.38530668600398</v>
+        <v>12.16106183104402</v>
       </c>
       <c r="P24">
-        <v>13.41806191141108</v>
+        <v>7.773358567990147</v>
       </c>
       <c r="Q24">
-        <v>17.68411130536713</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.28315790813234</v>
+      </c>
+      <c r="R24">
+        <v>13.25849848821514</v>
+      </c>
+      <c r="S24">
+        <v>17.05538376399966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.73963130626094</v>
+        <v>13.34247388693501</v>
       </c>
       <c r="C25">
-        <v>7.475922343624862</v>
+        <v>7.329881918350948</v>
       </c>
       <c r="D25">
-        <v>9.545766540797381</v>
+        <v>9.476438020242661</v>
       </c>
       <c r="E25">
-        <v>8.719073647872321</v>
+        <v>8.610634358745587</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.69504702986085</v>
+        <v>26.41128662937339</v>
       </c>
       <c r="H25">
-        <v>3.168059566248972</v>
+        <v>3.051227724123239</v>
       </c>
       <c r="I25">
-        <v>3.592592983092635</v>
+        <v>3.442768759065838</v>
       </c>
       <c r="J25">
-        <v>10.45658332481725</v>
+        <v>10.34272440444042</v>
       </c>
       <c r="K25">
-        <v>17.18804586209133</v>
+        <v>16.4704092241839</v>
       </c>
       <c r="L25">
-        <v>5.264297681723215</v>
+        <v>12.96754047659489</v>
       </c>
       <c r="M25">
-        <v>11.13733554207714</v>
+        <v>11.35714109001074</v>
       </c>
       <c r="N25">
-        <v>7.310985374059936</v>
+        <v>5.236693016330514</v>
       </c>
       <c r="O25">
-        <v>10.75563756456049</v>
+        <v>11.15387717993784</v>
       </c>
       <c r="P25">
-        <v>13.6638880294134</v>
+        <v>7.508882758255017</v>
       </c>
       <c r="Q25">
-        <v>17.57088556603032</v>
+        <v>10.66424048827086</v>
+      </c>
+      <c r="R25">
+        <v>13.48899842483927</v>
+      </c>
+      <c r="S25">
+        <v>17.01459937923724</v>
       </c>
     </row>
   </sheetData>
